--- a/output/CARIN-BB-ExplanationOfBenefit-Professional-NonClinician.xlsx
+++ b/output/CARIN-BB-ExplanationOfBenefit-Professional-NonClinician.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11892" uniqueCount="970">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11892" uniqueCount="966">
   <si>
     <t>Path</t>
   </si>
@@ -175,7 +175,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">id {[]} {[]}
+    <t xml:space="preserve">id
 </t>
   </si>
   <si>
@@ -194,7 +194,7 @@
     <t>ExplanationOfBenefit.meta</t>
   </si>
   <si>
-    <t xml:space="preserve">Meta {[]} {[]}
+    <t xml:space="preserve">Meta
 </t>
   </si>
   <si>
@@ -210,7 +210,7 @@
     <t>ExplanationOfBenefit.implicitRules</t>
   </si>
   <si>
-    <t xml:space="preserve">uri {[]} {[]}
+    <t xml:space="preserve">uri
 </t>
   </si>
   <si>
@@ -229,7 +229,7 @@
     <t>ExplanationOfBenefit.language</t>
   </si>
   <si>
-    <t xml:space="preserve">code {[]} {[]}
+    <t xml:space="preserve">code
 </t>
   </si>
   <si>
@@ -261,7 +261,7 @@
 htmlxhtmldisplay</t>
   </si>
   <si>
-    <t xml:space="preserve">Narrative {[]} {[]}
+    <t xml:space="preserve">Narrative
 </t>
   </si>
   <si>
@@ -287,7 +287,7 @@
 anonymous resourcescontained resources</t>
   </si>
   <si>
-    <t xml:space="preserve">Resource {[]} {[]}
+    <t xml:space="preserve">Resource
 </t>
   </si>
   <si>
@@ -313,7 +313,7 @@
 user content</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {[]} {[]}
+    <t xml:space="preserve">Extension
 </t>
   </si>
   <si>
@@ -348,7 +348,7 @@
     <t>ExplanationOfBenefit.identifier</t>
   </si>
   <si>
-    <t xml:space="preserve">Identifier {[]} {[]}
+    <t xml:space="preserve">Identifier
 </t>
   </si>
   <si>
@@ -400,7 +400,7 @@
     <t>ExplanationOfBenefit.type</t>
   </si>
   <si>
-    <t xml:space="preserve">CodeableConcept {[]} {[]}
+    <t xml:space="preserve">CodeableConcept
 </t>
   </si>
   <si>
@@ -474,7 +474,7 @@
     <t>This element is required to understand the nature of the request for adjudication.</t>
   </si>
   <si>
-    <t>&lt;valueCode xmlns="http://hl7.org/fhir" value="claim"/&gt;</t>
+    <t>claim</t>
   </si>
   <si>
     <t>Complete, proposed, exploratory, other.</t>
@@ -486,7 +486,7 @@
     <t>ExplanationOfBenefit.patient</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Patient]]}
+    <t xml:space="preserve">Reference(Patient)
 </t>
   </si>
   <si>
@@ -508,7 +508,7 @@
     <t>ExplanationOfBenefit.billablePeriod</t>
   </si>
   <si>
-    <t xml:space="preserve">Period {[]} {[]}
+    <t xml:space="preserve">Period
 </t>
   </si>
   <si>
@@ -530,7 +530,7 @@
     <t>ExplanationOfBenefit.created</t>
   </si>
   <si>
-    <t xml:space="preserve">dateTime {[]} {[]}
+    <t xml:space="preserve">dateTime
 </t>
   </si>
   <si>
@@ -555,7 +555,7 @@
     <t>ExplanationOfBenefit.enterer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Practitioner], CanonicalType[http://hl7.org/fhir/StructureDefinition/PractitionerRole]]}
+    <t xml:space="preserve">Reference(Practitioner|PractitionerRole)
 </t>
   </si>
   <si>
@@ -577,7 +577,7 @@
     <t>ExplanationOfBenefit.insurer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Organization]]}
+    <t xml:space="preserve">Reference(Organization)
 </t>
   </si>
   <si>
@@ -672,7 +672,7 @@
     <t>ExplanationOfBenefit.related</t>
   </si>
   <si>
-    <t xml:space="preserve">BackboneElement {[]} {[]}
+    <t xml:space="preserve">BackboneElement
 </t>
   </si>
   <si>
@@ -695,7 +695,7 @@
     <t>ExplanationOfBenefit.related.id</t>
   </si>
   <si>
-    <t xml:space="preserve">string {[]} {[]}
+    <t xml:space="preserve">string
 </t>
   </si>
   <si>
@@ -740,7 +740,7 @@
     <t>ExplanationOfBenefit.related.claim</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Claim]]}
+    <t xml:space="preserve">Reference(Claim)
 </t>
   </si>
   <si>
@@ -786,7 +786,7 @@
     <t>ExplanationOfBenefit.prescription</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/MedicationRequest], CanonicalType[http://hl7.org/fhir/StructureDefinition/VisionPrescription]]}
+    <t xml:space="preserve">Reference(MedicationRequest|VisionPrescription)
 </t>
   </si>
   <si>
@@ -802,7 +802,7 @@
     <t>ExplanationOfBenefit.originalPrescription</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/MedicationRequest]]}
+    <t xml:space="preserve">Reference(MedicationRequest)
 </t>
   </si>
   <si>
@@ -863,7 +863,7 @@
     <t>ExplanationOfBenefit.payee.party</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Practitioner], CanonicalType[http://hl7.org/fhir/StructureDefinition/PractitionerRole], CanonicalType[http://hl7.org/fhir/StructureDefinition/Organization], CanonicalType[http://hl7.org/fhir/StructureDefinition/Patient], CanonicalType[http://hl7.org/fhir/StructureDefinition/RelatedPerson]]}
+    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization|Patient|RelatedPerson)
 </t>
   </si>
   <si>
@@ -882,7 +882,7 @@
     <t>ExplanationOfBenefit.referral</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/ServiceRequest]]}
+    <t xml:space="preserve">Reference(ServiceRequest)
 </t>
   </si>
   <si>
@@ -904,7 +904,7 @@
     <t>ExplanationOfBenefit.facility</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Location]]}
+    <t xml:space="preserve">Reference(Location)
 </t>
   </si>
   <si>
@@ -941,7 +941,7 @@
     <t>ExplanationOfBenefit.claimResponse</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/ClaimResponse]]}
+    <t xml:space="preserve">Reference(ClaimResponse)
 </t>
   </si>
   <si>
@@ -1035,7 +1035,7 @@
     <t>ExplanationOfBenefit.careTeam.sequence</t>
   </si>
   <si>
-    <t xml:space="preserve">positiveInt {[]} {[]}
+    <t xml:space="preserve">positiveInt
 </t>
   </si>
   <si>
@@ -1051,7 +1051,7 @@
     <t>ExplanationOfBenefit.careTeam.provider</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Practitioner], CanonicalType[http://hl7.org/fhir/StructureDefinition/PractitionerRole], CanonicalType[http://hl7.org/fhir/StructureDefinition/Organization]]}
+    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization)
 </t>
   </si>
   <si>
@@ -1070,7 +1070,7 @@
     <t>ExplanationOfBenefit.careTeam.responsible</t>
   </si>
   <si>
-    <t xml:space="preserve">boolean {[]} {[]}
+    <t xml:space="preserve">boolean
 </t>
   </si>
   <si>
@@ -1207,8 +1207,8 @@
     <t>ExplanationOfBenefit.supportingInfo.timing[x]</t>
   </si>
   <si>
-    <t>date {[]} {[]}
-Period {[]} {[]}</t>
+    <t>date
+Period</t>
   </si>
   <si>
     <t>When it occurred</t>
@@ -1220,8 +1220,8 @@
     <t>ExplanationOfBenefit.supportingInfo.value[x]</t>
   </si>
   <si>
-    <t>boolean {[]} {[]}
-string {[]} {[]}Quantity {[]} {[]}Attachment {[]} {[]}Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Resource]]}</t>
+    <t>boolean
+stringQuantityAttachmentReference(Resource)</t>
   </si>
   <si>
     <t>Data to be provided</t>
@@ -1239,7 +1239,7 @@
     <t>ExplanationOfBenefit.supportingInfo.reason</t>
   </si>
   <si>
-    <t xml:space="preserve">Coding {[]} {[]}
+    <t xml:space="preserve">Coding
 </t>
   </si>
   <si>
@@ -1309,10 +1309,7 @@
 &lt;/valueCoding&gt;</t>
   </si>
   <si>
-    <t>ExplanationOfBenefit.supportingInfo.timingDate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">date {[]} {[]}
+    <t xml:space="preserve">date
 </t>
   </si>
   <si>
@@ -1352,7 +1349,7 @@
     <t>Necessary to maintain the order of the diagnosis items and provide a mechanism to link to claim details.</t>
   </si>
   <si>
-    <t>ExplanationOfBenefit.diagnosis.diagnosisCodeableConcept</t>
+    <t>ExplanationOfBenefit.diagnosis.diagnosis[x]</t>
   </si>
   <si>
     <t>Nature of illness or problem</t>
@@ -1370,9 +1367,6 @@
     <t>http://hl7.org/fhir/ValueSet/icd-10</t>
   </si>
   <si>
-    <t>ExplanationOfBenefit.diagnosis.diagnosis[x]</t>
-  </si>
-  <si>
     <t>ExplanationOfBenefit.diagnosis.type</t>
   </si>
   <si>
@@ -1487,7 +1481,7 @@
     <t>Required for auditing purposes.</t>
   </si>
   <si>
-    <t>ExplanationOfBenefit.procedure.procedureCodeableConcept</t>
+    <t>ExplanationOfBenefit.procedure.procedure[x]</t>
   </si>
   <si>
     <t>Specific clinical procedure</t>
@@ -1505,13 +1499,10 @@
     <t>http://hl7.org/fhir/ValueSet/icd-10-procedures</t>
   </si>
   <si>
-    <t>ExplanationOfBenefit.procedure.procedure[x]</t>
-  </si>
-  <si>
     <t>ExplanationOfBenefit.procedure.udi</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Device]]}
+    <t xml:space="preserve">Reference(Device)
 </t>
   </si>
   <si>
@@ -1582,13 +1573,13 @@
     <t>To identify which coverage in the list is being used to adjudicate this claim.</t>
   </si>
   <si>
-    <t>&lt;valueBoolean xmlns="http://hl7.org/fhir" value="true"/&gt;</t>
+    <t>true</t>
   </si>
   <si>
     <t>ExplanationOfBenefit.insurance.coverage</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Coverage]]}
+    <t xml:space="preserve">Reference(Coverage)
 </t>
   </si>
   <si>
@@ -1619,7 +1610,7 @@
     <t>primaryinsurance</t>
   </si>
   <si>
-    <t>&lt;valueBoolean xmlns="http://hl7.org/fhir" value="false"/&gt;</t>
+    <t>false</t>
   </si>
   <si>
     <t>ExplanationOfBenefit.accident</t>
@@ -1679,8 +1670,8 @@
     <t>ExplanationOfBenefit.accident.location[x]</t>
   </si>
   <si>
-    <t>Address {[]} {[]}
-Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Location]]}</t>
+    <t>Address
+Reference(Location)</t>
   </si>
   <si>
     <t>Where the event occurred</t>
@@ -1882,7 +1873,7 @@
     <t>Needed to determine whether the  service or product was provided during the term of the insurance coverage.</t>
   </si>
   <si>
-    <t>ExplanationOfBenefit.item.locationCodeableConcept</t>
+    <t>ExplanationOfBenefit.item.location[x]</t>
   </si>
   <si>
     <t>Place of service or where product was supplied</t>
@@ -1897,13 +1888,10 @@
     <t>http://hl7.org/fhir/us/carin/ValueSet/carin-bb-placeofservice</t>
   </si>
   <si>
-    <t>ExplanationOfBenefit.item.location[x]</t>
-  </si>
-  <si>
     <t>ExplanationOfBenefit.item.quantity</t>
   </si>
   <si>
-    <t xml:space="preserve">Quantity {[CanonicalType[http://hl7.org/fhir/StructureDefinition/SimpleQuantity]]} {[]}
+    <t xml:space="preserve">Quantity {SimpleQuantity}
 </t>
   </si>
   <si>
@@ -1919,7 +1907,7 @@
     <t>ExplanationOfBenefit.item.unitPrice</t>
   </si>
   <si>
-    <t xml:space="preserve">Money {[]} {[]}
+    <t xml:space="preserve">Money
 </t>
   </si>
   <si>
@@ -1935,7 +1923,7 @@
     <t>ExplanationOfBenefit.item.factor</t>
   </si>
   <si>
-    <t xml:space="preserve">decimal {[]} {[]}
+    <t xml:space="preserve">decimal
 </t>
   </si>
   <si>
@@ -2008,7 +1996,7 @@
     <t>ExplanationOfBenefit.item.encounter</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Encounter]]}
+    <t xml:space="preserve">Reference(Encounter)
 </t>
   </si>
   <si>
@@ -2378,8 +2366,8 @@
     <t>ExplanationOfBenefit.addItem.location[x]</t>
   </si>
   <si>
-    <t>CodeableConcept {[]} {[]}
-Address {[]} {[]}Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Location]]}</t>
+    <t>CodeableConcept
+AddressReference(Location)</t>
   </si>
   <si>
     <t>Place where the service is rendered.</t>
@@ -2709,7 +2697,7 @@
     <t>ExplanationOfBenefit.form</t>
   </si>
   <si>
-    <t xml:space="preserve">Attachment {[]} {[]}
+    <t xml:space="preserve">Attachment
 </t>
   </si>
   <si>
@@ -2974,8 +2962,8 @@
     <t>ExplanationOfBenefit.benefitBalance.financial.allowed[x]</t>
   </si>
   <si>
-    <t>unsignedInt {[]} {[]}
-string {[]} {[]}Money {[]} {[]}</t>
+    <t>unsignedInt
+stringMoney</t>
   </si>
   <si>
     <t>Benefits allowed</t>
@@ -2990,8 +2978,8 @@
     <t>ExplanationOfBenefit.benefitBalance.financial.used[x]</t>
   </si>
   <si>
-    <t>unsignedInt {[]} {[]}
-Money {[]} {[]}</t>
+    <t>unsignedInt
+Money</t>
   </si>
   <si>
     <t>Benefits used</t>
@@ -3053,67 +3041,67 @@
     </border>
     <border>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
     </border>
     <border>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin"/>
     </border>
     <border>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin"/>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <top style="thin"/>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <top style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </top>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
   </borders>
@@ -3149,7 +3137,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN337"/>
+  <dimension ref="A1:AM337"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -15832,7 +15820,7 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>411</v>
+        <v>382</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" t="s" s="2">
@@ -15855,7 +15843,7 @@
         <v>43</v>
       </c>
       <c r="J114" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="K114" t="s" s="2">
         <v>384</v>
@@ -16167,7 +16155,7 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" t="s" s="2">
@@ -16193,14 +16181,14 @@
         <v>210</v>
       </c>
       <c r="K117" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="L117" t="s" s="2">
         <v>414</v>
-      </c>
-      <c r="L117" t="s" s="2">
-        <v>415</v>
       </c>
       <c r="M117" s="2"/>
       <c r="N117" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="O117" t="s" s="2">
         <v>43</v>
@@ -16249,7 +16237,7 @@
         <v>43</v>
       </c>
       <c r="AE117" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="AF117" t="s" s="2">
         <v>41</v>
@@ -16278,7 +16266,7 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" t="s" s="2">
@@ -16387,7 +16375,7 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" t="s" s="2">
@@ -16498,7 +16486,7 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" t="s" s="2">
@@ -16611,7 +16599,7 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" t="s" s="2">
@@ -16637,16 +16625,16 @@
         <v>327</v>
       </c>
       <c r="K121" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="L121" t="s" s="2">
         <v>421</v>
       </c>
-      <c r="L121" t="s" s="2">
+      <c r="M121" t="s" s="2">
         <v>422</v>
       </c>
-      <c r="M121" t="s" s="2">
+      <c r="N121" t="s" s="2">
         <v>423</v>
-      </c>
-      <c r="N121" t="s" s="2">
-        <v>424</v>
       </c>
       <c r="O121" t="s" s="2">
         <v>43</v>
@@ -16695,7 +16683,7 @@
         <v>43</v>
       </c>
       <c r="AE121" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="AF121" t="s" s="2">
         <v>50</v>
@@ -16724,7 +16712,7 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" t="s" s="2">
@@ -16750,14 +16738,14 @@
         <v>123</v>
       </c>
       <c r="K122" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="L122" t="s" s="2">
         <v>426</v>
-      </c>
-      <c r="L122" t="s" s="2">
-        <v>427</v>
       </c>
       <c r="M122" s="2"/>
       <c r="N122" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="O122" t="s" s="2">
         <v>43</v>
@@ -16785,11 +16773,11 @@
         <v>139</v>
       </c>
       <c r="X122" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="Y122" t="s" s="2">
         <v>429</v>
       </c>
-      <c r="Y122" t="s" s="2">
-        <v>430</v>
-      </c>
       <c r="Z122" t="s" s="2">
         <v>43</v>
       </c>
@@ -16806,7 +16794,7 @@
         <v>43</v>
       </c>
       <c r="AE122" t="s" s="2">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="AF122" t="s" s="2">
         <v>50</v>
@@ -16835,7 +16823,7 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B123" s="2"/>
       <c r="C123" t="s" s="2">
@@ -16861,16 +16849,16 @@
         <v>123</v>
       </c>
       <c r="K123" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="L123" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="M123" t="s" s="2">
         <v>433</v>
       </c>
-      <c r="L123" t="s" s="2">
+      <c r="N123" t="s" s="2">
         <v>434</v>
-      </c>
-      <c r="M123" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="N123" t="s" s="2">
-        <v>436</v>
       </c>
       <c r="O123" t="s" s="2">
         <v>43</v>
@@ -16899,7 +16887,7 @@
       </c>
       <c r="X123" s="2"/>
       <c r="Y123" t="s" s="2">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="Z123" t="s" s="2">
         <v>43</v>
@@ -16917,7 +16905,7 @@
         <v>43</v>
       </c>
       <c r="AE123" t="s" s="2">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="AF123" t="s" s="2">
         <v>41</v>
@@ -16946,7 +16934,7 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B124" s="2"/>
       <c r="C124" t="s" s="2">
@@ -16972,14 +16960,14 @@
         <v>123</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="M124" s="2"/>
       <c r="N124" t="s" s="2">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="O124" t="s" s="2">
         <v>43</v>
@@ -17007,10 +16995,10 @@
         <v>139</v>
       </c>
       <c r="X124" t="s" s="2">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="Y124" t="s" s="2">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="Z124" t="s" s="2">
         <v>43</v>
@@ -17028,7 +17016,7 @@
         <v>43</v>
       </c>
       <c r="AE124" t="s" s="2">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="AF124" t="s" s="2">
         <v>41</v>
@@ -17057,7 +17045,7 @@
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B125" s="2"/>
       <c r="C125" t="s" s="2">
@@ -17083,16 +17071,16 @@
         <v>123</v>
       </c>
       <c r="K125" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="L125" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="M125" t="s" s="2">
         <v>445</v>
       </c>
-      <c r="L125" t="s" s="2">
+      <c r="N125" t="s" s="2">
         <v>446</v>
-      </c>
-      <c r="M125" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="N125" t="s" s="2">
-        <v>448</v>
       </c>
       <c r="O125" t="s" s="2">
         <v>43</v>
@@ -17120,10 +17108,10 @@
         <v>139</v>
       </c>
       <c r="X125" t="s" s="2">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="Y125" t="s" s="2">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="Z125" t="s" s="2">
         <v>43</v>
@@ -17141,7 +17129,7 @@
         <v>43</v>
       </c>
       <c r="AE125" t="s" s="2">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="AF125" t="s" s="2">
         <v>41</v>
@@ -17170,7 +17158,7 @@
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B126" s="2"/>
       <c r="C126" t="s" s="2">
@@ -17196,14 +17184,14 @@
         <v>210</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="M126" s="2"/>
       <c r="N126" t="s" s="2">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="O126" t="s" s="2">
         <v>43</v>
@@ -17252,7 +17240,7 @@
         <v>43</v>
       </c>
       <c r="AE126" t="s" s="2">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="AF126" t="s" s="2">
         <v>41</v>
@@ -17281,7 +17269,7 @@
     </row>
     <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B127" s="2"/>
       <c r="C127" t="s" s="2">
@@ -17390,7 +17378,7 @@
     </row>
     <row r="128" hidden="true">
       <c r="A128" t="s" s="2">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B128" s="2"/>
       <c r="C128" t="s" s="2">
@@ -17501,7 +17489,7 @@
     </row>
     <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B129" s="2"/>
       <c r="C129" t="s" s="2">
@@ -17614,7 +17602,7 @@
     </row>
     <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B130" s="2"/>
       <c r="C130" t="s" s="2">
@@ -17640,14 +17628,14 @@
         <v>327</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="M130" s="2"/>
       <c r="N130" t="s" s="2">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="O130" t="s" s="2">
         <v>43</v>
@@ -17696,7 +17684,7 @@
         <v>43</v>
       </c>
       <c r="AE130" t="s" s="2">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="AF130" t="s" s="2">
         <v>50</v>
@@ -17725,7 +17713,7 @@
     </row>
     <row r="131" hidden="true">
       <c r="A131" t="s" s="2">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B131" s="2"/>
       <c r="C131" t="s" s="2">
@@ -17751,14 +17739,14 @@
         <v>123</v>
       </c>
       <c r="K131" t="s" s="2">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="M131" s="2"/>
       <c r="N131" t="s" s="2">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="O131" t="s" s="2">
         <v>43</v>
@@ -17786,10 +17774,10 @@
         <v>139</v>
       </c>
       <c r="X131" t="s" s="2">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="Y131" t="s" s="2">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="Z131" t="s" s="2">
         <v>43</v>
@@ -17807,7 +17795,7 @@
         <v>43</v>
       </c>
       <c r="AE131" t="s" s="2">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="AF131" t="s" s="2">
         <v>41</v>
@@ -17836,7 +17824,7 @@
     </row>
     <row r="132" hidden="true">
       <c r="A132" t="s" s="2">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B132" s="2"/>
       <c r="C132" t="s" s="2">
@@ -17862,14 +17850,14 @@
         <v>164</v>
       </c>
       <c r="K132" t="s" s="2">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="M132" s="2"/>
       <c r="N132" t="s" s="2">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="O132" t="s" s="2">
         <v>43</v>
@@ -17918,7 +17906,7 @@
         <v>43</v>
       </c>
       <c r="AE132" t="s" s="2">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="AF132" t="s" s="2">
         <v>41</v>
@@ -17947,7 +17935,7 @@
     </row>
     <row r="133" hidden="true">
       <c r="A133" t="s" s="2">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B133" s="2"/>
       <c r="C133" t="s" s="2">
@@ -17973,14 +17961,14 @@
         <v>123</v>
       </c>
       <c r="K133" t="s" s="2">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="M133" s="2"/>
       <c r="N133" t="s" s="2">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="O133" t="s" s="2">
         <v>43</v>
@@ -18008,10 +17996,10 @@
         <v>139</v>
       </c>
       <c r="X133" t="s" s="2">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="Y133" t="s" s="2">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="Z133" t="s" s="2">
         <v>43</v>
@@ -18029,7 +18017,7 @@
         <v>43</v>
       </c>
       <c r="AE133" t="s" s="2">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="AF133" t="s" s="2">
         <v>50</v>
@@ -18058,7 +18046,7 @@
     </row>
     <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="B134" s="2"/>
       <c r="C134" t="s" s="2">
@@ -18081,17 +18069,17 @@
         <v>43</v>
       </c>
       <c r="J134" t="s" s="2">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="K134" t="s" s="2">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="M134" s="2"/>
       <c r="N134" t="s" s="2">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="O134" t="s" s="2">
         <v>43</v>
@@ -18140,7 +18128,7 @@
         <v>43</v>
       </c>
       <c r="AE134" t="s" s="2">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="AF134" t="s" s="2">
         <v>41</v>
@@ -18169,7 +18157,7 @@
     </row>
     <row r="135" hidden="true">
       <c r="A135" t="s" s="2">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="B135" s="2"/>
       <c r="C135" t="s" s="2">
@@ -18195,14 +18183,14 @@
         <v>327</v>
       </c>
       <c r="K135" t="s" s="2">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="M135" s="2"/>
       <c r="N135" t="s" s="2">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="O135" t="s" s="2">
         <v>43</v>
@@ -18251,7 +18239,7 @@
         <v>43</v>
       </c>
       <c r="AE135" t="s" s="2">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="AF135" t="s" s="2">
         <v>41</v>
@@ -18280,7 +18268,7 @@
     </row>
     <row r="136" hidden="true">
       <c r="A136" t="s" s="2">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="B136" s="2"/>
       <c r="C136" t="s" s="2">
@@ -18306,16 +18294,16 @@
         <v>210</v>
       </c>
       <c r="K136" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="L136" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="M136" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="N136" t="s" s="2">
         <v>487</v>
-      </c>
-      <c r="L136" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="M136" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="N136" t="s" s="2">
-        <v>490</v>
       </c>
       <c r="O136" t="s" s="2">
         <v>43</v>
@@ -18352,7 +18340,7 @@
         <v>43</v>
       </c>
       <c r="AA136" t="s" s="2">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="AB136" s="2"/>
       <c r="AC136" t="s" s="2">
@@ -18362,7 +18350,7 @@
         <v>361</v>
       </c>
       <c r="AE136" t="s" s="2">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="AF136" t="s" s="2">
         <v>50</v>
@@ -18383,7 +18371,7 @@
         <v>43</v>
       </c>
       <c r="AL136" t="s" s="2">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="AM136" t="s" s="2">
         <v>43</v>
@@ -18391,7 +18379,7 @@
     </row>
     <row r="137" hidden="true">
       <c r="A137" t="s" s="2">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="B137" s="2"/>
       <c r="C137" t="s" s="2">
@@ -18500,7 +18488,7 @@
     </row>
     <row r="138" hidden="true">
       <c r="A138" t="s" s="2">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="B138" s="2"/>
       <c r="C138" t="s" s="2">
@@ -18611,7 +18599,7 @@
     </row>
     <row r="139" hidden="true">
       <c r="A139" t="s" s="2">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="B139" s="2"/>
       <c r="C139" t="s" s="2">
@@ -18724,7 +18712,7 @@
     </row>
     <row r="140" hidden="true">
       <c r="A140" t="s" s="2">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="B140" s="2"/>
       <c r="C140" t="s" s="2">
@@ -18750,23 +18738,23 @@
         <v>338</v>
       </c>
       <c r="K140" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="L140" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="M140" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="N140" t="s" s="2">
         <v>497</v>
-      </c>
-      <c r="L140" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="M140" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="N140" t="s" s="2">
-        <v>500</v>
       </c>
       <c r="O140" t="s" s="2">
         <v>43</v>
       </c>
       <c r="P140" s="2"/>
       <c r="Q140" t="s" s="2">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="R140" t="s" s="2">
         <v>43</v>
@@ -18808,7 +18796,7 @@
         <v>43</v>
       </c>
       <c r="AE140" t="s" s="2">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="AF140" t="s" s="2">
         <v>50</v>
@@ -18837,7 +18825,7 @@
     </row>
     <row r="141" hidden="true">
       <c r="A141" t="s" s="2">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="B141" s="2"/>
       <c r="C141" t="s" s="2">
@@ -18860,17 +18848,17 @@
         <v>51</v>
       </c>
       <c r="J141" t="s" s="2">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="K141" t="s" s="2">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="M141" s="2"/>
       <c r="N141" t="s" s="2">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="O141" t="s" s="2">
         <v>43</v>
@@ -18919,7 +18907,7 @@
         <v>43</v>
       </c>
       <c r="AE141" t="s" s="2">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="AF141" t="s" s="2">
         <v>50</v>
@@ -18948,7 +18936,7 @@
     </row>
     <row r="142" hidden="true">
       <c r="A142" t="s" s="2">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="B142" s="2"/>
       <c r="C142" t="s" s="2">
@@ -18974,16 +18962,16 @@
         <v>217</v>
       </c>
       <c r="K142" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="L142" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="M142" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="N142" t="s" s="2">
         <v>508</v>
-      </c>
-      <c r="L142" t="s" s="2">
-        <v>509</v>
-      </c>
-      <c r="M142" t="s" s="2">
-        <v>510</v>
-      </c>
-      <c r="N142" t="s" s="2">
-        <v>511</v>
       </c>
       <c r="O142" t="s" s="2">
         <v>43</v>
@@ -19032,7 +19020,7 @@
         <v>43</v>
       </c>
       <c r="AE142" t="s" s="2">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="AF142" t="s" s="2">
         <v>41</v>
@@ -19061,10 +19049,10 @@
     </row>
     <row r="143" hidden="true">
       <c r="A143" t="s" s="2">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="C143" t="s" s="2">
         <v>43</v>
@@ -19089,16 +19077,16 @@
         <v>210</v>
       </c>
       <c r="K143" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="L143" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="M143" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="N143" t="s" s="2">
         <v>487</v>
-      </c>
-      <c r="L143" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="M143" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="N143" t="s" s="2">
-        <v>490</v>
       </c>
       <c r="O143" t="s" s="2">
         <v>43</v>
@@ -19147,7 +19135,7 @@
         <v>43</v>
       </c>
       <c r="AE143" t="s" s="2">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="AF143" t="s" s="2">
         <v>50</v>
@@ -19168,7 +19156,7 @@
         <v>43</v>
       </c>
       <c r="AL143" t="s" s="2">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="AM143" t="s" s="2">
         <v>43</v>
@@ -19176,7 +19164,7 @@
     </row>
     <row r="144" hidden="true">
       <c r="A144" t="s" s="2">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="B144" s="2"/>
       <c r="C144" t="s" s="2">
@@ -19285,7 +19273,7 @@
     </row>
     <row r="145" hidden="true">
       <c r="A145" t="s" s="2">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="B145" s="2"/>
       <c r="C145" t="s" s="2">
@@ -19396,7 +19384,7 @@
     </row>
     <row r="146" hidden="true">
       <c r="A146" t="s" s="2">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="B146" s="2"/>
       <c r="C146" t="s" s="2">
@@ -19509,7 +19497,7 @@
     </row>
     <row r="147" hidden="true">
       <c r="A147" t="s" s="2">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="B147" s="2"/>
       <c r="C147" t="s" s="2">
@@ -19535,23 +19523,23 @@
         <v>338</v>
       </c>
       <c r="K147" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="L147" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="M147" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="N147" t="s" s="2">
         <v>497</v>
-      </c>
-      <c r="L147" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="M147" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="N147" t="s" s="2">
-        <v>500</v>
       </c>
       <c r="O147" t="s" s="2">
         <v>43</v>
       </c>
       <c r="P147" s="2"/>
       <c r="Q147" t="s" s="2">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="R147" t="s" s="2">
         <v>43</v>
@@ -19593,7 +19581,7 @@
         <v>43</v>
       </c>
       <c r="AE147" t="s" s="2">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="AF147" t="s" s="2">
         <v>50</v>
@@ -19622,7 +19610,7 @@
     </row>
     <row r="148" hidden="true">
       <c r="A148" t="s" s="2">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="B148" s="2"/>
       <c r="C148" t="s" s="2">
@@ -19645,17 +19633,17 @@
         <v>51</v>
       </c>
       <c r="J148" t="s" s="2">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="K148" t="s" s="2">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="L148" t="s" s="2">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="M148" s="2"/>
       <c r="N148" t="s" s="2">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="O148" t="s" s="2">
         <v>43</v>
@@ -19704,7 +19692,7 @@
         <v>43</v>
       </c>
       <c r="AE148" t="s" s="2">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="AF148" t="s" s="2">
         <v>50</v>
@@ -19733,7 +19721,7 @@
     </row>
     <row r="149" hidden="true">
       <c r="A149" t="s" s="2">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="B149" s="2"/>
       <c r="C149" t="s" s="2">
@@ -19759,16 +19747,16 @@
         <v>217</v>
       </c>
       <c r="K149" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="L149" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="M149" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="N149" t="s" s="2">
         <v>508</v>
-      </c>
-      <c r="L149" t="s" s="2">
-        <v>509</v>
-      </c>
-      <c r="M149" t="s" s="2">
-        <v>510</v>
-      </c>
-      <c r="N149" t="s" s="2">
-        <v>511</v>
       </c>
       <c r="O149" t="s" s="2">
         <v>43</v>
@@ -19817,7 +19805,7 @@
         <v>43</v>
       </c>
       <c r="AE149" t="s" s="2">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="AF149" t="s" s="2">
         <v>41</v>
@@ -19846,7 +19834,7 @@
     </row>
     <row r="150" hidden="true">
       <c r="A150" t="s" s="2">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="B150" s="2"/>
       <c r="C150" t="s" s="2">
@@ -19872,14 +19860,14 @@
         <v>210</v>
       </c>
       <c r="K150" t="s" s="2">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="L150" t="s" s="2">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="M150" s="2"/>
       <c r="N150" t="s" s="2">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="O150" t="s" s="2">
         <v>43</v>
@@ -19928,7 +19916,7 @@
         <v>43</v>
       </c>
       <c r="AE150" t="s" s="2">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="AF150" t="s" s="2">
         <v>41</v>
@@ -19957,7 +19945,7 @@
     </row>
     <row r="151" hidden="true">
       <c r="A151" t="s" s="2">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="B151" s="2"/>
       <c r="C151" t="s" s="2">
@@ -20066,7 +20054,7 @@
     </row>
     <row r="152" hidden="true">
       <c r="A152" t="s" s="2">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="B152" s="2"/>
       <c r="C152" t="s" s="2">
@@ -20177,7 +20165,7 @@
     </row>
     <row r="153" hidden="true">
       <c r="A153" t="s" s="2">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="B153" s="2"/>
       <c r="C153" t="s" s="2">
@@ -20290,7 +20278,7 @@
     </row>
     <row r="154" hidden="true">
       <c r="A154" t="s" s="2">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="B154" s="2"/>
       <c r="C154" t="s" s="2">
@@ -20313,19 +20301,19 @@
         <v>43</v>
       </c>
       <c r="J154" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="K154" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="L154" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="M154" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="N154" t="s" s="2">
         <v>522</v>
-      </c>
-      <c r="L154" t="s" s="2">
-        <v>523</v>
-      </c>
-      <c r="M154" t="s" s="2">
-        <v>524</v>
-      </c>
-      <c r="N154" t="s" s="2">
-        <v>525</v>
       </c>
       <c r="O154" t="s" s="2">
         <v>43</v>
@@ -20374,7 +20362,7 @@
         <v>43</v>
       </c>
       <c r="AE154" t="s" s="2">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="AF154" t="s" s="2">
         <v>41</v>
@@ -20403,7 +20391,7 @@
     </row>
     <row r="155" hidden="true">
       <c r="A155" t="s" s="2">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="B155" s="2"/>
       <c r="C155" t="s" s="2">
@@ -20429,14 +20417,14 @@
         <v>123</v>
       </c>
       <c r="K155" t="s" s="2">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="L155" t="s" s="2">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="M155" s="2"/>
       <c r="N155" t="s" s="2">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="O155" t="s" s="2">
         <v>43</v>
@@ -20464,10 +20452,10 @@
         <v>129</v>
       </c>
       <c r="X155" t="s" s="2">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="Y155" t="s" s="2">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="Z155" t="s" s="2">
         <v>43</v>
@@ -20485,7 +20473,7 @@
         <v>43</v>
       </c>
       <c r="AE155" t="s" s="2">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="AF155" t="s" s="2">
         <v>41</v>
@@ -20514,7 +20502,7 @@
     </row>
     <row r="156" hidden="true">
       <c r="A156" t="s" s="2">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="B156" s="2"/>
       <c r="C156" t="s" s="2">
@@ -20537,17 +20525,17 @@
         <v>43</v>
       </c>
       <c r="J156" t="s" s="2">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="K156" t="s" s="2">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="L156" t="s" s="2">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="M156" s="2"/>
       <c r="N156" t="s" s="2">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="O156" t="s" s="2">
         <v>43</v>
@@ -20596,7 +20584,7 @@
         <v>43</v>
       </c>
       <c r="AE156" t="s" s="2">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="AF156" t="s" s="2">
         <v>41</v>
@@ -20625,7 +20613,7 @@
     </row>
     <row r="157" hidden="true">
       <c r="A157" t="s" s="2">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="B157" s="2"/>
       <c r="C157" t="s" s="2">
@@ -20651,14 +20639,14 @@
         <v>210</v>
       </c>
       <c r="K157" t="s" s="2">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="L157" t="s" s="2">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="M157" s="2"/>
       <c r="N157" t="s" s="2">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="O157" t="s" s="2">
         <v>43</v>
@@ -20707,7 +20695,7 @@
         <v>43</v>
       </c>
       <c r="AE157" t="s" s="2">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="AF157" t="s" s="2">
         <v>41</v>
@@ -20736,7 +20724,7 @@
     </row>
     <row r="158" hidden="true">
       <c r="A158" t="s" s="2">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="B158" s="2"/>
       <c r="C158" t="s" s="2">
@@ -20845,7 +20833,7 @@
     </row>
     <row r="159" hidden="true">
       <c r="A159" t="s" s="2">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="B159" s="2"/>
       <c r="C159" t="s" s="2">
@@ -20956,7 +20944,7 @@
     </row>
     <row r="160" hidden="true">
       <c r="A160" t="s" s="2">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="B160" s="2"/>
       <c r="C160" t="s" s="2">
@@ -21069,7 +21057,7 @@
     </row>
     <row r="161" hidden="true">
       <c r="A161" t="s" s="2">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="B161" s="2"/>
       <c r="C161" t="s" s="2">
@@ -21095,14 +21083,14 @@
         <v>327</v>
       </c>
       <c r="K161" t="s" s="2">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="L161" t="s" s="2">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="M161" s="2"/>
       <c r="N161" t="s" s="2">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="O161" t="s" s="2">
         <v>43</v>
@@ -21151,7 +21139,7 @@
         <v>43</v>
       </c>
       <c r="AE161" t="s" s="2">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="AF161" t="s" s="2">
         <v>50</v>
@@ -21180,7 +21168,7 @@
     </row>
     <row r="162" hidden="true">
       <c r="A162" t="s" s="2">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="B162" s="2"/>
       <c r="C162" t="s" s="2">
@@ -21206,14 +21194,14 @@
         <v>327</v>
       </c>
       <c r="K162" t="s" s="2">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="L162" t="s" s="2">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="M162" s="2"/>
       <c r="N162" t="s" s="2">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="O162" t="s" s="2">
         <v>43</v>
@@ -21262,7 +21250,7 @@
         <v>43</v>
       </c>
       <c r="AE162" t="s" s="2">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="AF162" t="s" s="2">
         <v>41</v>
@@ -21291,7 +21279,7 @@
     </row>
     <row r="163" hidden="true">
       <c r="A163" t="s" s="2">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="B163" s="2"/>
       <c r="C163" t="s" s="2">
@@ -21317,14 +21305,14 @@
         <v>327</v>
       </c>
       <c r="K163" t="s" s="2">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="L163" t="s" s="2">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="M163" s="2"/>
       <c r="N163" t="s" s="2">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="O163" t="s" s="2">
         <v>43</v>
@@ -21373,7 +21361,7 @@
         <v>43</v>
       </c>
       <c r="AE163" t="s" s="2">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="AF163" t="s" s="2">
         <v>41</v>
@@ -21402,7 +21390,7 @@
     </row>
     <row r="164" hidden="true">
       <c r="A164" t="s" s="2">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="B164" s="2"/>
       <c r="C164" t="s" s="2">
@@ -21428,14 +21416,14 @@
         <v>327</v>
       </c>
       <c r="K164" t="s" s="2">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="L164" t="s" s="2">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="M164" s="2"/>
       <c r="N164" t="s" s="2">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="O164" t="s" s="2">
         <v>43</v>
@@ -21484,7 +21472,7 @@
         <v>43</v>
       </c>
       <c r="AE164" t="s" s="2">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="AF164" t="s" s="2">
         <v>41</v>
@@ -21513,7 +21501,7 @@
     </row>
     <row r="165" hidden="true">
       <c r="A165" t="s" s="2">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="B165" s="2"/>
       <c r="C165" t="s" s="2">
@@ -21539,14 +21527,14 @@
         <v>327</v>
       </c>
       <c r="K165" t="s" s="2">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="L165" t="s" s="2">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="M165" s="2"/>
       <c r="N165" t="s" s="2">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="O165" t="s" s="2">
         <v>43</v>
@@ -21595,7 +21583,7 @@
         <v>43</v>
       </c>
       <c r="AE165" t="s" s="2">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="AF165" t="s" s="2">
         <v>41</v>
@@ -21624,7 +21612,7 @@
     </row>
     <row r="166" hidden="true">
       <c r="A166" t="s" s="2">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="B166" s="2"/>
       <c r="C166" t="s" s="2">
@@ -21650,14 +21638,14 @@
         <v>123</v>
       </c>
       <c r="K166" t="s" s="2">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="L166" t="s" s="2">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="M166" s="2"/>
       <c r="N166" t="s" s="2">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="O166" t="s" s="2">
         <v>43</v>
@@ -21685,10 +21673,10 @@
         <v>139</v>
       </c>
       <c r="X166" t="s" s="2">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="Y166" t="s" s="2">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="Z166" t="s" s="2">
         <v>43</v>
@@ -21706,7 +21694,7 @@
         <v>43</v>
       </c>
       <c r="AE166" t="s" s="2">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="AF166" t="s" s="2">
         <v>41</v>
@@ -21735,7 +21723,7 @@
     </row>
     <row r="167" hidden="true">
       <c r="A167" t="s" s="2">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="B167" s="2"/>
       <c r="C167" t="s" s="2">
@@ -21761,16 +21749,16 @@
         <v>123</v>
       </c>
       <c r="K167" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="L167" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="M167" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="N167" t="s" s="2">
         <v>571</v>
-      </c>
-      <c r="L167" t="s" s="2">
-        <v>572</v>
-      </c>
-      <c r="M167" t="s" s="2">
-        <v>573</v>
-      </c>
-      <c r="N167" t="s" s="2">
-        <v>574</v>
       </c>
       <c r="O167" t="s" s="2">
         <v>43</v>
@@ -21799,7 +21787,7 @@
       </c>
       <c r="X167" s="2"/>
       <c r="Y167" t="s" s="2">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="Z167" t="s" s="2">
         <v>43</v>
@@ -21817,7 +21805,7 @@
         <v>43</v>
       </c>
       <c r="AE167" t="s" s="2">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="AF167" t="s" s="2">
         <v>41</v>
@@ -21846,11 +21834,11 @@
     </row>
     <row r="168" hidden="true">
       <c r="A168" t="s" s="2">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="B168" s="2"/>
       <c r="C168" t="s" s="2">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="D168" s="2"/>
       <c r="E168" t="s" s="2">
@@ -21872,16 +21860,16 @@
         <v>123</v>
       </c>
       <c r="K168" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="L168" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="M168" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="N168" t="s" s="2">
         <v>578</v>
-      </c>
-      <c r="L168" t="s" s="2">
-        <v>579</v>
-      </c>
-      <c r="M168" t="s" s="2">
-        <v>580</v>
-      </c>
-      <c r="N168" t="s" s="2">
-        <v>581</v>
       </c>
       <c r="O168" t="s" s="2">
         <v>43</v>
@@ -21910,7 +21898,7 @@
       </c>
       <c r="X168" s="2"/>
       <c r="Y168" t="s" s="2">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="Z168" t="s" s="2">
         <v>43</v>
@@ -21928,7 +21916,7 @@
         <v>43</v>
       </c>
       <c r="AE168" t="s" s="2">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="AF168" t="s" s="2">
         <v>50</v>
@@ -21957,7 +21945,7 @@
     </row>
     <row r="169" hidden="true">
       <c r="A169" t="s" s="2">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="B169" s="2"/>
       <c r="C169" t="s" s="2">
@@ -21983,16 +21971,16 @@
         <v>123</v>
       </c>
       <c r="K169" t="s" s="2">
+        <v>581</v>
+      </c>
+      <c r="L169" t="s" s="2">
+        <v>582</v>
+      </c>
+      <c r="M169" t="s" s="2">
+        <v>583</v>
+      </c>
+      <c r="N169" t="s" s="2">
         <v>584</v>
-      </c>
-      <c r="L169" t="s" s="2">
-        <v>585</v>
-      </c>
-      <c r="M169" t="s" s="2">
-        <v>586</v>
-      </c>
-      <c r="N169" t="s" s="2">
-        <v>587</v>
       </c>
       <c r="O169" t="s" s="2">
         <v>43</v>
@@ -22021,7 +22009,7 @@
       </c>
       <c r="X169" s="2"/>
       <c r="Y169" t="s" s="2">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="Z169" t="s" s="2">
         <v>43</v>
@@ -22039,7 +22027,7 @@
         <v>43</v>
       </c>
       <c r="AE169" t="s" s="2">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="AF169" t="s" s="2">
         <v>41</v>
@@ -22068,7 +22056,7 @@
     </row>
     <row r="170" hidden="true">
       <c r="A170" t="s" s="2">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="B170" s="2"/>
       <c r="C170" t="s" s="2">
@@ -22094,16 +22082,16 @@
         <v>123</v>
       </c>
       <c r="K170" t="s" s="2">
+        <v>587</v>
+      </c>
+      <c r="L170" t="s" s="2">
+        <v>588</v>
+      </c>
+      <c r="M170" t="s" s="2">
+        <v>589</v>
+      </c>
+      <c r="N170" t="s" s="2">
         <v>590</v>
-      </c>
-      <c r="L170" t="s" s="2">
-        <v>591</v>
-      </c>
-      <c r="M170" t="s" s="2">
-        <v>592</v>
-      </c>
-      <c r="N170" t="s" s="2">
-        <v>593</v>
       </c>
       <c r="O170" t="s" s="2">
         <v>43</v>
@@ -22131,10 +22119,10 @@
         <v>139</v>
       </c>
       <c r="X170" t="s" s="2">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="Y170" t="s" s="2">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="Z170" t="s" s="2">
         <v>43</v>
@@ -22152,7 +22140,7 @@
         <v>43</v>
       </c>
       <c r="AE170" t="s" s="2">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="AF170" t="s" s="2">
         <v>41</v>
@@ -22181,7 +22169,7 @@
     </row>
     <row r="171" hidden="true">
       <c r="A171" t="s" s="2">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="B171" s="2"/>
       <c r="C171" t="s" s="2">
@@ -22207,14 +22195,14 @@
         <v>383</v>
       </c>
       <c r="K171" t="s" s="2">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="L171" t="s" s="2">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="M171" s="2"/>
       <c r="N171" t="s" s="2">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="O171" t="s" s="2">
         <v>43</v>
@@ -22263,7 +22251,7 @@
         <v>43</v>
       </c>
       <c r="AE171" t="s" s="2">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="AF171" t="s" s="2">
         <v>41</v>
@@ -22292,7 +22280,7 @@
     </row>
     <row r="172" hidden="true">
       <c r="A172" t="s" s="2">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="B172" s="2"/>
       <c r="C172" t="s" s="2">
@@ -22318,14 +22306,14 @@
         <v>123</v>
       </c>
       <c r="K172" t="s" s="2">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="L172" t="s" s="2">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="M172" s="2"/>
       <c r="N172" t="s" s="2">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="O172" t="s" s="2">
         <v>43</v>
@@ -22354,7 +22342,7 @@
       </c>
       <c r="X172" s="2"/>
       <c r="Y172" t="s" s="2">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="Z172" t="s" s="2">
         <v>43</v>
@@ -22372,7 +22360,7 @@
         <v>43</v>
       </c>
       <c r="AE172" t="s" s="2">
-        <v>605</v>
+        <v>597</v>
       </c>
       <c r="AF172" t="s" s="2">
         <v>41</v>
@@ -22401,7 +22389,7 @@
     </row>
     <row r="173" hidden="true">
       <c r="A173" t="s" s="2">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="B173" s="2"/>
       <c r="C173" t="s" s="2">
@@ -22424,17 +22412,17 @@
         <v>43</v>
       </c>
       <c r="J173" t="s" s="2">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="K173" t="s" s="2">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="L173" t="s" s="2">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="M173" s="2"/>
       <c r="N173" t="s" s="2">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="O173" t="s" s="2">
         <v>43</v>
@@ -22483,7 +22471,7 @@
         <v>43</v>
       </c>
       <c r="AE173" t="s" s="2">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="AF173" t="s" s="2">
         <v>41</v>
@@ -22512,7 +22500,7 @@
     </row>
     <row r="174" hidden="true">
       <c r="A174" t="s" s="2">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="B174" s="2"/>
       <c r="C174" t="s" s="2">
@@ -22535,17 +22523,17 @@
         <v>43</v>
       </c>
       <c r="J174" t="s" s="2">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="K174" t="s" s="2">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="L174" t="s" s="2">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="M174" s="2"/>
       <c r="N174" t="s" s="2">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="O174" t="s" s="2">
         <v>43</v>
@@ -22594,7 +22582,7 @@
         <v>43</v>
       </c>
       <c r="AE174" t="s" s="2">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="AF174" t="s" s="2">
         <v>41</v>
@@ -22623,7 +22611,7 @@
     </row>
     <row r="175" hidden="true">
       <c r="A175" t="s" s="2">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="B175" s="2"/>
       <c r="C175" t="s" s="2">
@@ -22646,19 +22634,19 @@
         <v>43</v>
       </c>
       <c r="J175" t="s" s="2">
+        <v>613</v>
+      </c>
+      <c r="K175" t="s" s="2">
+        <v>614</v>
+      </c>
+      <c r="L175" t="s" s="2">
+        <v>615</v>
+      </c>
+      <c r="M175" t="s" s="2">
+        <v>616</v>
+      </c>
+      <c r="N175" t="s" s="2">
         <v>617</v>
-      </c>
-      <c r="K175" t="s" s="2">
-        <v>618</v>
-      </c>
-      <c r="L175" t="s" s="2">
-        <v>619</v>
-      </c>
-      <c r="M175" t="s" s="2">
-        <v>620</v>
-      </c>
-      <c r="N175" t="s" s="2">
-        <v>621</v>
       </c>
       <c r="O175" t="s" s="2">
         <v>43</v>
@@ -22707,7 +22695,7 @@
         <v>43</v>
       </c>
       <c r="AE175" t="s" s="2">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="AF175" t="s" s="2">
         <v>41</v>
@@ -22736,7 +22724,7 @@
     </row>
     <row r="176" hidden="true">
       <c r="A176" t="s" s="2">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="B176" s="2"/>
       <c r="C176" t="s" s="2">
@@ -22759,19 +22747,19 @@
         <v>43</v>
       </c>
       <c r="J176" t="s" s="2">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="K176" t="s" s="2">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="L176" t="s" s="2">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="M176" t="s" s="2">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="N176" t="s" s="2">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="O176" t="s" s="2">
         <v>43</v>
@@ -22820,7 +22808,7 @@
         <v>43</v>
       </c>
       <c r="AE176" t="s" s="2">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="AF176" t="s" s="2">
         <v>41</v>
@@ -22849,7 +22837,7 @@
     </row>
     <row r="177" hidden="true">
       <c r="A177" t="s" s="2">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="B177" s="2"/>
       <c r="C177" t="s" s="2">
@@ -22872,17 +22860,17 @@
         <v>43</v>
       </c>
       <c r="J177" t="s" s="2">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="K177" t="s" s="2">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="L177" t="s" s="2">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="M177" s="2"/>
       <c r="N177" t="s" s="2">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="O177" t="s" s="2">
         <v>43</v>
@@ -22931,7 +22919,7 @@
         <v>43</v>
       </c>
       <c r="AE177" t="s" s="2">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="AF177" t="s" s="2">
         <v>41</v>
@@ -22960,7 +22948,7 @@
     </row>
     <row r="178" hidden="true">
       <c r="A178" t="s" s="2">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="B178" s="2"/>
       <c r="C178" t="s" s="2">
@@ -22986,16 +22974,16 @@
         <v>123</v>
       </c>
       <c r="K178" t="s" s="2">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="L178" t="s" s="2">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="M178" t="s" s="2">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="N178" t="s" s="2">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="O178" t="s" s="2">
         <v>43</v>
@@ -23023,10 +23011,10 @@
         <v>139</v>
       </c>
       <c r="X178" t="s" s="2">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="Y178" t="s" s="2">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="Z178" t="s" s="2">
         <v>43</v>
@@ -23044,7 +23032,7 @@
         <v>43</v>
       </c>
       <c r="AE178" t="s" s="2">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="AF178" t="s" s="2">
         <v>41</v>
@@ -23073,7 +23061,7 @@
     </row>
     <row r="179" hidden="true">
       <c r="A179" t="s" s="2">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="B179" s="2"/>
       <c r="C179" t="s" s="2">
@@ -23099,14 +23087,14 @@
         <v>123</v>
       </c>
       <c r="K179" t="s" s="2">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="L179" t="s" s="2">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="M179" s="2"/>
       <c r="N179" t="s" s="2">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="O179" t="s" s="2">
         <v>43</v>
@@ -23134,10 +23122,10 @@
         <v>139</v>
       </c>
       <c r="X179" t="s" s="2">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="Y179" t="s" s="2">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="Z179" t="s" s="2">
         <v>43</v>
@@ -23155,7 +23143,7 @@
         <v>43</v>
       </c>
       <c r="AE179" t="s" s="2">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="AF179" t="s" s="2">
         <v>41</v>
@@ -23184,7 +23172,7 @@
     </row>
     <row r="180" hidden="true">
       <c r="A180" t="s" s="2">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="B180" s="2"/>
       <c r="C180" t="s" s="2">
@@ -23207,17 +23195,17 @@
         <v>43</v>
       </c>
       <c r="J180" t="s" s="2">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="K180" t="s" s="2">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="L180" t="s" s="2">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="M180" s="2"/>
       <c r="N180" t="s" s="2">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="O180" t="s" s="2">
         <v>43</v>
@@ -23266,7 +23254,7 @@
         <v>43</v>
       </c>
       <c r="AE180" t="s" s="2">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="AF180" t="s" s="2">
         <v>41</v>
@@ -23295,7 +23283,7 @@
     </row>
     <row r="181" hidden="true">
       <c r="A181" t="s" s="2">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="B181" s="2"/>
       <c r="C181" t="s" s="2">
@@ -23321,14 +23309,14 @@
         <v>327</v>
       </c>
       <c r="K181" t="s" s="2">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="L181" t="s" s="2">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="M181" s="2"/>
       <c r="N181" t="s" s="2">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="O181" t="s" s="2">
         <v>43</v>
@@ -23377,7 +23365,7 @@
         <v>43</v>
       </c>
       <c r="AE181" t="s" s="2">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="AF181" t="s" s="2">
         <v>41</v>
@@ -23406,7 +23394,7 @@
     </row>
     <row r="182" hidden="true">
       <c r="A182" t="s" s="2">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="B182" s="2"/>
       <c r="C182" t="s" s="2">
@@ -23432,14 +23420,14 @@
         <v>210</v>
       </c>
       <c r="K182" t="s" s="2">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="L182" t="s" s="2">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="M182" s="2"/>
       <c r="N182" t="s" s="2">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="O182" t="s" s="2">
         <v>43</v>
@@ -23486,7 +23474,7 @@
         <v>361</v>
       </c>
       <c r="AE182" t="s" s="2">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="AF182" t="s" s="2">
         <v>41</v>
@@ -23515,7 +23503,7 @@
     </row>
     <row r="183" hidden="true">
       <c r="A183" t="s" s="2">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="B183" s="2"/>
       <c r="C183" t="s" s="2">
@@ -23624,7 +23612,7 @@
     </row>
     <row r="184" hidden="true">
       <c r="A184" t="s" s="2">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="B184" s="2"/>
       <c r="C184" t="s" s="2">
@@ -23735,7 +23723,7 @@
     </row>
     <row r="185" hidden="true">
       <c r="A185" t="s" s="2">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="B185" s="2"/>
       <c r="C185" t="s" s="2">
@@ -23848,7 +23836,7 @@
     </row>
     <row r="186" hidden="true">
       <c r="A186" t="s" s="2">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="B186" s="2"/>
       <c r="C186" t="s" s="2">
@@ -23874,16 +23862,16 @@
         <v>123</v>
       </c>
       <c r="K186" t="s" s="2">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="L186" t="s" s="2">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="M186" t="s" s="2">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="N186" t="s" s="2">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="O186" t="s" s="2">
         <v>43</v>
@@ -23911,10 +23899,10 @@
         <v>139</v>
       </c>
       <c r="X186" t="s" s="2">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="Y186" t="s" s="2">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="Z186" t="s" s="2">
         <v>43</v>
@@ -23932,7 +23920,7 @@
         <v>43</v>
       </c>
       <c r="AE186" t="s" s="2">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="AF186" t="s" s="2">
         <v>50</v>
@@ -23961,7 +23949,7 @@
     </row>
     <row r="187" hidden="true">
       <c r="A187" t="s" s="2">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="B187" s="2"/>
       <c r="C187" t="s" s="2">
@@ -23987,16 +23975,16 @@
         <v>123</v>
       </c>
       <c r="K187" t="s" s="2">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="L187" t="s" s="2">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="M187" t="s" s="2">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="N187" t="s" s="2">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="O187" t="s" s="2">
         <v>43</v>
@@ -24024,10 +24012,10 @@
         <v>139</v>
       </c>
       <c r="X187" t="s" s="2">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="Y187" t="s" s="2">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="Z187" t="s" s="2">
         <v>43</v>
@@ -24045,7 +24033,7 @@
         <v>43</v>
       </c>
       <c r="AE187" t="s" s="2">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="AF187" t="s" s="2">
         <v>41</v>
@@ -24074,7 +24062,7 @@
     </row>
     <row r="188" hidden="true">
       <c r="A188" t="s" s="2">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="B188" s="2"/>
       <c r="C188" t="s" s="2">
@@ -24097,19 +24085,19 @@
         <v>43</v>
       </c>
       <c r="J188" t="s" s="2">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="K188" t="s" s="2">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="L188" t="s" s="2">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="M188" t="s" s="2">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="N188" t="s" s="2">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="O188" t="s" s="2">
         <v>43</v>
@@ -24158,7 +24146,7 @@
         <v>43</v>
       </c>
       <c r="AE188" t="s" s="2">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="AF188" t="s" s="2">
         <v>41</v>
@@ -24187,7 +24175,7 @@
     </row>
     <row r="189" hidden="true">
       <c r="A189" t="s" s="2">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="B189" s="2"/>
       <c r="C189" t="s" s="2">
@@ -24210,19 +24198,19 @@
         <v>43</v>
       </c>
       <c r="J189" t="s" s="2">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="K189" t="s" s="2">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="L189" t="s" s="2">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="M189" t="s" s="2">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="N189" t="s" s="2">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="O189" t="s" s="2">
         <v>43</v>
@@ -24271,7 +24259,7 @@
         <v>43</v>
       </c>
       <c r="AE189" t="s" s="2">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="AF189" t="s" s="2">
         <v>41</v>
@@ -24300,10 +24288,10 @@
     </row>
     <row r="190" hidden="true">
       <c r="A190" t="s" s="2">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="B190" t="s" s="2">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="C190" t="s" s="2">
         <v>43</v>
@@ -24328,14 +24316,14 @@
         <v>210</v>
       </c>
       <c r="K190" t="s" s="2">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="L190" t="s" s="2">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="M190" s="2"/>
       <c r="N190" t="s" s="2">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="O190" t="s" s="2">
         <v>43</v>
@@ -24384,7 +24372,7 @@
         <v>43</v>
       </c>
       <c r="AE190" t="s" s="2">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="AF190" t="s" s="2">
         <v>41</v>
@@ -24413,7 +24401,7 @@
     </row>
     <row r="191" hidden="true">
       <c r="A191" t="s" s="2">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="B191" s="2"/>
       <c r="C191" t="s" s="2">
@@ -24522,7 +24510,7 @@
     </row>
     <row r="192" hidden="true">
       <c r="A192" t="s" s="2">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="B192" s="2"/>
       <c r="C192" t="s" s="2">
@@ -24633,7 +24621,7 @@
     </row>
     <row r="193" hidden="true">
       <c r="A193" t="s" s="2">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="B193" s="2"/>
       <c r="C193" t="s" s="2">
@@ -24746,7 +24734,7 @@
     </row>
     <row r="194" hidden="true">
       <c r="A194" t="s" s="2">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="B194" s="2"/>
       <c r="C194" t="s" s="2">
@@ -24772,16 +24760,16 @@
         <v>123</v>
       </c>
       <c r="K194" t="s" s="2">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="L194" t="s" s="2">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="M194" t="s" s="2">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="N194" t="s" s="2">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="O194" t="s" s="2">
         <v>43</v>
@@ -24810,7 +24798,7 @@
       </c>
       <c r="X194" s="2"/>
       <c r="Y194" t="s" s="2">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="Z194" t="s" s="2">
         <v>43</v>
@@ -24828,7 +24816,7 @@
         <v>43</v>
       </c>
       <c r="AE194" t="s" s="2">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="AF194" t="s" s="2">
         <v>50</v>
@@ -24857,7 +24845,7 @@
     </row>
     <row r="195" hidden="true">
       <c r="A195" t="s" s="2">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="B195" s="2"/>
       <c r="C195" t="s" s="2">
@@ -24883,16 +24871,16 @@
         <v>123</v>
       </c>
       <c r="K195" t="s" s="2">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="L195" t="s" s="2">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="M195" t="s" s="2">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="N195" t="s" s="2">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="O195" t="s" s="2">
         <v>43</v>
@@ -24920,10 +24908,10 @@
         <v>139</v>
       </c>
       <c r="X195" t="s" s="2">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="Y195" t="s" s="2">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="Z195" t="s" s="2">
         <v>43</v>
@@ -24941,7 +24929,7 @@
         <v>43</v>
       </c>
       <c r="AE195" t="s" s="2">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="AF195" t="s" s="2">
         <v>41</v>
@@ -24970,7 +24958,7 @@
     </row>
     <row r="196" hidden="true">
       <c r="A196" t="s" s="2">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="B196" s="2"/>
       <c r="C196" t="s" s="2">
@@ -24993,19 +24981,19 @@
         <v>43</v>
       </c>
       <c r="J196" t="s" s="2">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="K196" t="s" s="2">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="L196" t="s" s="2">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="M196" t="s" s="2">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="N196" t="s" s="2">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="O196" t="s" s="2">
         <v>43</v>
@@ -25054,7 +25042,7 @@
         <v>43</v>
       </c>
       <c r="AE196" t="s" s="2">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="AF196" t="s" s="2">
         <v>41</v>
@@ -25083,7 +25071,7 @@
     </row>
     <row r="197" hidden="true">
       <c r="A197" t="s" s="2">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="B197" s="2"/>
       <c r="C197" t="s" s="2">
@@ -25106,19 +25094,19 @@
         <v>43</v>
       </c>
       <c r="J197" t="s" s="2">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="K197" t="s" s="2">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="L197" t="s" s="2">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="M197" t="s" s="2">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="N197" t="s" s="2">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="O197" t="s" s="2">
         <v>43</v>
@@ -25167,7 +25155,7 @@
         <v>43</v>
       </c>
       <c r="AE197" t="s" s="2">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="AF197" t="s" s="2">
         <v>41</v>
@@ -25196,10 +25184,10 @@
     </row>
     <row r="198" hidden="true">
       <c r="A198" t="s" s="2">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="B198" t="s" s="2">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="C198" t="s" s="2">
         <v>43</v>
@@ -25224,14 +25212,14 @@
         <v>210</v>
       </c>
       <c r="K198" t="s" s="2">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="L198" t="s" s="2">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="M198" s="2"/>
       <c r="N198" t="s" s="2">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="O198" t="s" s="2">
         <v>43</v>
@@ -25280,7 +25268,7 @@
         <v>43</v>
       </c>
       <c r="AE198" t="s" s="2">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="AF198" t="s" s="2">
         <v>41</v>
@@ -25309,7 +25297,7 @@
     </row>
     <row r="199" hidden="true">
       <c r="A199" t="s" s="2">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="B199" s="2"/>
       <c r="C199" t="s" s="2">
@@ -25418,7 +25406,7 @@
     </row>
     <row r="200" hidden="true">
       <c r="A200" t="s" s="2">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="B200" s="2"/>
       <c r="C200" t="s" s="2">
@@ -25529,7 +25517,7 @@
     </row>
     <row r="201" hidden="true">
       <c r="A201" t="s" s="2">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="B201" s="2"/>
       <c r="C201" t="s" s="2">
@@ -25642,7 +25630,7 @@
     </row>
     <row r="202" hidden="true">
       <c r="A202" t="s" s="2">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="B202" s="2"/>
       <c r="C202" t="s" s="2">
@@ -25668,23 +25656,23 @@
         <v>123</v>
       </c>
       <c r="K202" t="s" s="2">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="L202" t="s" s="2">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="M202" t="s" s="2">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="N202" t="s" s="2">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="O202" t="s" s="2">
         <v>43</v>
       </c>
       <c r="P202" s="2"/>
       <c r="Q202" t="s" s="2">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="R202" t="s" s="2">
         <v>43</v>
@@ -25705,10 +25693,10 @@
         <v>139</v>
       </c>
       <c r="X202" t="s" s="2">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="Y202" t="s" s="2">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="Z202" t="s" s="2">
         <v>43</v>
@@ -25726,7 +25714,7 @@
         <v>43</v>
       </c>
       <c r="AE202" t="s" s="2">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="AF202" t="s" s="2">
         <v>50</v>
@@ -25755,7 +25743,7 @@
     </row>
     <row r="203" hidden="true">
       <c r="A203" t="s" s="2">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="B203" s="2"/>
       <c r="C203" t="s" s="2">
@@ -25781,16 +25769,16 @@
         <v>123</v>
       </c>
       <c r="K203" t="s" s="2">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="L203" t="s" s="2">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="M203" t="s" s="2">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="N203" t="s" s="2">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="O203" t="s" s="2">
         <v>43</v>
@@ -25819,7 +25807,7 @@
       </c>
       <c r="X203" s="2"/>
       <c r="Y203" t="s" s="2">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="Z203" t="s" s="2">
         <v>43</v>
@@ -25837,7 +25825,7 @@
         <v>43</v>
       </c>
       <c r="AE203" t="s" s="2">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="AF203" t="s" s="2">
         <v>41</v>
@@ -25866,7 +25854,7 @@
     </row>
     <row r="204" hidden="true">
       <c r="A204" t="s" s="2">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="B204" s="2"/>
       <c r="C204" t="s" s="2">
@@ -25889,19 +25877,19 @@
         <v>43</v>
       </c>
       <c r="J204" t="s" s="2">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="K204" t="s" s="2">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="L204" t="s" s="2">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="M204" t="s" s="2">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="N204" t="s" s="2">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="O204" t="s" s="2">
         <v>43</v>
@@ -25950,7 +25938,7 @@
         <v>43</v>
       </c>
       <c r="AE204" t="s" s="2">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="AF204" t="s" s="2">
         <v>41</v>
@@ -25979,7 +25967,7 @@
     </row>
     <row r="205" hidden="true">
       <c r="A205" t="s" s="2">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="B205" s="2"/>
       <c r="C205" t="s" s="2">
@@ -26002,19 +25990,19 @@
         <v>43</v>
       </c>
       <c r="J205" t="s" s="2">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="K205" t="s" s="2">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="L205" t="s" s="2">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="M205" t="s" s="2">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="N205" t="s" s="2">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="O205" t="s" s="2">
         <v>43</v>
@@ -26063,7 +26051,7 @@
         <v>43</v>
       </c>
       <c r="AE205" t="s" s="2">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="AF205" t="s" s="2">
         <v>41</v>
@@ -26092,7 +26080,7 @@
     </row>
     <row r="206" hidden="true">
       <c r="A206" t="s" s="2">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="B206" s="2"/>
       <c r="C206" t="s" s="2">
@@ -26118,10 +26106,10 @@
         <v>210</v>
       </c>
       <c r="K206" t="s" s="2">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="L206" t="s" s="2">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="M206" s="2"/>
       <c r="N206" s="2"/>
@@ -26172,7 +26160,7 @@
         <v>43</v>
       </c>
       <c r="AE206" t="s" s="2">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="AF206" t="s" s="2">
         <v>41</v>
@@ -26201,7 +26189,7 @@
     </row>
     <row r="207" hidden="true">
       <c r="A207" t="s" s="2">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="B207" s="2"/>
       <c r="C207" t="s" s="2">
@@ -26310,7 +26298,7 @@
     </row>
     <row r="208" hidden="true">
       <c r="A208" t="s" s="2">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="B208" s="2"/>
       <c r="C208" t="s" s="2">
@@ -26421,7 +26409,7 @@
     </row>
     <row r="209" hidden="true">
       <c r="A209" t="s" s="2">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B209" s="2"/>
       <c r="C209" t="s" s="2">
@@ -26534,7 +26522,7 @@
     </row>
     <row r="210" hidden="true">
       <c r="A210" t="s" s="2">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="B210" s="2"/>
       <c r="C210" t="s" s="2">
@@ -26560,14 +26548,14 @@
         <v>327</v>
       </c>
       <c r="K210" t="s" s="2">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="L210" t="s" s="2">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="M210" s="2"/>
       <c r="N210" t="s" s="2">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="O210" t="s" s="2">
         <v>43</v>
@@ -26616,7 +26604,7 @@
         <v>43</v>
       </c>
       <c r="AE210" t="s" s="2">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="AF210" t="s" s="2">
         <v>50</v>
@@ -26645,7 +26633,7 @@
     </row>
     <row r="211" hidden="true">
       <c r="A211" t="s" s="2">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="B211" s="2"/>
       <c r="C211" t="s" s="2">
@@ -26671,14 +26659,14 @@
         <v>123</v>
       </c>
       <c r="K211" t="s" s="2">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="L211" t="s" s="2">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="M211" s="2"/>
       <c r="N211" t="s" s="2">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="O211" t="s" s="2">
         <v>43</v>
@@ -26706,10 +26694,10 @@
         <v>139</v>
       </c>
       <c r="X211" t="s" s="2">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="Y211" t="s" s="2">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="Z211" t="s" s="2">
         <v>43</v>
@@ -26727,7 +26715,7 @@
         <v>43</v>
       </c>
       <c r="AE211" t="s" s="2">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="AF211" t="s" s="2">
         <v>41</v>
@@ -26756,7 +26744,7 @@
     </row>
     <row r="212" hidden="true">
       <c r="A212" t="s" s="2">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="B212" s="2"/>
       <c r="C212" t="s" s="2">
@@ -26782,16 +26770,16 @@
         <v>123</v>
       </c>
       <c r="K212" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="L212" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="M212" t="s" s="2">
+        <v>691</v>
+      </c>
+      <c r="N212" t="s" s="2">
         <v>571</v>
-      </c>
-      <c r="L212" t="s" s="2">
-        <v>572</v>
-      </c>
-      <c r="M212" t="s" s="2">
-        <v>695</v>
-      </c>
-      <c r="N212" t="s" s="2">
-        <v>574</v>
       </c>
       <c r="O212" t="s" s="2">
         <v>43</v>
@@ -26819,10 +26807,10 @@
         <v>139</v>
       </c>
       <c r="X212" t="s" s="2">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="Y212" t="s" s="2">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="Z212" t="s" s="2">
         <v>43</v>
@@ -26840,7 +26828,7 @@
         <v>43</v>
       </c>
       <c r="AE212" t="s" s="2">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="AF212" t="s" s="2">
         <v>41</v>
@@ -26869,11 +26857,11 @@
     </row>
     <row r="213" hidden="true">
       <c r="A213" t="s" s="2">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="B213" s="2"/>
       <c r="C213" t="s" s="2">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="D213" s="2"/>
       <c r="E213" t="s" s="2">
@@ -26895,16 +26883,16 @@
         <v>123</v>
       </c>
       <c r="K213" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="L213" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="M213" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="N213" t="s" s="2">
         <v>578</v>
-      </c>
-      <c r="L213" t="s" s="2">
-        <v>579</v>
-      </c>
-      <c r="M213" t="s" s="2">
-        <v>580</v>
-      </c>
-      <c r="N213" t="s" s="2">
-        <v>581</v>
       </c>
       <c r="O213" t="s" s="2">
         <v>43</v>
@@ -26932,10 +26920,10 @@
         <v>139</v>
       </c>
       <c r="X213" t="s" s="2">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="Y213" t="s" s="2">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="Z213" t="s" s="2">
         <v>43</v>
@@ -26953,7 +26941,7 @@
         <v>43</v>
       </c>
       <c r="AE213" t="s" s="2">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="AF213" t="s" s="2">
         <v>50</v>
@@ -26982,7 +26970,7 @@
     </row>
     <row r="214" hidden="true">
       <c r="A214" t="s" s="2">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="B214" s="2"/>
       <c r="C214" t="s" s="2">
@@ -27008,16 +26996,16 @@
         <v>123</v>
       </c>
       <c r="K214" t="s" s="2">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="L214" t="s" s="2">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="M214" t="s" s="2">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="N214" t="s" s="2">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="O214" t="s" s="2">
         <v>43</v>
@@ -27045,10 +27033,10 @@
         <v>139</v>
       </c>
       <c r="X214" t="s" s="2">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="Y214" t="s" s="2">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="Z214" t="s" s="2">
         <v>43</v>
@@ -27066,7 +27054,7 @@
         <v>43</v>
       </c>
       <c r="AE214" t="s" s="2">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="AF214" t="s" s="2">
         <v>41</v>
@@ -27095,7 +27083,7 @@
     </row>
     <row r="215" hidden="true">
       <c r="A215" t="s" s="2">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="B215" s="2"/>
       <c r="C215" t="s" s="2">
@@ -27121,16 +27109,16 @@
         <v>123</v>
       </c>
       <c r="K215" t="s" s="2">
+        <v>587</v>
+      </c>
+      <c r="L215" t="s" s="2">
+        <v>588</v>
+      </c>
+      <c r="M215" t="s" s="2">
+        <v>589</v>
+      </c>
+      <c r="N215" t="s" s="2">
         <v>590</v>
-      </c>
-      <c r="L215" t="s" s="2">
-        <v>591</v>
-      </c>
-      <c r="M215" t="s" s="2">
-        <v>592</v>
-      </c>
-      <c r="N215" t="s" s="2">
-        <v>593</v>
       </c>
       <c r="O215" t="s" s="2">
         <v>43</v>
@@ -27158,10 +27146,10 @@
         <v>139</v>
       </c>
       <c r="X215" t="s" s="2">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="Y215" t="s" s="2">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="Z215" t="s" s="2">
         <v>43</v>
@@ -27179,7 +27167,7 @@
         <v>43</v>
       </c>
       <c r="AE215" t="s" s="2">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="AF215" t="s" s="2">
         <v>41</v>
@@ -27208,7 +27196,7 @@
     </row>
     <row r="216" hidden="true">
       <c r="A216" t="s" s="2">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="B216" s="2"/>
       <c r="C216" t="s" s="2">
@@ -27231,17 +27219,17 @@
         <v>43</v>
       </c>
       <c r="J216" t="s" s="2">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="K216" t="s" s="2">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="L216" t="s" s="2">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="M216" s="2"/>
       <c r="N216" t="s" s="2">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="O216" t="s" s="2">
         <v>43</v>
@@ -27290,7 +27278,7 @@
         <v>43</v>
       </c>
       <c r="AE216" t="s" s="2">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="AF216" t="s" s="2">
         <v>41</v>
@@ -27319,7 +27307,7 @@
     </row>
     <row r="217" hidden="true">
       <c r="A217" t="s" s="2">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="B217" s="2"/>
       <c r="C217" t="s" s="2">
@@ -27342,17 +27330,17 @@
         <v>43</v>
       </c>
       <c r="J217" t="s" s="2">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="K217" t="s" s="2">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="L217" t="s" s="2">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="M217" s="2"/>
       <c r="N217" t="s" s="2">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="O217" t="s" s="2">
         <v>43</v>
@@ -27401,7 +27389,7 @@
         <v>43</v>
       </c>
       <c r="AE217" t="s" s="2">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="AF217" t="s" s="2">
         <v>41</v>
@@ -27430,7 +27418,7 @@
     </row>
     <row r="218" hidden="true">
       <c r="A218" t="s" s="2">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="B218" s="2"/>
       <c r="C218" t="s" s="2">
@@ -27453,19 +27441,19 @@
         <v>43</v>
       </c>
       <c r="J218" t="s" s="2">
+        <v>613</v>
+      </c>
+      <c r="K218" t="s" s="2">
+        <v>614</v>
+      </c>
+      <c r="L218" t="s" s="2">
+        <v>615</v>
+      </c>
+      <c r="M218" t="s" s="2">
+        <v>616</v>
+      </c>
+      <c r="N218" t="s" s="2">
         <v>617</v>
-      </c>
-      <c r="K218" t="s" s="2">
-        <v>618</v>
-      </c>
-      <c r="L218" t="s" s="2">
-        <v>619</v>
-      </c>
-      <c r="M218" t="s" s="2">
-        <v>620</v>
-      </c>
-      <c r="N218" t="s" s="2">
-        <v>621</v>
       </c>
       <c r="O218" t="s" s="2">
         <v>43</v>
@@ -27514,7 +27502,7 @@
         <v>43</v>
       </c>
       <c r="AE218" t="s" s="2">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="AF218" t="s" s="2">
         <v>41</v>
@@ -27543,7 +27531,7 @@
     </row>
     <row r="219" hidden="true">
       <c r="A219" t="s" s="2">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="B219" s="2"/>
       <c r="C219" t="s" s="2">
@@ -27566,19 +27554,19 @@
         <v>43</v>
       </c>
       <c r="J219" t="s" s="2">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="K219" t="s" s="2">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="L219" t="s" s="2">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="M219" t="s" s="2">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="N219" t="s" s="2">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="O219" t="s" s="2">
         <v>43</v>
@@ -27627,7 +27615,7 @@
         <v>43</v>
       </c>
       <c r="AE219" t="s" s="2">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="AF219" t="s" s="2">
         <v>41</v>
@@ -27656,7 +27644,7 @@
     </row>
     <row r="220" hidden="true">
       <c r="A220" t="s" s="2">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="B220" s="2"/>
       <c r="C220" t="s" s="2">
@@ -27679,17 +27667,17 @@
         <v>43</v>
       </c>
       <c r="J220" t="s" s="2">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="K220" t="s" s="2">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="L220" t="s" s="2">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="M220" s="2"/>
       <c r="N220" t="s" s="2">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="O220" t="s" s="2">
         <v>43</v>
@@ -27738,7 +27726,7 @@
         <v>43</v>
       </c>
       <c r="AE220" t="s" s="2">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="AF220" t="s" s="2">
         <v>41</v>
@@ -27767,7 +27755,7 @@
     </row>
     <row r="221" hidden="true">
       <c r="A221" t="s" s="2">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="B221" s="2"/>
       <c r="C221" t="s" s="2">
@@ -27793,14 +27781,14 @@
         <v>327</v>
       </c>
       <c r="K221" t="s" s="2">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="L221" t="s" s="2">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="M221" s="2"/>
       <c r="N221" t="s" s="2">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="O221" t="s" s="2">
         <v>43</v>
@@ -27849,7 +27837,7 @@
         <v>43</v>
       </c>
       <c r="AE221" t="s" s="2">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="AF221" t="s" s="2">
         <v>41</v>
@@ -27878,7 +27866,7 @@
     </row>
     <row r="222" hidden="true">
       <c r="A222" t="s" s="2">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="B222" s="2"/>
       <c r="C222" t="s" s="2">
@@ -27904,10 +27892,10 @@
         <v>43</v>
       </c>
       <c r="K222" t="s" s="2">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="L222" t="s" s="2">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="M222" s="2"/>
       <c r="N222" s="2"/>
@@ -27958,7 +27946,7 @@
         <v>43</v>
       </c>
       <c r="AE222" t="s" s="2">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="AF222" t="s" s="2">
         <v>41</v>
@@ -27987,7 +27975,7 @@
     </row>
     <row r="223" hidden="true">
       <c r="A223" t="s" s="2">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="B223" s="2"/>
       <c r="C223" t="s" s="2">
@@ -28013,10 +28001,10 @@
         <v>210</v>
       </c>
       <c r="K223" t="s" s="2">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="L223" t="s" s="2">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="M223" s="2"/>
       <c r="N223" s="2"/>
@@ -28067,7 +28055,7 @@
         <v>43</v>
       </c>
       <c r="AE223" t="s" s="2">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="AF223" t="s" s="2">
         <v>41</v>
@@ -28096,7 +28084,7 @@
     </row>
     <row r="224" hidden="true">
       <c r="A224" t="s" s="2">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="B224" s="2"/>
       <c r="C224" t="s" s="2">
@@ -28205,7 +28193,7 @@
     </row>
     <row r="225" hidden="true">
       <c r="A225" t="s" s="2">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="B225" s="2"/>
       <c r="C225" t="s" s="2">
@@ -28316,7 +28304,7 @@
     </row>
     <row r="226" hidden="true">
       <c r="A226" t="s" s="2">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="B226" s="2"/>
       <c r="C226" t="s" s="2">
@@ -28429,7 +28417,7 @@
     </row>
     <row r="227" hidden="true">
       <c r="A227" t="s" s="2">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="B227" s="2"/>
       <c r="C227" t="s" s="2">
@@ -28455,14 +28443,14 @@
         <v>327</v>
       </c>
       <c r="K227" t="s" s="2">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="L227" t="s" s="2">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="M227" s="2"/>
       <c r="N227" t="s" s="2">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="O227" t="s" s="2">
         <v>43</v>
@@ -28511,7 +28499,7 @@
         <v>43</v>
       </c>
       <c r="AE227" t="s" s="2">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="AF227" t="s" s="2">
         <v>50</v>
@@ -28540,7 +28528,7 @@
     </row>
     <row r="228" hidden="true">
       <c r="A228" t="s" s="2">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="B228" s="2"/>
       <c r="C228" t="s" s="2">
@@ -28566,14 +28554,14 @@
         <v>123</v>
       </c>
       <c r="K228" t="s" s="2">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="L228" t="s" s="2">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="M228" s="2"/>
       <c r="N228" t="s" s="2">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="O228" t="s" s="2">
         <v>43</v>
@@ -28601,10 +28589,10 @@
         <v>139</v>
       </c>
       <c r="X228" t="s" s="2">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="Y228" t="s" s="2">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="Z228" t="s" s="2">
         <v>43</v>
@@ -28622,7 +28610,7 @@
         <v>43</v>
       </c>
       <c r="AE228" t="s" s="2">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="AF228" t="s" s="2">
         <v>41</v>
@@ -28651,7 +28639,7 @@
     </row>
     <row r="229" hidden="true">
       <c r="A229" t="s" s="2">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="B229" s="2"/>
       <c r="C229" t="s" s="2">
@@ -28677,16 +28665,16 @@
         <v>123</v>
       </c>
       <c r="K229" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="L229" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="M229" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="N229" t="s" s="2">
         <v>571</v>
-      </c>
-      <c r="L229" t="s" s="2">
-        <v>572</v>
-      </c>
-      <c r="M229" t="s" s="2">
-        <v>573</v>
-      </c>
-      <c r="N229" t="s" s="2">
-        <v>574</v>
       </c>
       <c r="O229" t="s" s="2">
         <v>43</v>
@@ -28714,10 +28702,10 @@
         <v>139</v>
       </c>
       <c r="X229" t="s" s="2">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="Y229" t="s" s="2">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="Z229" t="s" s="2">
         <v>43</v>
@@ -28735,7 +28723,7 @@
         <v>43</v>
       </c>
       <c r="AE229" t="s" s="2">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="AF229" t="s" s="2">
         <v>41</v>
@@ -28764,11 +28752,11 @@
     </row>
     <row r="230" hidden="true">
       <c r="A230" t="s" s="2">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="B230" s="2"/>
       <c r="C230" t="s" s="2">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="D230" s="2"/>
       <c r="E230" t="s" s="2">
@@ -28790,16 +28778,16 @@
         <v>123</v>
       </c>
       <c r="K230" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="L230" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="M230" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="N230" t="s" s="2">
         <v>578</v>
-      </c>
-      <c r="L230" t="s" s="2">
-        <v>579</v>
-      </c>
-      <c r="M230" t="s" s="2">
-        <v>580</v>
-      </c>
-      <c r="N230" t="s" s="2">
-        <v>581</v>
       </c>
       <c r="O230" t="s" s="2">
         <v>43</v>
@@ -28827,10 +28815,10 @@
         <v>139</v>
       </c>
       <c r="X230" t="s" s="2">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="Y230" t="s" s="2">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="Z230" t="s" s="2">
         <v>43</v>
@@ -28848,7 +28836,7 @@
         <v>43</v>
       </c>
       <c r="AE230" t="s" s="2">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="AF230" t="s" s="2">
         <v>50</v>
@@ -28877,7 +28865,7 @@
     </row>
     <row r="231" hidden="true">
       <c r="A231" t="s" s="2">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="B231" s="2"/>
       <c r="C231" t="s" s="2">
@@ -28903,16 +28891,16 @@
         <v>123</v>
       </c>
       <c r="K231" t="s" s="2">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="L231" t="s" s="2">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="M231" t="s" s="2">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="N231" t="s" s="2">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="O231" t="s" s="2">
         <v>43</v>
@@ -28940,10 +28928,10 @@
         <v>139</v>
       </c>
       <c r="X231" t="s" s="2">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="Y231" t="s" s="2">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="Z231" t="s" s="2">
         <v>43</v>
@@ -28961,7 +28949,7 @@
         <v>43</v>
       </c>
       <c r="AE231" t="s" s="2">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="AF231" t="s" s="2">
         <v>41</v>
@@ -28990,7 +28978,7 @@
     </row>
     <row r="232" hidden="true">
       <c r="A232" t="s" s="2">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="B232" s="2"/>
       <c r="C232" t="s" s="2">
@@ -29016,16 +29004,16 @@
         <v>123</v>
       </c>
       <c r="K232" t="s" s="2">
+        <v>587</v>
+      </c>
+      <c r="L232" t="s" s="2">
+        <v>588</v>
+      </c>
+      <c r="M232" t="s" s="2">
+        <v>589</v>
+      </c>
+      <c r="N232" t="s" s="2">
         <v>590</v>
-      </c>
-      <c r="L232" t="s" s="2">
-        <v>591</v>
-      </c>
-      <c r="M232" t="s" s="2">
-        <v>592</v>
-      </c>
-      <c r="N232" t="s" s="2">
-        <v>593</v>
       </c>
       <c r="O232" t="s" s="2">
         <v>43</v>
@@ -29053,10 +29041,10 @@
         <v>139</v>
       </c>
       <c r="X232" t="s" s="2">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="Y232" t="s" s="2">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="Z232" t="s" s="2">
         <v>43</v>
@@ -29074,7 +29062,7 @@
         <v>43</v>
       </c>
       <c r="AE232" t="s" s="2">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="AF232" t="s" s="2">
         <v>41</v>
@@ -29103,7 +29091,7 @@
     </row>
     <row r="233" hidden="true">
       <c r="A233" t="s" s="2">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="B233" s="2"/>
       <c r="C233" t="s" s="2">
@@ -29126,17 +29114,17 @@
         <v>43</v>
       </c>
       <c r="J233" t="s" s="2">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="K233" t="s" s="2">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="L233" t="s" s="2">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="M233" s="2"/>
       <c r="N233" t="s" s="2">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="O233" t="s" s="2">
         <v>43</v>
@@ -29185,7 +29173,7 @@
         <v>43</v>
       </c>
       <c r="AE233" t="s" s="2">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="AF233" t="s" s="2">
         <v>41</v>
@@ -29214,7 +29202,7 @@
     </row>
     <row r="234" hidden="true">
       <c r="A234" t="s" s="2">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="B234" s="2"/>
       <c r="C234" t="s" s="2">
@@ -29237,17 +29225,17 @@
         <v>43</v>
       </c>
       <c r="J234" t="s" s="2">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="K234" t="s" s="2">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="L234" t="s" s="2">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="M234" s="2"/>
       <c r="N234" t="s" s="2">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="O234" t="s" s="2">
         <v>43</v>
@@ -29296,7 +29284,7 @@
         <v>43</v>
       </c>
       <c r="AE234" t="s" s="2">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="AF234" t="s" s="2">
         <v>41</v>
@@ -29325,7 +29313,7 @@
     </row>
     <row r="235" hidden="true">
       <c r="A235" t="s" s="2">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="B235" s="2"/>
       <c r="C235" t="s" s="2">
@@ -29348,19 +29336,19 @@
         <v>43</v>
       </c>
       <c r="J235" t="s" s="2">
+        <v>613</v>
+      </c>
+      <c r="K235" t="s" s="2">
+        <v>614</v>
+      </c>
+      <c r="L235" t="s" s="2">
+        <v>615</v>
+      </c>
+      <c r="M235" t="s" s="2">
+        <v>616</v>
+      </c>
+      <c r="N235" t="s" s="2">
         <v>617</v>
-      </c>
-      <c r="K235" t="s" s="2">
-        <v>618</v>
-      </c>
-      <c r="L235" t="s" s="2">
-        <v>619</v>
-      </c>
-      <c r="M235" t="s" s="2">
-        <v>620</v>
-      </c>
-      <c r="N235" t="s" s="2">
-        <v>621</v>
       </c>
       <c r="O235" t="s" s="2">
         <v>43</v>
@@ -29409,7 +29397,7 @@
         <v>43</v>
       </c>
       <c r="AE235" t="s" s="2">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="AF235" t="s" s="2">
         <v>41</v>
@@ -29438,7 +29426,7 @@
     </row>
     <row r="236" hidden="true">
       <c r="A236" t="s" s="2">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="B236" s="2"/>
       <c r="C236" t="s" s="2">
@@ -29461,19 +29449,19 @@
         <v>43</v>
       </c>
       <c r="J236" t="s" s="2">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="K236" t="s" s="2">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="L236" t="s" s="2">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="M236" t="s" s="2">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="N236" t="s" s="2">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="O236" t="s" s="2">
         <v>43</v>
@@ -29522,7 +29510,7 @@
         <v>43</v>
       </c>
       <c r="AE236" t="s" s="2">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="AF236" t="s" s="2">
         <v>41</v>
@@ -29551,7 +29539,7 @@
     </row>
     <row r="237" hidden="true">
       <c r="A237" t="s" s="2">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="B237" s="2"/>
       <c r="C237" t="s" s="2">
@@ -29574,17 +29562,17 @@
         <v>43</v>
       </c>
       <c r="J237" t="s" s="2">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="K237" t="s" s="2">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="L237" t="s" s="2">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="M237" s="2"/>
       <c r="N237" t="s" s="2">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="O237" t="s" s="2">
         <v>43</v>
@@ -29633,7 +29621,7 @@
         <v>43</v>
       </c>
       <c r="AE237" t="s" s="2">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="AF237" t="s" s="2">
         <v>41</v>
@@ -29662,7 +29650,7 @@
     </row>
     <row r="238" hidden="true">
       <c r="A238" t="s" s="2">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="B238" s="2"/>
       <c r="C238" t="s" s="2">
@@ -29688,14 +29676,14 @@
         <v>327</v>
       </c>
       <c r="K238" t="s" s="2">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="L238" t="s" s="2">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="M238" s="2"/>
       <c r="N238" t="s" s="2">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="O238" t="s" s="2">
         <v>43</v>
@@ -29744,7 +29732,7 @@
         <v>43</v>
       </c>
       <c r="AE238" t="s" s="2">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="AF238" t="s" s="2">
         <v>41</v>
@@ -29773,7 +29761,7 @@
     </row>
     <row r="239" hidden="true">
       <c r="A239" t="s" s="2">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="B239" s="2"/>
       <c r="C239" t="s" s="2">
@@ -29799,10 +29787,10 @@
         <v>43</v>
       </c>
       <c r="K239" t="s" s="2">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="L239" t="s" s="2">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="M239" s="2"/>
       <c r="N239" s="2"/>
@@ -29853,7 +29841,7 @@
         <v>43</v>
       </c>
       <c r="AE239" t="s" s="2">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="AF239" t="s" s="2">
         <v>41</v>
@@ -29882,7 +29870,7 @@
     </row>
     <row r="240" hidden="true">
       <c r="A240" t="s" s="2">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="B240" s="2"/>
       <c r="C240" t="s" s="2">
@@ -29908,14 +29896,14 @@
         <v>210</v>
       </c>
       <c r="K240" t="s" s="2">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="L240" t="s" s="2">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="M240" s="2"/>
       <c r="N240" t="s" s="2">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="O240" t="s" s="2">
         <v>43</v>
@@ -29964,7 +29952,7 @@
         <v>43</v>
       </c>
       <c r="AE240" t="s" s="2">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="AF240" t="s" s="2">
         <v>41</v>
@@ -29993,7 +29981,7 @@
     </row>
     <row r="241" hidden="true">
       <c r="A241" t="s" s="2">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="B241" s="2"/>
       <c r="C241" t="s" s="2">
@@ -30102,7 +30090,7 @@
     </row>
     <row r="242" hidden="true">
       <c r="A242" t="s" s="2">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="B242" s="2"/>
       <c r="C242" t="s" s="2">
@@ -30213,7 +30201,7 @@
     </row>
     <row r="243" hidden="true">
       <c r="A243" t="s" s="2">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="B243" s="2"/>
       <c r="C243" t="s" s="2">
@@ -30326,7 +30314,7 @@
     </row>
     <row r="244" hidden="true">
       <c r="A244" t="s" s="2">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="B244" s="2"/>
       <c r="C244" t="s" s="2">
@@ -30352,14 +30340,14 @@
         <v>327</v>
       </c>
       <c r="K244" t="s" s="2">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="L244" t="s" s="2">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="M244" s="2"/>
       <c r="N244" t="s" s="2">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="O244" t="s" s="2">
         <v>43</v>
@@ -30408,7 +30396,7 @@
         <v>43</v>
       </c>
       <c r="AE244" t="s" s="2">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="AF244" t="s" s="2">
         <v>41</v>
@@ -30437,7 +30425,7 @@
     </row>
     <row r="245" hidden="true">
       <c r="A245" t="s" s="2">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="B245" s="2"/>
       <c r="C245" t="s" s="2">
@@ -30463,14 +30451,14 @@
         <v>327</v>
       </c>
       <c r="K245" t="s" s="2">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="L245" t="s" s="2">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="M245" s="2"/>
       <c r="N245" t="s" s="2">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="O245" t="s" s="2">
         <v>43</v>
@@ -30519,7 +30507,7 @@
         <v>43</v>
       </c>
       <c r="AE245" t="s" s="2">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="AF245" t="s" s="2">
         <v>41</v>
@@ -30548,7 +30536,7 @@
     </row>
     <row r="246" hidden="true">
       <c r="A246" t="s" s="2">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="B246" s="2"/>
       <c r="C246" t="s" s="2">
@@ -30574,14 +30562,14 @@
         <v>327</v>
       </c>
       <c r="K246" t="s" s="2">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="L246" t="s" s="2">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="M246" s="2"/>
       <c r="N246" t="s" s="2">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="O246" t="s" s="2">
         <v>43</v>
@@ -30630,7 +30618,7 @@
         <v>43</v>
       </c>
       <c r="AE246" t="s" s="2">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="AF246" t="s" s="2">
         <v>41</v>
@@ -30659,7 +30647,7 @@
     </row>
     <row r="247" hidden="true">
       <c r="A247" t="s" s="2">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="B247" s="2"/>
       <c r="C247" t="s" s="2">
@@ -30685,14 +30673,14 @@
         <v>332</v>
       </c>
       <c r="K247" t="s" s="2">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="L247" t="s" s="2">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="M247" s="2"/>
       <c r="N247" t="s" s="2">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="O247" t="s" s="2">
         <v>43</v>
@@ -30741,7 +30729,7 @@
         <v>43</v>
       </c>
       <c r="AE247" t="s" s="2">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="AF247" t="s" s="2">
         <v>41</v>
@@ -30770,11 +30758,11 @@
     </row>
     <row r="248" hidden="true">
       <c r="A248" t="s" s="2">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="B248" s="2"/>
       <c r="C248" t="s" s="2">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="D248" s="2"/>
       <c r="E248" t="s" s="2">
@@ -30796,16 +30784,16 @@
         <v>123</v>
       </c>
       <c r="K248" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="L248" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="M248" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="N248" t="s" s="2">
         <v>578</v>
-      </c>
-      <c r="L248" t="s" s="2">
-        <v>579</v>
-      </c>
-      <c r="M248" t="s" s="2">
-        <v>580</v>
-      </c>
-      <c r="N248" t="s" s="2">
-        <v>581</v>
       </c>
       <c r="O248" t="s" s="2">
         <v>43</v>
@@ -30833,10 +30821,10 @@
         <v>139</v>
       </c>
       <c r="X248" t="s" s="2">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="Y248" t="s" s="2">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="Z248" t="s" s="2">
         <v>43</v>
@@ -30854,7 +30842,7 @@
         <v>43</v>
       </c>
       <c r="AE248" t="s" s="2">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="AF248" t="s" s="2">
         <v>50</v>
@@ -30883,7 +30871,7 @@
     </row>
     <row r="249" hidden="true">
       <c r="A249" t="s" s="2">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="B249" s="2"/>
       <c r="C249" t="s" s="2">
@@ -30909,16 +30897,16 @@
         <v>123</v>
       </c>
       <c r="K249" t="s" s="2">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="L249" t="s" s="2">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="M249" t="s" s="2">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="N249" t="s" s="2">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="O249" t="s" s="2">
         <v>43</v>
@@ -30946,10 +30934,10 @@
         <v>139</v>
       </c>
       <c r="X249" t="s" s="2">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="Y249" t="s" s="2">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="Z249" t="s" s="2">
         <v>43</v>
@@ -30967,7 +30955,7 @@
         <v>43</v>
       </c>
       <c r="AE249" t="s" s="2">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="AF249" t="s" s="2">
         <v>41</v>
@@ -30996,7 +30984,7 @@
     </row>
     <row r="250" hidden="true">
       <c r="A250" t="s" s="2">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="B250" s="2"/>
       <c r="C250" t="s" s="2">
@@ -31022,16 +31010,16 @@
         <v>123</v>
       </c>
       <c r="K250" t="s" s="2">
+        <v>587</v>
+      </c>
+      <c r="L250" t="s" s="2">
+        <v>588</v>
+      </c>
+      <c r="M250" t="s" s="2">
+        <v>589</v>
+      </c>
+      <c r="N250" t="s" s="2">
         <v>590</v>
-      </c>
-      <c r="L250" t="s" s="2">
-        <v>591</v>
-      </c>
-      <c r="M250" t="s" s="2">
-        <v>592</v>
-      </c>
-      <c r="N250" t="s" s="2">
-        <v>593</v>
       </c>
       <c r="O250" t="s" s="2">
         <v>43</v>
@@ -31059,10 +31047,10 @@
         <v>139</v>
       </c>
       <c r="X250" t="s" s="2">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="Y250" t="s" s="2">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="Z250" t="s" s="2">
         <v>43</v>
@@ -31080,7 +31068,7 @@
         <v>43</v>
       </c>
       <c r="AE250" t="s" s="2">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="AF250" t="s" s="2">
         <v>41</v>
@@ -31109,7 +31097,7 @@
     </row>
     <row r="251" hidden="true">
       <c r="A251" t="s" s="2">
-        <v>761</v>
+        <v>757</v>
       </c>
       <c r="B251" s="2"/>
       <c r="C251" t="s" s="2">
@@ -31135,14 +31123,14 @@
         <v>383</v>
       </c>
       <c r="K251" t="s" s="2">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="L251" t="s" s="2">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="M251" s="2"/>
       <c r="N251" t="s" s="2">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="O251" t="s" s="2">
         <v>43</v>
@@ -31191,7 +31179,7 @@
         <v>43</v>
       </c>
       <c r="AE251" t="s" s="2">
-        <v>761</v>
+        <v>757</v>
       </c>
       <c r="AF251" t="s" s="2">
         <v>41</v>
@@ -31220,7 +31208,7 @@
     </row>
     <row r="252" hidden="true">
       <c r="A252" t="s" s="2">
-        <v>762</v>
+        <v>758</v>
       </c>
       <c r="B252" s="2"/>
       <c r="C252" t="s" s="2">
@@ -31243,17 +31231,17 @@
         <v>43</v>
       </c>
       <c r="J252" t="s" s="2">
-        <v>763</v>
+        <v>759</v>
       </c>
       <c r="K252" t="s" s="2">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="L252" t="s" s="2">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="M252" s="2"/>
       <c r="N252" t="s" s="2">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="O252" t="s" s="2">
         <v>43</v>
@@ -31281,10 +31269,10 @@
         <v>139</v>
       </c>
       <c r="X252" t="s" s="2">
-        <v>764</v>
+        <v>760</v>
       </c>
       <c r="Y252" t="s" s="2">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="Z252" t="s" s="2">
         <v>43</v>
@@ -31302,7 +31290,7 @@
         <v>43</v>
       </c>
       <c r="AE252" t="s" s="2">
-        <v>762</v>
+        <v>758</v>
       </c>
       <c r="AF252" t="s" s="2">
         <v>41</v>
@@ -31331,7 +31319,7 @@
     </row>
     <row r="253" hidden="true">
       <c r="A253" t="s" s="2">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="B253" s="2"/>
       <c r="C253" t="s" s="2">
@@ -31354,17 +31342,17 @@
         <v>43</v>
       </c>
       <c r="J253" t="s" s="2">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="K253" t="s" s="2">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="L253" t="s" s="2">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="M253" s="2"/>
       <c r="N253" t="s" s="2">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="O253" t="s" s="2">
         <v>43</v>
@@ -31413,7 +31401,7 @@
         <v>43</v>
       </c>
       <c r="AE253" t="s" s="2">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="AF253" t="s" s="2">
         <v>41</v>
@@ -31442,7 +31430,7 @@
     </row>
     <row r="254" hidden="true">
       <c r="A254" t="s" s="2">
-        <v>767</v>
+        <v>763</v>
       </c>
       <c r="B254" s="2"/>
       <c r="C254" t="s" s="2">
@@ -31465,17 +31453,17 @@
         <v>43</v>
       </c>
       <c r="J254" t="s" s="2">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="K254" t="s" s="2">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="L254" t="s" s="2">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="M254" s="2"/>
       <c r="N254" t="s" s="2">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="O254" t="s" s="2">
         <v>43</v>
@@ -31524,7 +31512,7 @@
         <v>43</v>
       </c>
       <c r="AE254" t="s" s="2">
-        <v>767</v>
+        <v>763</v>
       </c>
       <c r="AF254" t="s" s="2">
         <v>41</v>
@@ -31553,7 +31541,7 @@
     </row>
     <row r="255" hidden="true">
       <c r="A255" t="s" s="2">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="B255" s="2"/>
       <c r="C255" t="s" s="2">
@@ -31576,19 +31564,19 @@
         <v>43</v>
       </c>
       <c r="J255" t="s" s="2">
+        <v>613</v>
+      </c>
+      <c r="K255" t="s" s="2">
+        <v>614</v>
+      </c>
+      <c r="L255" t="s" s="2">
+        <v>615</v>
+      </c>
+      <c r="M255" t="s" s="2">
+        <v>616</v>
+      </c>
+      <c r="N255" t="s" s="2">
         <v>617</v>
-      </c>
-      <c r="K255" t="s" s="2">
-        <v>618</v>
-      </c>
-      <c r="L255" t="s" s="2">
-        <v>619</v>
-      </c>
-      <c r="M255" t="s" s="2">
-        <v>620</v>
-      </c>
-      <c r="N255" t="s" s="2">
-        <v>621</v>
       </c>
       <c r="O255" t="s" s="2">
         <v>43</v>
@@ -31637,7 +31625,7 @@
         <v>43</v>
       </c>
       <c r="AE255" t="s" s="2">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="AF255" t="s" s="2">
         <v>41</v>
@@ -31666,7 +31654,7 @@
     </row>
     <row r="256" hidden="true">
       <c r="A256" t="s" s="2">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="B256" s="2"/>
       <c r="C256" t="s" s="2">
@@ -31689,19 +31677,19 @@
         <v>43</v>
       </c>
       <c r="J256" t="s" s="2">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="K256" t="s" s="2">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="L256" t="s" s="2">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="M256" t="s" s="2">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="N256" t="s" s="2">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="O256" t="s" s="2">
         <v>43</v>
@@ -31750,7 +31738,7 @@
         <v>43</v>
       </c>
       <c r="AE256" t="s" s="2">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="AF256" t="s" s="2">
         <v>41</v>
@@ -31779,7 +31767,7 @@
     </row>
     <row r="257" hidden="true">
       <c r="A257" t="s" s="2">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="B257" s="2"/>
       <c r="C257" t="s" s="2">
@@ -31805,16 +31793,16 @@
         <v>123</v>
       </c>
       <c r="K257" t="s" s="2">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="L257" t="s" s="2">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="M257" t="s" s="2">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="N257" t="s" s="2">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="O257" t="s" s="2">
         <v>43</v>
@@ -31842,10 +31830,10 @@
         <v>139</v>
       </c>
       <c r="X257" t="s" s="2">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="Y257" t="s" s="2">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="Z257" t="s" s="2">
         <v>43</v>
@@ -31863,7 +31851,7 @@
         <v>43</v>
       </c>
       <c r="AE257" t="s" s="2">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="AF257" t="s" s="2">
         <v>41</v>
@@ -31892,7 +31880,7 @@
     </row>
     <row r="258" hidden="true">
       <c r="A258" t="s" s="2">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="B258" s="2"/>
       <c r="C258" t="s" s="2">
@@ -31918,14 +31906,14 @@
         <v>123</v>
       </c>
       <c r="K258" t="s" s="2">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="L258" t="s" s="2">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="M258" s="2"/>
       <c r="N258" t="s" s="2">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="O258" t="s" s="2">
         <v>43</v>
@@ -31953,10 +31941,10 @@
         <v>139</v>
       </c>
       <c r="X258" t="s" s="2">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="Y258" t="s" s="2">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="Z258" t="s" s="2">
         <v>43</v>
@@ -31974,7 +31962,7 @@
         <v>43</v>
       </c>
       <c r="AE258" t="s" s="2">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="AF258" t="s" s="2">
         <v>41</v>
@@ -32003,7 +31991,7 @@
     </row>
     <row r="259" hidden="true">
       <c r="A259" t="s" s="2">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="B259" s="2"/>
       <c r="C259" t="s" s="2">
@@ -32029,14 +32017,14 @@
         <v>327</v>
       </c>
       <c r="K259" t="s" s="2">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="L259" t="s" s="2">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="M259" s="2"/>
       <c r="N259" t="s" s="2">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="O259" t="s" s="2">
         <v>43</v>
@@ -32085,7 +32073,7 @@
         <v>43</v>
       </c>
       <c r="AE259" t="s" s="2">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="AF259" t="s" s="2">
         <v>41</v>
@@ -32114,7 +32102,7 @@
     </row>
     <row r="260" hidden="true">
       <c r="A260" t="s" s="2">
-        <v>774</v>
+        <v>770</v>
       </c>
       <c r="B260" s="2"/>
       <c r="C260" t="s" s="2">
@@ -32140,10 +32128,10 @@
         <v>43</v>
       </c>
       <c r="K260" t="s" s="2">
-        <v>775</v>
+        <v>771</v>
       </c>
       <c r="L260" t="s" s="2">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="M260" s="2"/>
       <c r="N260" s="2"/>
@@ -32194,7 +32182,7 @@
         <v>43</v>
       </c>
       <c r="AE260" t="s" s="2">
-        <v>774</v>
+        <v>770</v>
       </c>
       <c r="AF260" t="s" s="2">
         <v>41</v>
@@ -32223,7 +32211,7 @@
     </row>
     <row r="261" hidden="true">
       <c r="A261" t="s" s="2">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="B261" s="2"/>
       <c r="C261" t="s" s="2">
@@ -32249,10 +32237,10 @@
         <v>210</v>
       </c>
       <c r="K261" t="s" s="2">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="L261" t="s" s="2">
-        <v>777</v>
+        <v>773</v>
       </c>
       <c r="M261" s="2"/>
       <c r="N261" s="2"/>
@@ -32303,7 +32291,7 @@
         <v>43</v>
       </c>
       <c r="AE261" t="s" s="2">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="AF261" t="s" s="2">
         <v>41</v>
@@ -32332,7 +32320,7 @@
     </row>
     <row r="262" hidden="true">
       <c r="A262" t="s" s="2">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="B262" s="2"/>
       <c r="C262" t="s" s="2">
@@ -32441,7 +32429,7 @@
     </row>
     <row r="263" hidden="true">
       <c r="A263" t="s" s="2">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="B263" s="2"/>
       <c r="C263" t="s" s="2">
@@ -32552,7 +32540,7 @@
     </row>
     <row r="264" hidden="true">
       <c r="A264" t="s" s="2">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="B264" s="2"/>
       <c r="C264" t="s" s="2">
@@ -32665,11 +32653,11 @@
     </row>
     <row r="265" hidden="true">
       <c r="A265" t="s" s="2">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="B265" s="2"/>
       <c r="C265" t="s" s="2">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="D265" s="2"/>
       <c r="E265" t="s" s="2">
@@ -32691,16 +32679,16 @@
         <v>123</v>
       </c>
       <c r="K265" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="L265" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="M265" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="N265" t="s" s="2">
         <v>578</v>
-      </c>
-      <c r="L265" t="s" s="2">
-        <v>579</v>
-      </c>
-      <c r="M265" t="s" s="2">
-        <v>580</v>
-      </c>
-      <c r="N265" t="s" s="2">
-        <v>581</v>
       </c>
       <c r="O265" t="s" s="2">
         <v>43</v>
@@ -32728,10 +32716,10 @@
         <v>139</v>
       </c>
       <c r="X265" t="s" s="2">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="Y265" t="s" s="2">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="Z265" t="s" s="2">
         <v>43</v>
@@ -32749,7 +32737,7 @@
         <v>43</v>
       </c>
       <c r="AE265" t="s" s="2">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="AF265" t="s" s="2">
         <v>50</v>
@@ -32778,7 +32766,7 @@
     </row>
     <row r="266" hidden="true">
       <c r="A266" t="s" s="2">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="B266" s="2"/>
       <c r="C266" t="s" s="2">
@@ -32804,16 +32792,16 @@
         <v>123</v>
       </c>
       <c r="K266" t="s" s="2">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="L266" t="s" s="2">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="M266" t="s" s="2">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="N266" t="s" s="2">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="O266" t="s" s="2">
         <v>43</v>
@@ -32841,10 +32829,10 @@
         <v>139</v>
       </c>
       <c r="X266" t="s" s="2">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="Y266" t="s" s="2">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="Z266" t="s" s="2">
         <v>43</v>
@@ -32862,7 +32850,7 @@
         <v>43</v>
       </c>
       <c r="AE266" t="s" s="2">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="AF266" t="s" s="2">
         <v>41</v>
@@ -32891,7 +32879,7 @@
     </row>
     <row r="267" hidden="true">
       <c r="A267" t="s" s="2">
-        <v>783</v>
+        <v>779</v>
       </c>
       <c r="B267" s="2"/>
       <c r="C267" t="s" s="2">
@@ -32914,17 +32902,17 @@
         <v>43</v>
       </c>
       <c r="J267" t="s" s="2">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="K267" t="s" s="2">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="L267" t="s" s="2">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="M267" s="2"/>
       <c r="N267" t="s" s="2">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="O267" t="s" s="2">
         <v>43</v>
@@ -32973,7 +32961,7 @@
         <v>43</v>
       </c>
       <c r="AE267" t="s" s="2">
-        <v>783</v>
+        <v>779</v>
       </c>
       <c r="AF267" t="s" s="2">
         <v>41</v>
@@ -33002,7 +32990,7 @@
     </row>
     <row r="268" hidden="true">
       <c r="A268" t="s" s="2">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="B268" s="2"/>
       <c r="C268" t="s" s="2">
@@ -33025,17 +33013,17 @@
         <v>43</v>
       </c>
       <c r="J268" t="s" s="2">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="K268" t="s" s="2">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="L268" t="s" s="2">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="M268" s="2"/>
       <c r="N268" t="s" s="2">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="O268" t="s" s="2">
         <v>43</v>
@@ -33084,7 +33072,7 @@
         <v>43</v>
       </c>
       <c r="AE268" t="s" s="2">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="AF268" t="s" s="2">
         <v>41</v>
@@ -33113,7 +33101,7 @@
     </row>
     <row r="269" hidden="true">
       <c r="A269" t="s" s="2">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="B269" s="2"/>
       <c r="C269" t="s" s="2">
@@ -33136,19 +33124,19 @@
         <v>43</v>
       </c>
       <c r="J269" t="s" s="2">
+        <v>613</v>
+      </c>
+      <c r="K269" t="s" s="2">
+        <v>614</v>
+      </c>
+      <c r="L269" t="s" s="2">
+        <v>615</v>
+      </c>
+      <c r="M269" t="s" s="2">
+        <v>616</v>
+      </c>
+      <c r="N269" t="s" s="2">
         <v>617</v>
-      </c>
-      <c r="K269" t="s" s="2">
-        <v>618</v>
-      </c>
-      <c r="L269" t="s" s="2">
-        <v>619</v>
-      </c>
-      <c r="M269" t="s" s="2">
-        <v>620</v>
-      </c>
-      <c r="N269" t="s" s="2">
-        <v>621</v>
       </c>
       <c r="O269" t="s" s="2">
         <v>43</v>
@@ -33197,7 +33185,7 @@
         <v>43</v>
       </c>
       <c r="AE269" t="s" s="2">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="AF269" t="s" s="2">
         <v>41</v>
@@ -33226,7 +33214,7 @@
     </row>
     <row r="270" hidden="true">
       <c r="A270" t="s" s="2">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="B270" s="2"/>
       <c r="C270" t="s" s="2">
@@ -33249,19 +33237,19 @@
         <v>43</v>
       </c>
       <c r="J270" t="s" s="2">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="K270" t="s" s="2">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="L270" t="s" s="2">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="M270" t="s" s="2">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="N270" t="s" s="2">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="O270" t="s" s="2">
         <v>43</v>
@@ -33310,7 +33298,7 @@
         <v>43</v>
       </c>
       <c r="AE270" t="s" s="2">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="AF270" t="s" s="2">
         <v>41</v>
@@ -33339,7 +33327,7 @@
     </row>
     <row r="271" hidden="true">
       <c r="A271" t="s" s="2">
-        <v>787</v>
+        <v>783</v>
       </c>
       <c r="B271" s="2"/>
       <c r="C271" t="s" s="2">
@@ -33365,14 +33353,14 @@
         <v>327</v>
       </c>
       <c r="K271" t="s" s="2">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="L271" t="s" s="2">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="M271" s="2"/>
       <c r="N271" t="s" s="2">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="O271" t="s" s="2">
         <v>43</v>
@@ -33421,7 +33409,7 @@
         <v>43</v>
       </c>
       <c r="AE271" t="s" s="2">
-        <v>787</v>
+        <v>783</v>
       </c>
       <c r="AF271" t="s" s="2">
         <v>41</v>
@@ -33450,7 +33438,7 @@
     </row>
     <row r="272" hidden="true">
       <c r="A272" t="s" s="2">
-        <v>788</v>
+        <v>784</v>
       </c>
       <c r="B272" s="2"/>
       <c r="C272" t="s" s="2">
@@ -33476,10 +33464,10 @@
         <v>43</v>
       </c>
       <c r="K272" t="s" s="2">
-        <v>775</v>
+        <v>771</v>
       </c>
       <c r="L272" t="s" s="2">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="M272" s="2"/>
       <c r="N272" s="2"/>
@@ -33530,7 +33518,7 @@
         <v>43</v>
       </c>
       <c r="AE272" t="s" s="2">
-        <v>788</v>
+        <v>784</v>
       </c>
       <c r="AF272" t="s" s="2">
         <v>41</v>
@@ -33559,7 +33547,7 @@
     </row>
     <row r="273" hidden="true">
       <c r="A273" t="s" s="2">
-        <v>789</v>
+        <v>785</v>
       </c>
       <c r="B273" s="2"/>
       <c r="C273" t="s" s="2">
@@ -33585,10 +33573,10 @@
         <v>210</v>
       </c>
       <c r="K273" t="s" s="2">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="L273" t="s" s="2">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="M273" s="2"/>
       <c r="N273" s="2"/>
@@ -33639,7 +33627,7 @@
         <v>43</v>
       </c>
       <c r="AE273" t="s" s="2">
-        <v>789</v>
+        <v>785</v>
       </c>
       <c r="AF273" t="s" s="2">
         <v>41</v>
@@ -33668,7 +33656,7 @@
     </row>
     <row r="274" hidden="true">
       <c r="A274" t="s" s="2">
-        <v>791</v>
+        <v>787</v>
       </c>
       <c r="B274" s="2"/>
       <c r="C274" t="s" s="2">
@@ -33777,7 +33765,7 @@
     </row>
     <row r="275" hidden="true">
       <c r="A275" t="s" s="2">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="B275" s="2"/>
       <c r="C275" t="s" s="2">
@@ -33888,7 +33876,7 @@
     </row>
     <row r="276" hidden="true">
       <c r="A276" t="s" s="2">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="B276" s="2"/>
       <c r="C276" t="s" s="2">
@@ -34001,11 +33989,11 @@
     </row>
     <row r="277" hidden="true">
       <c r="A277" t="s" s="2">
-        <v>794</v>
+        <v>790</v>
       </c>
       <c r="B277" s="2"/>
       <c r="C277" t="s" s="2">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="D277" s="2"/>
       <c r="E277" t="s" s="2">
@@ -34027,16 +34015,16 @@
         <v>123</v>
       </c>
       <c r="K277" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="L277" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="M277" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="N277" t="s" s="2">
         <v>578</v>
-      </c>
-      <c r="L277" t="s" s="2">
-        <v>579</v>
-      </c>
-      <c r="M277" t="s" s="2">
-        <v>580</v>
-      </c>
-      <c r="N277" t="s" s="2">
-        <v>581</v>
       </c>
       <c r="O277" t="s" s="2">
         <v>43</v>
@@ -34064,10 +34052,10 @@
         <v>139</v>
       </c>
       <c r="X277" t="s" s="2">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="Y277" t="s" s="2">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="Z277" t="s" s="2">
         <v>43</v>
@@ -34085,7 +34073,7 @@
         <v>43</v>
       </c>
       <c r="AE277" t="s" s="2">
-        <v>794</v>
+        <v>790</v>
       </c>
       <c r="AF277" t="s" s="2">
         <v>50</v>
@@ -34114,7 +34102,7 @@
     </row>
     <row r="278" hidden="true">
       <c r="A278" t="s" s="2">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="B278" s="2"/>
       <c r="C278" t="s" s="2">
@@ -34140,16 +34128,16 @@
         <v>123</v>
       </c>
       <c r="K278" t="s" s="2">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="L278" t="s" s="2">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="M278" t="s" s="2">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="N278" t="s" s="2">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="O278" t="s" s="2">
         <v>43</v>
@@ -34177,10 +34165,10 @@
         <v>139</v>
       </c>
       <c r="X278" t="s" s="2">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="Y278" t="s" s="2">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="Z278" t="s" s="2">
         <v>43</v>
@@ -34198,7 +34186,7 @@
         <v>43</v>
       </c>
       <c r="AE278" t="s" s="2">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="AF278" t="s" s="2">
         <v>41</v>
@@ -34227,7 +34215,7 @@
     </row>
     <row r="279" hidden="true">
       <c r="A279" t="s" s="2">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="B279" s="2"/>
       <c r="C279" t="s" s="2">
@@ -34250,17 +34238,17 @@
         <v>43</v>
       </c>
       <c r="J279" t="s" s="2">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="K279" t="s" s="2">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="L279" t="s" s="2">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="M279" s="2"/>
       <c r="N279" t="s" s="2">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="O279" t="s" s="2">
         <v>43</v>
@@ -34309,7 +34297,7 @@
         <v>43</v>
       </c>
       <c r="AE279" t="s" s="2">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="AF279" t="s" s="2">
         <v>41</v>
@@ -34338,7 +34326,7 @@
     </row>
     <row r="280" hidden="true">
       <c r="A280" t="s" s="2">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="B280" s="2"/>
       <c r="C280" t="s" s="2">
@@ -34361,17 +34349,17 @@
         <v>43</v>
       </c>
       <c r="J280" t="s" s="2">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="K280" t="s" s="2">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="L280" t="s" s="2">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="M280" s="2"/>
       <c r="N280" t="s" s="2">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="O280" t="s" s="2">
         <v>43</v>
@@ -34420,7 +34408,7 @@
         <v>43</v>
       </c>
       <c r="AE280" t="s" s="2">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="AF280" t="s" s="2">
         <v>41</v>
@@ -34449,7 +34437,7 @@
     </row>
     <row r="281" hidden="true">
       <c r="A281" t="s" s="2">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="B281" s="2"/>
       <c r="C281" t="s" s="2">
@@ -34472,19 +34460,19 @@
         <v>43</v>
       </c>
       <c r="J281" t="s" s="2">
+        <v>613</v>
+      </c>
+      <c r="K281" t="s" s="2">
+        <v>614</v>
+      </c>
+      <c r="L281" t="s" s="2">
+        <v>615</v>
+      </c>
+      <c r="M281" t="s" s="2">
+        <v>616</v>
+      </c>
+      <c r="N281" t="s" s="2">
         <v>617</v>
-      </c>
-      <c r="K281" t="s" s="2">
-        <v>618</v>
-      </c>
-      <c r="L281" t="s" s="2">
-        <v>619</v>
-      </c>
-      <c r="M281" t="s" s="2">
-        <v>620</v>
-      </c>
-      <c r="N281" t="s" s="2">
-        <v>621</v>
       </c>
       <c r="O281" t="s" s="2">
         <v>43</v>
@@ -34533,7 +34521,7 @@
         <v>43</v>
       </c>
       <c r="AE281" t="s" s="2">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="AF281" t="s" s="2">
         <v>41</v>
@@ -34562,7 +34550,7 @@
     </row>
     <row r="282" hidden="true">
       <c r="A282" t="s" s="2">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="B282" s="2"/>
       <c r="C282" t="s" s="2">
@@ -34585,19 +34573,19 @@
         <v>43</v>
       </c>
       <c r="J282" t="s" s="2">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="K282" t="s" s="2">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="L282" t="s" s="2">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="M282" t="s" s="2">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="N282" t="s" s="2">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="O282" t="s" s="2">
         <v>43</v>
@@ -34646,7 +34634,7 @@
         <v>43</v>
       </c>
       <c r="AE282" t="s" s="2">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="AF282" t="s" s="2">
         <v>41</v>
@@ -34675,7 +34663,7 @@
     </row>
     <row r="283" hidden="true">
       <c r="A283" t="s" s="2">
-        <v>800</v>
+        <v>796</v>
       </c>
       <c r="B283" s="2"/>
       <c r="C283" t="s" s="2">
@@ -34701,14 +34689,14 @@
         <v>327</v>
       </c>
       <c r="K283" t="s" s="2">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="L283" t="s" s="2">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="M283" s="2"/>
       <c r="N283" t="s" s="2">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="O283" t="s" s="2">
         <v>43</v>
@@ -34757,7 +34745,7 @@
         <v>43</v>
       </c>
       <c r="AE283" t="s" s="2">
-        <v>800</v>
+        <v>796</v>
       </c>
       <c r="AF283" t="s" s="2">
         <v>41</v>
@@ -34786,7 +34774,7 @@
     </row>
     <row r="284" hidden="true">
       <c r="A284" t="s" s="2">
-        <v>801</v>
+        <v>797</v>
       </c>
       <c r="B284" s="2"/>
       <c r="C284" t="s" s="2">
@@ -34812,10 +34800,10 @@
         <v>43</v>
       </c>
       <c r="K284" t="s" s="2">
-        <v>775</v>
+        <v>771</v>
       </c>
       <c r="L284" t="s" s="2">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="M284" s="2"/>
       <c r="N284" s="2"/>
@@ -34866,7 +34854,7 @@
         <v>43</v>
       </c>
       <c r="AE284" t="s" s="2">
-        <v>801</v>
+        <v>797</v>
       </c>
       <c r="AF284" t="s" s="2">
         <v>41</v>
@@ -34895,10 +34883,10 @@
     </row>
     <row r="285" hidden="true">
       <c r="A285" t="s" s="2">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="B285" t="s" s="2">
-        <v>803</v>
+        <v>799</v>
       </c>
       <c r="C285" t="s" s="2">
         <v>43</v>
@@ -34923,14 +34911,14 @@
         <v>210</v>
       </c>
       <c r="K285" t="s" s="2">
-        <v>804</v>
+        <v>800</v>
       </c>
       <c r="L285" t="s" s="2">
-        <v>805</v>
+        <v>801</v>
       </c>
       <c r="M285" s="2"/>
       <c r="N285" t="s" s="2">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="O285" t="s" s="2">
         <v>43</v>
@@ -34979,7 +34967,7 @@
         <v>43</v>
       </c>
       <c r="AE285" t="s" s="2">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="AF285" t="s" s="2">
         <v>41</v>
@@ -35008,7 +34996,7 @@
     </row>
     <row r="286" hidden="true">
       <c r="A286" t="s" s="2">
-        <v>807</v>
+        <v>803</v>
       </c>
       <c r="B286" s="2"/>
       <c r="C286" t="s" s="2">
@@ -35117,7 +35105,7 @@
     </row>
     <row r="287" hidden="true">
       <c r="A287" t="s" s="2">
-        <v>808</v>
+        <v>804</v>
       </c>
       <c r="B287" s="2"/>
       <c r="C287" t="s" s="2">
@@ -35228,7 +35216,7 @@
     </row>
     <row r="288" hidden="true">
       <c r="A288" t="s" s="2">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c r="B288" s="2"/>
       <c r="C288" t="s" s="2">
@@ -35341,7 +35329,7 @@
     </row>
     <row r="289" hidden="true">
       <c r="A289" t="s" s="2">
-        <v>810</v>
+        <v>806</v>
       </c>
       <c r="B289" s="2"/>
       <c r="C289" t="s" s="2">
@@ -35367,16 +35355,16 @@
         <v>123</v>
       </c>
       <c r="K289" t="s" s="2">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="L289" t="s" s="2">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="M289" t="s" s="2">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="N289" t="s" s="2">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="O289" t="s" s="2">
         <v>43</v>
@@ -35405,7 +35393,7 @@
       </c>
       <c r="X289" s="2"/>
       <c r="Y289" t="s" s="2">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="Z289" t="s" s="2">
         <v>43</v>
@@ -35423,7 +35411,7 @@
         <v>43</v>
       </c>
       <c r="AE289" t="s" s="2">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="AF289" t="s" s="2">
         <v>50</v>
@@ -35452,7 +35440,7 @@
     </row>
     <row r="290" hidden="true">
       <c r="A290" t="s" s="2">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="B290" s="2"/>
       <c r="C290" t="s" s="2">
@@ -35478,16 +35466,16 @@
         <v>123</v>
       </c>
       <c r="K290" t="s" s="2">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="L290" t="s" s="2">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="M290" t="s" s="2">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="N290" t="s" s="2">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="O290" t="s" s="2">
         <v>43</v>
@@ -35515,10 +35503,10 @@
         <v>139</v>
       </c>
       <c r="X290" t="s" s="2">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="Y290" t="s" s="2">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="Z290" t="s" s="2">
         <v>43</v>
@@ -35536,7 +35524,7 @@
         <v>43</v>
       </c>
       <c r="AE290" t="s" s="2">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="AF290" t="s" s="2">
         <v>41</v>
@@ -35565,7 +35553,7 @@
     </row>
     <row r="291" hidden="true">
       <c r="A291" t="s" s="2">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="B291" s="2"/>
       <c r="C291" t="s" s="2">
@@ -35588,19 +35576,19 @@
         <v>43</v>
       </c>
       <c r="J291" t="s" s="2">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="K291" t="s" s="2">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="L291" t="s" s="2">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="M291" t="s" s="2">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="N291" t="s" s="2">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="O291" t="s" s="2">
         <v>43</v>
@@ -35649,7 +35637,7 @@
         <v>43</v>
       </c>
       <c r="AE291" t="s" s="2">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="AF291" t="s" s="2">
         <v>41</v>
@@ -35678,7 +35666,7 @@
     </row>
     <row r="292" hidden="true">
       <c r="A292" t="s" s="2">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="B292" s="2"/>
       <c r="C292" t="s" s="2">
@@ -35701,19 +35689,19 @@
         <v>43</v>
       </c>
       <c r="J292" t="s" s="2">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="K292" t="s" s="2">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="L292" t="s" s="2">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="M292" t="s" s="2">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="N292" t="s" s="2">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="O292" t="s" s="2">
         <v>43</v>
@@ -35762,7 +35750,7 @@
         <v>43</v>
       </c>
       <c r="AE292" t="s" s="2">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="AF292" t="s" s="2">
         <v>41</v>
@@ -35791,7 +35779,7 @@
     </row>
     <row r="293" hidden="true">
       <c r="A293" t="s" s="2">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c r="B293" s="2"/>
       <c r="C293" t="s" s="2">
@@ -35817,16 +35805,16 @@
         <v>210</v>
       </c>
       <c r="K293" t="s" s="2">
-        <v>816</v>
+        <v>812</v>
       </c>
       <c r="L293" t="s" s="2">
-        <v>817</v>
+        <v>813</v>
       </c>
       <c r="M293" t="s" s="2">
-        <v>818</v>
+        <v>814</v>
       </c>
       <c r="N293" t="s" s="2">
-        <v>819</v>
+        <v>815</v>
       </c>
       <c r="O293" t="s" s="2">
         <v>43</v>
@@ -35875,7 +35863,7 @@
         <v>43</v>
       </c>
       <c r="AE293" t="s" s="2">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c r="AF293" t="s" s="2">
         <v>41</v>
@@ -35904,7 +35892,7 @@
     </row>
     <row r="294" hidden="true">
       <c r="A294" t="s" s="2">
-        <v>820</v>
+        <v>816</v>
       </c>
       <c r="B294" s="2"/>
       <c r="C294" t="s" s="2">
@@ -36013,7 +36001,7 @@
     </row>
     <row r="295" hidden="true">
       <c r="A295" t="s" s="2">
-        <v>821</v>
+        <v>817</v>
       </c>
       <c r="B295" s="2"/>
       <c r="C295" t="s" s="2">
@@ -36124,7 +36112,7 @@
     </row>
     <row r="296" hidden="true">
       <c r="A296" t="s" s="2">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="B296" s="2"/>
       <c r="C296" t="s" s="2">
@@ -36237,7 +36225,7 @@
     </row>
     <row r="297" hidden="true">
       <c r="A297" t="s" s="2">
-        <v>823</v>
+        <v>819</v>
       </c>
       <c r="B297" s="2"/>
       <c r="C297" t="s" s="2">
@@ -36263,16 +36251,16 @@
         <v>123</v>
       </c>
       <c r="K297" t="s" s="2">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="L297" t="s" s="2">
-        <v>824</v>
+        <v>820</v>
       </c>
       <c r="M297" t="s" s="2">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="N297" t="s" s="2">
-        <v>825</v>
+        <v>821</v>
       </c>
       <c r="O297" t="s" s="2">
         <v>43</v>
@@ -36301,7 +36289,7 @@
       </c>
       <c r="X297" s="2"/>
       <c r="Y297" t="s" s="2">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="Z297" t="s" s="2">
         <v>43</v>
@@ -36319,7 +36307,7 @@
         <v>43</v>
       </c>
       <c r="AE297" t="s" s="2">
-        <v>823</v>
+        <v>819</v>
       </c>
       <c r="AF297" t="s" s="2">
         <v>50</v>
@@ -36348,7 +36336,7 @@
     </row>
     <row r="298" hidden="true">
       <c r="A298" t="s" s="2">
-        <v>826</v>
+        <v>822</v>
       </c>
       <c r="B298" s="2"/>
       <c r="C298" t="s" s="2">
@@ -36371,17 +36359,17 @@
         <v>51</v>
       </c>
       <c r="J298" t="s" s="2">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="K298" t="s" s="2">
-        <v>827</v>
+        <v>823</v>
       </c>
       <c r="L298" t="s" s="2">
-        <v>828</v>
+        <v>824</v>
       </c>
       <c r="M298" s="2"/>
       <c r="N298" t="s" s="2">
-        <v>829</v>
+        <v>825</v>
       </c>
       <c r="O298" t="s" s="2">
         <v>43</v>
@@ -36430,7 +36418,7 @@
         <v>43</v>
       </c>
       <c r="AE298" t="s" s="2">
-        <v>826</v>
+        <v>822</v>
       </c>
       <c r="AF298" t="s" s="2">
         <v>50</v>
@@ -36459,7 +36447,7 @@
     </row>
     <row r="299" hidden="true">
       <c r="A299" t="s" s="2">
-        <v>830</v>
+        <v>826</v>
       </c>
       <c r="B299" s="2"/>
       <c r="C299" t="s" s="2">
@@ -36485,14 +36473,14 @@
         <v>210</v>
       </c>
       <c r="K299" t="s" s="2">
-        <v>831</v>
+        <v>827</v>
       </c>
       <c r="L299" t="s" s="2">
-        <v>832</v>
+        <v>828</v>
       </c>
       <c r="M299" s="2"/>
       <c r="N299" t="s" s="2">
-        <v>833</v>
+        <v>829</v>
       </c>
       <c r="O299" t="s" s="2">
         <v>43</v>
@@ -36541,7 +36529,7 @@
         <v>43</v>
       </c>
       <c r="AE299" t="s" s="2">
-        <v>830</v>
+        <v>826</v>
       </c>
       <c r="AF299" t="s" s="2">
         <v>41</v>
@@ -36570,7 +36558,7 @@
     </row>
     <row r="300" hidden="true">
       <c r="A300" t="s" s="2">
-        <v>834</v>
+        <v>830</v>
       </c>
       <c r="B300" s="2"/>
       <c r="C300" t="s" s="2">
@@ -36679,7 +36667,7 @@
     </row>
     <row r="301" hidden="true">
       <c r="A301" t="s" s="2">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="B301" s="2"/>
       <c r="C301" t="s" s="2">
@@ -36790,7 +36778,7 @@
     </row>
     <row r="302" hidden="true">
       <c r="A302" t="s" s="2">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="B302" s="2"/>
       <c r="C302" t="s" s="2">
@@ -36903,7 +36891,7 @@
     </row>
     <row r="303" hidden="true">
       <c r="A303" t="s" s="2">
-        <v>837</v>
+        <v>833</v>
       </c>
       <c r="B303" s="2"/>
       <c r="C303" t="s" s="2">
@@ -36929,14 +36917,14 @@
         <v>123</v>
       </c>
       <c r="K303" t="s" s="2">
-        <v>838</v>
+        <v>834</v>
       </c>
       <c r="L303" t="s" s="2">
-        <v>839</v>
+        <v>835</v>
       </c>
       <c r="M303" s="2"/>
       <c r="N303" t="s" s="2">
-        <v>840</v>
+        <v>836</v>
       </c>
       <c r="O303" t="s" s="2">
         <v>43</v>
@@ -36964,10 +36952,10 @@
         <v>139</v>
       </c>
       <c r="X303" t="s" s="2">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="Y303" t="s" s="2">
-        <v>842</v>
+        <v>838</v>
       </c>
       <c r="Z303" t="s" s="2">
         <v>43</v>
@@ -36985,7 +36973,7 @@
         <v>43</v>
       </c>
       <c r="AE303" t="s" s="2">
-        <v>837</v>
+        <v>833</v>
       </c>
       <c r="AF303" t="s" s="2">
         <v>41</v>
@@ -37014,7 +37002,7 @@
     </row>
     <row r="304" hidden="true">
       <c r="A304" t="s" s="2">
-        <v>843</v>
+        <v>839</v>
       </c>
       <c r="B304" s="2"/>
       <c r="C304" t="s" s="2">
@@ -37037,19 +37025,19 @@
         <v>43</v>
       </c>
       <c r="J304" t="s" s="2">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="K304" t="s" s="2">
-        <v>844</v>
+        <v>840</v>
       </c>
       <c r="L304" t="s" s="2">
-        <v>845</v>
+        <v>841</v>
       </c>
       <c r="M304" t="s" s="2">
-        <v>846</v>
+        <v>842</v>
       </c>
       <c r="N304" t="s" s="2">
-        <v>847</v>
+        <v>843</v>
       </c>
       <c r="O304" t="s" s="2">
         <v>43</v>
@@ -37098,7 +37086,7 @@
         <v>43</v>
       </c>
       <c r="AE304" t="s" s="2">
-        <v>843</v>
+        <v>839</v>
       </c>
       <c r="AF304" t="s" s="2">
         <v>41</v>
@@ -37127,7 +37115,7 @@
     </row>
     <row r="305" hidden="true">
       <c r="A305" t="s" s="2">
-        <v>848</v>
+        <v>844</v>
       </c>
       <c r="B305" s="2"/>
       <c r="C305" t="s" s="2">
@@ -37153,14 +37141,14 @@
         <v>123</v>
       </c>
       <c r="K305" t="s" s="2">
-        <v>849</v>
+        <v>845</v>
       </c>
       <c r="L305" t="s" s="2">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="M305" s="2"/>
       <c r="N305" t="s" s="2">
-        <v>851</v>
+        <v>847</v>
       </c>
       <c r="O305" t="s" s="2">
         <v>43</v>
@@ -37189,7 +37177,7 @@
       </c>
       <c r="X305" s="2"/>
       <c r="Y305" t="s" s="2">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="Z305" t="s" s="2">
         <v>43</v>
@@ -37207,7 +37195,7 @@
         <v>43</v>
       </c>
       <c r="AE305" t="s" s="2">
-        <v>848</v>
+        <v>844</v>
       </c>
       <c r="AF305" t="s" s="2">
         <v>41</v>
@@ -37236,7 +37224,7 @@
     </row>
     <row r="306" hidden="true">
       <c r="A306" t="s" s="2">
-        <v>852</v>
+        <v>848</v>
       </c>
       <c r="B306" s="2"/>
       <c r="C306" t="s" s="2">
@@ -37259,17 +37247,17 @@
         <v>43</v>
       </c>
       <c r="J306" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="K306" t="s" s="2">
-        <v>853</v>
+        <v>849</v>
       </c>
       <c r="L306" t="s" s="2">
-        <v>854</v>
+        <v>850</v>
       </c>
       <c r="M306" s="2"/>
       <c r="N306" t="s" s="2">
-        <v>855</v>
+        <v>851</v>
       </c>
       <c r="O306" t="s" s="2">
         <v>43</v>
@@ -37318,7 +37306,7 @@
         <v>43</v>
       </c>
       <c r="AE306" t="s" s="2">
-        <v>852</v>
+        <v>848</v>
       </c>
       <c r="AF306" t="s" s="2">
         <v>41</v>
@@ -37347,7 +37335,7 @@
     </row>
     <row r="307" hidden="true">
       <c r="A307" t="s" s="2">
-        <v>856</v>
+        <v>852</v>
       </c>
       <c r="B307" s="2"/>
       <c r="C307" t="s" s="2">
@@ -37370,17 +37358,17 @@
         <v>43</v>
       </c>
       <c r="J307" t="s" s="2">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="K307" t="s" s="2">
-        <v>857</v>
+        <v>853</v>
       </c>
       <c r="L307" t="s" s="2">
-        <v>858</v>
+        <v>854</v>
       </c>
       <c r="M307" s="2"/>
       <c r="N307" t="s" s="2">
-        <v>859</v>
+        <v>855</v>
       </c>
       <c r="O307" t="s" s="2">
         <v>43</v>
@@ -37429,7 +37417,7 @@
         <v>43</v>
       </c>
       <c r="AE307" t="s" s="2">
-        <v>856</v>
+        <v>852</v>
       </c>
       <c r="AF307" t="s" s="2">
         <v>41</v>
@@ -37458,7 +37446,7 @@
     </row>
     <row r="308" hidden="true">
       <c r="A308" t="s" s="2">
-        <v>860</v>
+        <v>856</v>
       </c>
       <c r="B308" s="2"/>
       <c r="C308" t="s" s="2">
@@ -37484,16 +37472,16 @@
         <v>106</v>
       </c>
       <c r="K308" t="s" s="2">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="L308" t="s" s="2">
-        <v>862</v>
+        <v>858</v>
       </c>
       <c r="M308" t="s" s="2">
-        <v>863</v>
+        <v>859</v>
       </c>
       <c r="N308" t="s" s="2">
-        <v>864</v>
+        <v>860</v>
       </c>
       <c r="O308" t="s" s="2">
         <v>43</v>
@@ -37542,7 +37530,7 @@
         <v>43</v>
       </c>
       <c r="AE308" t="s" s="2">
-        <v>860</v>
+        <v>856</v>
       </c>
       <c r="AF308" t="s" s="2">
         <v>41</v>
@@ -37571,7 +37559,7 @@
     </row>
     <row r="309" hidden="true">
       <c r="A309" t="s" s="2">
-        <v>865</v>
+        <v>861</v>
       </c>
       <c r="B309" s="2"/>
       <c r="C309" t="s" s="2">
@@ -37597,16 +37585,16 @@
         <v>123</v>
       </c>
       <c r="K309" t="s" s="2">
-        <v>866</v>
+        <v>862</v>
       </c>
       <c r="L309" t="s" s="2">
-        <v>867</v>
+        <v>863</v>
       </c>
       <c r="M309" t="s" s="2">
-        <v>868</v>
+        <v>864</v>
       </c>
       <c r="N309" t="s" s="2">
-        <v>869</v>
+        <v>865</v>
       </c>
       <c r="O309" t="s" s="2">
         <v>43</v>
@@ -37634,10 +37622,10 @@
         <v>139</v>
       </c>
       <c r="X309" t="s" s="2">
-        <v>870</v>
+        <v>866</v>
       </c>
       <c r="Y309" t="s" s="2">
-        <v>871</v>
+        <v>867</v>
       </c>
       <c r="Z309" t="s" s="2">
         <v>43</v>
@@ -37655,7 +37643,7 @@
         <v>43</v>
       </c>
       <c r="AE309" t="s" s="2">
-        <v>865</v>
+        <v>861</v>
       </c>
       <c r="AF309" t="s" s="2">
         <v>41</v>
@@ -37684,7 +37672,7 @@
     </row>
     <row r="310" hidden="true">
       <c r="A310" t="s" s="2">
-        <v>872</v>
+        <v>868</v>
       </c>
       <c r="B310" s="2"/>
       <c r="C310" t="s" s="2">
@@ -37707,19 +37695,19 @@
         <v>43</v>
       </c>
       <c r="J310" t="s" s="2">
+        <v>869</v>
+      </c>
+      <c r="K310" t="s" s="2">
+        <v>870</v>
+      </c>
+      <c r="L310" t="s" s="2">
+        <v>871</v>
+      </c>
+      <c r="M310" t="s" s="2">
+        <v>872</v>
+      </c>
+      <c r="N310" t="s" s="2">
         <v>873</v>
-      </c>
-      <c r="K310" t="s" s="2">
-        <v>874</v>
-      </c>
-      <c r="L310" t="s" s="2">
-        <v>875</v>
-      </c>
-      <c r="M310" t="s" s="2">
-        <v>876</v>
-      </c>
-      <c r="N310" t="s" s="2">
-        <v>877</v>
       </c>
       <c r="O310" t="s" s="2">
         <v>43</v>
@@ -37768,7 +37756,7 @@
         <v>43</v>
       </c>
       <c r="AE310" t="s" s="2">
-        <v>872</v>
+        <v>868</v>
       </c>
       <c r="AF310" t="s" s="2">
         <v>41</v>
@@ -37797,7 +37785,7 @@
     </row>
     <row r="311" hidden="true">
       <c r="A311" t="s" s="2">
-        <v>878</v>
+        <v>874</v>
       </c>
       <c r="B311" s="2"/>
       <c r="C311" t="s" s="2">
@@ -37823,14 +37811,14 @@
         <v>210</v>
       </c>
       <c r="K311" t="s" s="2">
-        <v>879</v>
+        <v>875</v>
       </c>
       <c r="L311" t="s" s="2">
-        <v>880</v>
+        <v>876</v>
       </c>
       <c r="M311" s="2"/>
       <c r="N311" t="s" s="2">
-        <v>881</v>
+        <v>877</v>
       </c>
       <c r="O311" t="s" s="2">
         <v>43</v>
@@ -37879,7 +37867,7 @@
         <v>43</v>
       </c>
       <c r="AE311" t="s" s="2">
-        <v>878</v>
+        <v>874</v>
       </c>
       <c r="AF311" t="s" s="2">
         <v>41</v>
@@ -37908,7 +37896,7 @@
     </row>
     <row r="312" hidden="true">
       <c r="A312" t="s" s="2">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="B312" s="2"/>
       <c r="C312" t="s" s="2">
@@ -38017,7 +38005,7 @@
     </row>
     <row r="313" hidden="true">
       <c r="A313" t="s" s="2">
-        <v>883</v>
+        <v>879</v>
       </c>
       <c r="B313" s="2"/>
       <c r="C313" t="s" s="2">
@@ -38128,7 +38116,7 @@
     </row>
     <row r="314" hidden="true">
       <c r="A314" t="s" s="2">
-        <v>884</v>
+        <v>880</v>
       </c>
       <c r="B314" s="2"/>
       <c r="C314" t="s" s="2">
@@ -38241,7 +38229,7 @@
     </row>
     <row r="315" hidden="true">
       <c r="A315" t="s" s="2">
-        <v>885</v>
+        <v>881</v>
       </c>
       <c r="B315" s="2"/>
       <c r="C315" t="s" s="2">
@@ -38267,14 +38255,14 @@
         <v>327</v>
       </c>
       <c r="K315" t="s" s="2">
-        <v>886</v>
+        <v>882</v>
       </c>
       <c r="L315" t="s" s="2">
-        <v>887</v>
+        <v>883</v>
       </c>
       <c r="M315" s="2"/>
       <c r="N315" t="s" s="2">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="O315" t="s" s="2">
         <v>43</v>
@@ -38323,7 +38311,7 @@
         <v>43</v>
       </c>
       <c r="AE315" t="s" s="2">
-        <v>885</v>
+        <v>881</v>
       </c>
       <c r="AF315" t="s" s="2">
         <v>41</v>
@@ -38352,7 +38340,7 @@
     </row>
     <row r="316" hidden="true">
       <c r="A316" t="s" s="2">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="B316" s="2"/>
       <c r="C316" t="s" s="2">
@@ -38378,14 +38366,14 @@
         <v>69</v>
       </c>
       <c r="K316" t="s" s="2">
-        <v>890</v>
+        <v>886</v>
       </c>
       <c r="L316" t="s" s="2">
-        <v>891</v>
+        <v>887</v>
       </c>
       <c r="M316" s="2"/>
       <c r="N316" t="s" s="2">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="O316" t="s" s="2">
         <v>43</v>
@@ -38413,10 +38401,10 @@
         <v>117</v>
       </c>
       <c r="X316" t="s" s="2">
-        <v>893</v>
+        <v>889</v>
       </c>
       <c r="Y316" t="s" s="2">
-        <v>894</v>
+        <v>890</v>
       </c>
       <c r="Z316" t="s" s="2">
         <v>43</v>
@@ -38434,7 +38422,7 @@
         <v>43</v>
       </c>
       <c r="AE316" t="s" s="2">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="AF316" t="s" s="2">
         <v>41</v>
@@ -38463,7 +38451,7 @@
     </row>
     <row r="317" hidden="true">
       <c r="A317" t="s" s="2">
-        <v>895</v>
+        <v>891</v>
       </c>
       <c r="B317" s="2"/>
       <c r="C317" t="s" s="2">
@@ -38489,14 +38477,14 @@
         <v>217</v>
       </c>
       <c r="K317" t="s" s="2">
-        <v>896</v>
+        <v>892</v>
       </c>
       <c r="L317" t="s" s="2">
-        <v>897</v>
+        <v>893</v>
       </c>
       <c r="M317" s="2"/>
       <c r="N317" t="s" s="2">
-        <v>898</v>
+        <v>894</v>
       </c>
       <c r="O317" t="s" s="2">
         <v>43</v>
@@ -38545,7 +38533,7 @@
         <v>43</v>
       </c>
       <c r="AE317" t="s" s="2">
-        <v>895</v>
+        <v>891</v>
       </c>
       <c r="AF317" t="s" s="2">
         <v>41</v>
@@ -38574,7 +38562,7 @@
     </row>
     <row r="318" hidden="true">
       <c r="A318" t="s" s="2">
-        <v>899</v>
+        <v>895</v>
       </c>
       <c r="B318" s="2"/>
       <c r="C318" t="s" s="2">
@@ -38600,16 +38588,16 @@
         <v>123</v>
       </c>
       <c r="K318" t="s" s="2">
-        <v>900</v>
+        <v>896</v>
       </c>
       <c r="L318" t="s" s="2">
-        <v>901</v>
+        <v>897</v>
       </c>
       <c r="M318" t="s" s="2">
-        <v>902</v>
+        <v>898</v>
       </c>
       <c r="N318" t="s" s="2">
-        <v>903</v>
+        <v>899</v>
       </c>
       <c r="O318" t="s" s="2">
         <v>43</v>
@@ -38658,7 +38646,7 @@
         <v>43</v>
       </c>
       <c r="AE318" t="s" s="2">
-        <v>899</v>
+        <v>895</v>
       </c>
       <c r="AF318" t="s" s="2">
         <v>41</v>
@@ -38687,7 +38675,7 @@
     </row>
     <row r="319" hidden="true">
       <c r="A319" t="s" s="2">
-        <v>904</v>
+        <v>900</v>
       </c>
       <c r="B319" s="2"/>
       <c r="C319" t="s" s="2">
@@ -38713,16 +38701,16 @@
         <v>157</v>
       </c>
       <c r="K319" t="s" s="2">
-        <v>905</v>
+        <v>901</v>
       </c>
       <c r="L319" t="s" s="2">
-        <v>906</v>
+        <v>902</v>
       </c>
       <c r="M319" t="s" s="2">
-        <v>907</v>
+        <v>903</v>
       </c>
       <c r="N319" t="s" s="2">
-        <v>908</v>
+        <v>904</v>
       </c>
       <c r="O319" t="s" s="2">
         <v>43</v>
@@ -38771,7 +38759,7 @@
         <v>43</v>
       </c>
       <c r="AE319" t="s" s="2">
-        <v>904</v>
+        <v>900</v>
       </c>
       <c r="AF319" t="s" s="2">
         <v>41</v>
@@ -38800,7 +38788,7 @@
     </row>
     <row r="320" hidden="true">
       <c r="A320" t="s" s="2">
-        <v>909</v>
+        <v>905</v>
       </c>
       <c r="B320" s="2"/>
       <c r="C320" t="s" s="2">
@@ -38826,10 +38814,10 @@
         <v>210</v>
       </c>
       <c r="K320" t="s" s="2">
-        <v>910</v>
+        <v>906</v>
       </c>
       <c r="L320" t="s" s="2">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="M320" s="2"/>
       <c r="N320" s="2"/>
@@ -38880,7 +38868,7 @@
         <v>43</v>
       </c>
       <c r="AE320" t="s" s="2">
-        <v>909</v>
+        <v>905</v>
       </c>
       <c r="AF320" t="s" s="2">
         <v>41</v>
@@ -38909,7 +38897,7 @@
     </row>
     <row r="321" hidden="true">
       <c r="A321" t="s" s="2">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="B321" s="2"/>
       <c r="C321" t="s" s="2">
@@ -39018,7 +39006,7 @@
     </row>
     <row r="322" hidden="true">
       <c r="A322" t="s" s="2">
-        <v>913</v>
+        <v>909</v>
       </c>
       <c r="B322" s="2"/>
       <c r="C322" t="s" s="2">
@@ -39129,7 +39117,7 @@
     </row>
     <row r="323" hidden="true">
       <c r="A323" t="s" s="2">
-        <v>914</v>
+        <v>910</v>
       </c>
       <c r="B323" s="2"/>
       <c r="C323" t="s" s="2">
@@ -39242,7 +39230,7 @@
     </row>
     <row r="324" hidden="true">
       <c r="A324" t="s" s="2">
-        <v>915</v>
+        <v>911</v>
       </c>
       <c r="B324" s="2"/>
       <c r="C324" t="s" s="2">
@@ -39268,16 +39256,16 @@
         <v>123</v>
       </c>
       <c r="K324" t="s" s="2">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="L324" t="s" s="2">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="M324" t="s" s="2">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="N324" t="s" s="2">
-        <v>916</v>
+        <v>912</v>
       </c>
       <c r="O324" t="s" s="2">
         <v>43</v>
@@ -39305,10 +39293,10 @@
         <v>139</v>
       </c>
       <c r="X324" t="s" s="2">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="Y324" t="s" s="2">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="Z324" t="s" s="2">
         <v>43</v>
@@ -39326,7 +39314,7 @@
         <v>43</v>
       </c>
       <c r="AE324" t="s" s="2">
-        <v>915</v>
+        <v>911</v>
       </c>
       <c r="AF324" t="s" s="2">
         <v>50</v>
@@ -39355,7 +39343,7 @@
     </row>
     <row r="325" hidden="true">
       <c r="A325" t="s" s="2">
-        <v>917</v>
+        <v>913</v>
       </c>
       <c r="B325" s="2"/>
       <c r="C325" t="s" s="2">
@@ -39381,14 +39369,14 @@
         <v>338</v>
       </c>
       <c r="K325" t="s" s="2">
-        <v>918</v>
+        <v>914</v>
       </c>
       <c r="L325" t="s" s="2">
-        <v>919</v>
+        <v>915</v>
       </c>
       <c r="M325" s="2"/>
       <c r="N325" t="s" s="2">
-        <v>920</v>
+        <v>916</v>
       </c>
       <c r="O325" t="s" s="2">
         <v>43</v>
@@ -39437,7 +39425,7 @@
         <v>43</v>
       </c>
       <c r="AE325" t="s" s="2">
-        <v>917</v>
+        <v>913</v>
       </c>
       <c r="AF325" t="s" s="2">
         <v>41</v>
@@ -39466,7 +39454,7 @@
     </row>
     <row r="326" hidden="true">
       <c r="A326" t="s" s="2">
-        <v>921</v>
+        <v>917</v>
       </c>
       <c r="B326" s="2"/>
       <c r="C326" t="s" s="2">
@@ -39492,16 +39480,16 @@
         <v>217</v>
       </c>
       <c r="K326" t="s" s="2">
-        <v>922</v>
+        <v>918</v>
       </c>
       <c r="L326" t="s" s="2">
-        <v>923</v>
+        <v>919</v>
       </c>
       <c r="M326" t="s" s="2">
-        <v>924</v>
+        <v>920</v>
       </c>
       <c r="N326" t="s" s="2">
-        <v>925</v>
+        <v>921</v>
       </c>
       <c r="O326" t="s" s="2">
         <v>43</v>
@@ -39550,7 +39538,7 @@
         <v>43</v>
       </c>
       <c r="AE326" t="s" s="2">
-        <v>921</v>
+        <v>917</v>
       </c>
       <c r="AF326" t="s" s="2">
         <v>41</v>
@@ -39579,7 +39567,7 @@
     </row>
     <row r="327" hidden="true">
       <c r="A327" t="s" s="2">
-        <v>926</v>
+        <v>922</v>
       </c>
       <c r="B327" s="2"/>
       <c r="C327" t="s" s="2">
@@ -39605,16 +39593,16 @@
         <v>217</v>
       </c>
       <c r="K327" t="s" s="2">
-        <v>927</v>
+        <v>923</v>
       </c>
       <c r="L327" t="s" s="2">
-        <v>928</v>
+        <v>924</v>
       </c>
       <c r="M327" t="s" s="2">
-        <v>929</v>
+        <v>925</v>
       </c>
       <c r="N327" t="s" s="2">
-        <v>930</v>
+        <v>926</v>
       </c>
       <c r="O327" t="s" s="2">
         <v>43</v>
@@ -39663,7 +39651,7 @@
         <v>43</v>
       </c>
       <c r="AE327" t="s" s="2">
-        <v>926</v>
+        <v>922</v>
       </c>
       <c r="AF327" t="s" s="2">
         <v>41</v>
@@ -39692,7 +39680,7 @@
     </row>
     <row r="328" hidden="true">
       <c r="A328" t="s" s="2">
-        <v>931</v>
+        <v>927</v>
       </c>
       <c r="B328" s="2"/>
       <c r="C328" t="s" s="2">
@@ -39718,14 +39706,14 @@
         <v>123</v>
       </c>
       <c r="K328" t="s" s="2">
-        <v>932</v>
+        <v>928</v>
       </c>
       <c r="L328" t="s" s="2">
-        <v>933</v>
+        <v>929</v>
       </c>
       <c r="M328" s="2"/>
       <c r="N328" t="s" s="2">
-        <v>934</v>
+        <v>930</v>
       </c>
       <c r="O328" t="s" s="2">
         <v>43</v>
@@ -39753,10 +39741,10 @@
         <v>139</v>
       </c>
       <c r="X328" t="s" s="2">
-        <v>935</v>
+        <v>931</v>
       </c>
       <c r="Y328" t="s" s="2">
-        <v>936</v>
+        <v>932</v>
       </c>
       <c r="Z328" t="s" s="2">
         <v>43</v>
@@ -39774,7 +39762,7 @@
         <v>43</v>
       </c>
       <c r="AE328" t="s" s="2">
-        <v>931</v>
+        <v>927</v>
       </c>
       <c r="AF328" t="s" s="2">
         <v>41</v>
@@ -39803,7 +39791,7 @@
     </row>
     <row r="329" hidden="true">
       <c r="A329" t="s" s="2">
-        <v>937</v>
+        <v>933</v>
       </c>
       <c r="B329" s="2"/>
       <c r="C329" t="s" s="2">
@@ -39829,14 +39817,14 @@
         <v>123</v>
       </c>
       <c r="K329" t="s" s="2">
-        <v>938</v>
+        <v>934</v>
       </c>
       <c r="L329" t="s" s="2">
-        <v>939</v>
+        <v>935</v>
       </c>
       <c r="M329" s="2"/>
       <c r="N329" t="s" s="2">
-        <v>940</v>
+        <v>936</v>
       </c>
       <c r="O329" t="s" s="2">
         <v>43</v>
@@ -39864,10 +39852,10 @@
         <v>139</v>
       </c>
       <c r="X329" t="s" s="2">
-        <v>941</v>
+        <v>937</v>
       </c>
       <c r="Y329" t="s" s="2">
-        <v>942</v>
+        <v>938</v>
       </c>
       <c r="Z329" t="s" s="2">
         <v>43</v>
@@ -39885,7 +39873,7 @@
         <v>43</v>
       </c>
       <c r="AE329" t="s" s="2">
-        <v>937</v>
+        <v>933</v>
       </c>
       <c r="AF329" t="s" s="2">
         <v>41</v>
@@ -39914,7 +39902,7 @@
     </row>
     <row r="330" hidden="true">
       <c r="A330" t="s" s="2">
-        <v>943</v>
+        <v>939</v>
       </c>
       <c r="B330" s="2"/>
       <c r="C330" t="s" s="2">
@@ -39940,14 +39928,14 @@
         <v>123</v>
       </c>
       <c r="K330" t="s" s="2">
-        <v>944</v>
+        <v>940</v>
       </c>
       <c r="L330" t="s" s="2">
-        <v>945</v>
+        <v>941</v>
       </c>
       <c r="M330" s="2"/>
       <c r="N330" t="s" s="2">
-        <v>940</v>
+        <v>936</v>
       </c>
       <c r="O330" t="s" s="2">
         <v>43</v>
@@ -39975,10 +39963,10 @@
         <v>139</v>
       </c>
       <c r="X330" t="s" s="2">
-        <v>946</v>
+        <v>942</v>
       </c>
       <c r="Y330" t="s" s="2">
-        <v>947</v>
+        <v>943</v>
       </c>
       <c r="Z330" t="s" s="2">
         <v>43</v>
@@ -39996,7 +39984,7 @@
         <v>43</v>
       </c>
       <c r="AE330" t="s" s="2">
-        <v>943</v>
+        <v>939</v>
       </c>
       <c r="AF330" t="s" s="2">
         <v>41</v>
@@ -40025,7 +40013,7 @@
     </row>
     <row r="331" hidden="true">
       <c r="A331" t="s" s="2">
-        <v>948</v>
+        <v>944</v>
       </c>
       <c r="B331" s="2"/>
       <c r="C331" t="s" s="2">
@@ -40051,10 +40039,10 @@
         <v>210</v>
       </c>
       <c r="K331" t="s" s="2">
-        <v>949</v>
+        <v>945</v>
       </c>
       <c r="L331" t="s" s="2">
-        <v>950</v>
+        <v>946</v>
       </c>
       <c r="M331" s="2"/>
       <c r="N331" s="2"/>
@@ -40105,7 +40093,7 @@
         <v>43</v>
       </c>
       <c r="AE331" t="s" s="2">
-        <v>948</v>
+        <v>944</v>
       </c>
       <c r="AF331" t="s" s="2">
         <v>41</v>
@@ -40134,7 +40122,7 @@
     </row>
     <row r="332" hidden="true">
       <c r="A332" t="s" s="2">
-        <v>951</v>
+        <v>947</v>
       </c>
       <c r="B332" s="2"/>
       <c r="C332" t="s" s="2">
@@ -40243,7 +40231,7 @@
     </row>
     <row r="333" hidden="true">
       <c r="A333" t="s" s="2">
-        <v>952</v>
+        <v>948</v>
       </c>
       <c r="B333" s="2"/>
       <c r="C333" t="s" s="2">
@@ -40354,7 +40342,7 @@
     </row>
     <row r="334" hidden="true">
       <c r="A334" t="s" s="2">
-        <v>953</v>
+        <v>949</v>
       </c>
       <c r="B334" s="2"/>
       <c r="C334" t="s" s="2">
@@ -40467,7 +40455,7 @@
     </row>
     <row r="335" hidden="true">
       <c r="A335" t="s" s="2">
-        <v>954</v>
+        <v>950</v>
       </c>
       <c r="B335" s="2"/>
       <c r="C335" t="s" s="2">
@@ -40493,16 +40481,16 @@
         <v>123</v>
       </c>
       <c r="K335" t="s" s="2">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="L335" t="s" s="2">
-        <v>955</v>
+        <v>951</v>
       </c>
       <c r="M335" t="s" s="2">
-        <v>956</v>
+        <v>952</v>
       </c>
       <c r="N335" t="s" s="2">
-        <v>957</v>
+        <v>953</v>
       </c>
       <c r="O335" t="s" s="2">
         <v>43</v>
@@ -40530,10 +40518,10 @@
         <v>139</v>
       </c>
       <c r="X335" t="s" s="2">
-        <v>958</v>
+        <v>954</v>
       </c>
       <c r="Y335" t="s" s="2">
-        <v>959</v>
+        <v>955</v>
       </c>
       <c r="Z335" t="s" s="2">
         <v>43</v>
@@ -40551,7 +40539,7 @@
         <v>43</v>
       </c>
       <c r="AE335" t="s" s="2">
-        <v>954</v>
+        <v>950</v>
       </c>
       <c r="AF335" t="s" s="2">
         <v>50</v>
@@ -40580,7 +40568,7 @@
     </row>
     <row r="336" hidden="true">
       <c r="A336" t="s" s="2">
-        <v>960</v>
+        <v>956</v>
       </c>
       <c r="B336" s="2"/>
       <c r="C336" t="s" s="2">
@@ -40603,17 +40591,17 @@
         <v>43</v>
       </c>
       <c r="J336" t="s" s="2">
-        <v>961</v>
+        <v>957</v>
       </c>
       <c r="K336" t="s" s="2">
-        <v>962</v>
+        <v>958</v>
       </c>
       <c r="L336" t="s" s="2">
-        <v>963</v>
+        <v>959</v>
       </c>
       <c r="M336" s="2"/>
       <c r="N336" t="s" s="2">
-        <v>964</v>
+        <v>960</v>
       </c>
       <c r="O336" t="s" s="2">
         <v>43</v>
@@ -40662,7 +40650,7 @@
         <v>43</v>
       </c>
       <c r="AE336" t="s" s="2">
-        <v>960</v>
+        <v>956</v>
       </c>
       <c r="AF336" t="s" s="2">
         <v>41</v>
@@ -40691,7 +40679,7 @@
     </row>
     <row r="337" hidden="true">
       <c r="A337" t="s" s="2">
-        <v>965</v>
+        <v>961</v>
       </c>
       <c r="B337" s="2"/>
       <c r="C337" t="s" s="2">
@@ -40714,17 +40702,17 @@
         <v>43</v>
       </c>
       <c r="J337" t="s" s="2">
-        <v>966</v>
+        <v>962</v>
       </c>
       <c r="K337" t="s" s="2">
-        <v>967</v>
+        <v>963</v>
       </c>
       <c r="L337" t="s" s="2">
-        <v>968</v>
+        <v>964</v>
       </c>
       <c r="M337" s="2"/>
       <c r="N337" t="s" s="2">
-        <v>969</v>
+        <v>965</v>
       </c>
       <c r="O337" t="s" s="2">
         <v>43</v>
@@ -40773,7 +40761,7 @@
         <v>43</v>
       </c>
       <c r="AE337" t="s" s="2">
-        <v>965</v>
+        <v>961</v>
       </c>
       <c r="AF337" t="s" s="2">
         <v>41</v>

--- a/output/CARIN-BB-ExplanationOfBenefit-Professional-NonClinician.xlsx
+++ b/output/CARIN-BB-ExplanationOfBenefit-Professional-NonClinician.xlsx
@@ -4664,7 +4664,7 @@
         <v>41</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>43</v>
@@ -5225,7 +5225,7 @@
         <v>41</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>43</v>
@@ -5558,7 +5558,7 @@
         <v>41</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>43</v>
@@ -5671,7 +5671,7 @@
         <v>41</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>43</v>
@@ -5784,7 +5784,7 @@
         <v>41</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>43</v>
@@ -6678,7 +6678,7 @@
         <v>41</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>43</v>
@@ -6789,7 +6789,7 @@
         <v>41</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>43</v>
@@ -18177,7 +18177,7 @@
         <v>41</v>
       </c>
       <c r="F135" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G135" t="s" s="2">
         <v>43</v>
@@ -19854,7 +19854,7 @@
         <v>41</v>
       </c>
       <c r="F150" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G150" t="s" s="2">
         <v>43</v>
@@ -22076,7 +22076,7 @@
         <v>41</v>
       </c>
       <c r="F170" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G170" t="s" s="2">
         <v>43</v>
@@ -22631,7 +22631,7 @@
         <v>41</v>
       </c>
       <c r="F175" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G175" t="s" s="2">
         <v>43</v>
@@ -22857,7 +22857,7 @@
         <v>41</v>
       </c>
       <c r="F177" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G177" t="s" s="2">
         <v>43</v>
@@ -26098,7 +26098,7 @@
         <v>41</v>
       </c>
       <c r="F206" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G206" t="s" s="2">
         <v>43</v>
@@ -29888,7 +29888,7 @@
         <v>41</v>
       </c>
       <c r="F240" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G240" t="s" s="2">
         <v>43</v>
@@ -37577,7 +37577,7 @@
         <v>41</v>
       </c>
       <c r="F309" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G309" t="s" s="2">
         <v>43</v>
@@ -37690,7 +37690,7 @@
         <v>41</v>
       </c>
       <c r="F310" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G310" t="s" s="2">
         <v>43</v>
@@ -38693,7 +38693,7 @@
         <v>41</v>
       </c>
       <c r="F319" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G319" t="s" s="2">
         <v>43</v>
@@ -38806,7 +38806,7 @@
         <v>41</v>
       </c>
       <c r="F320" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G320" t="s" s="2">
         <v>43</v>

--- a/output/CARIN-BB-ExplanationOfBenefit-Professional-NonClinician.xlsx
+++ b/output/CARIN-BB-ExplanationOfBenefit-Professional-NonClinician.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11889" uniqueCount="970">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11884" uniqueCount="969">
   <si>
     <t>Path</t>
   </si>
@@ -1048,7 +1048,7 @@
     <t>ExplanationOfBenefit.careTeam.provider</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/carin/StructureDefinition/carin-bb-practitionerrole)
 </t>
   </si>
   <si>
@@ -1264,12 +1264,6 @@
 &lt;/valueCoding&gt;</t>
   </si>
   <si>
-    <t>The valuset used for additional information category codes.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/claim-informationcategory</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/us/carin/ValueSet/carin-bb-networkcontractingstatus</t>
   </si>
   <si>
@@ -2353,6 +2347,10 @@
   </si>
   <si>
     <t>ExplanationOfBenefit.addItem.provider</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization)
+</t>
   </si>
   <si>
     <t>Authorized providers</t>
@@ -4316,7 +4314,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="11" hidden="true">
+    <row r="11">
       <c r="A11" t="s" s="2">
         <v>107</v>
       </c>
@@ -4332,7 +4330,7 @@
         <v>42</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>43</v>
@@ -4986,7 +4984,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="17" hidden="true">
+    <row r="17">
       <c r="A17" t="s" s="2">
         <v>157</v>
       </c>
@@ -5002,7 +5000,7 @@
         <v>50</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>43</v>
@@ -5884,7 +5882,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="25" hidden="true">
+    <row r="25">
       <c r="A25" t="s" s="2">
         <v>210</v>
       </c>
@@ -5900,7 +5898,7 @@
         <v>42</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>43</v>
@@ -6889,7 +6887,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="34" hidden="true">
+    <row r="34">
       <c r="A34" t="s" s="2">
         <v>255</v>
       </c>
@@ -6905,7 +6903,7 @@
         <v>50</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>43</v>
@@ -7345,7 +7343,7 @@
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F38" t="s" s="2">
         <v>50</v>
@@ -7456,7 +7454,7 @@
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F39" t="s" s="2">
         <v>50</v>
@@ -8455,7 +8453,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="48" hidden="true">
+    <row r="48">
       <c r="A48" t="s" s="2">
         <v>318</v>
       </c>
@@ -8471,7 +8469,7 @@
         <v>42</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>43</v>
@@ -9121,7 +9119,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="54" hidden="true">
+    <row r="54">
       <c r="A54" t="s" s="2">
         <v>336</v>
       </c>
@@ -9137,7 +9135,7 @@
         <v>50</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>43</v>
@@ -9244,7 +9242,7 @@
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F55" t="s" s="2">
         <v>50</v>
@@ -9472,7 +9470,7 @@
         <v>42</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>43</v>
@@ -10122,7 +10120,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="63" hidden="true">
+    <row r="63">
       <c r="A63" t="s" s="2">
         <v>374</v>
       </c>
@@ -10138,7 +10136,7 @@
         <v>50</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>43</v>
@@ -10235,7 +10233,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="64" hidden="true">
+    <row r="64">
       <c r="A64" t="s" s="2">
         <v>380</v>
       </c>
@@ -10251,7 +10249,7 @@
         <v>50</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>43</v>
@@ -10344,7 +10342,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="65" hidden="true">
+    <row r="65">
       <c r="A65" t="s" s="2">
         <v>384</v>
       </c>
@@ -10360,7 +10358,7 @@
         <v>50</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>43</v>
@@ -10570,7 +10568,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="67" hidden="true">
+    <row r="67">
       <c r="A67" t="s" s="2">
         <v>354</v>
       </c>
@@ -10588,7 +10586,7 @@
         <v>50</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>43</v>
@@ -11191,13 +11189,11 @@
         <v>43</v>
       </c>
       <c r="W72" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="X72" t="s" s="2">
-        <v>400</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="X72" s="2"/>
       <c r="Y72" t="s" s="2">
-        <v>401</v>
+        <v>373</v>
       </c>
       <c r="Z72" t="s" s="2">
         <v>43</v>
@@ -11242,7 +11238,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="73" hidden="true">
+    <row r="73">
       <c r="A73" t="s" s="2">
         <v>374</v>
       </c>
@@ -11258,7 +11254,7 @@
         <v>50</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>43</v>
@@ -11308,7 +11304,7 @@
       </c>
       <c r="X73" s="2"/>
       <c r="Y73" t="s" s="2">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="Z73" t="s" s="2">
         <v>43</v>
@@ -11353,7 +11349,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="74" hidden="true">
+    <row r="74">
       <c r="A74" t="s" s="2">
         <v>380</v>
       </c>
@@ -11369,7 +11365,7 @@
         <v>50</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>43</v>
@@ -11462,7 +11458,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="75" hidden="true">
+    <row r="75">
       <c r="A75" t="s" s="2">
         <v>384</v>
       </c>
@@ -11478,7 +11474,7 @@
         <v>50</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>43</v>
@@ -11688,12 +11684,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="77" hidden="true">
+    <row r="77">
       <c r="A77" t="s" s="2">
         <v>354</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C77" t="s" s="2">
         <v>43</v>
@@ -11706,7 +11702,7 @@
         <v>50</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>43</v>
@@ -12291,7 +12287,7 @@
       </c>
       <c r="P82" s="2"/>
       <c r="Q82" t="s" s="2">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="R82" t="s" s="2">
         <v>43</v>
@@ -12309,13 +12305,11 @@
         <v>43</v>
       </c>
       <c r="W82" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="X82" t="s" s="2">
-        <v>400</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="X82" s="2"/>
       <c r="Y82" t="s" s="2">
-        <v>401</v>
+        <v>373</v>
       </c>
       <c r="Z82" t="s" s="2">
         <v>43</v>
@@ -12360,7 +12354,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="83" hidden="true">
+    <row r="83">
       <c r="A83" t="s" s="2">
         <v>374</v>
       </c>
@@ -12376,7 +12370,7 @@
         <v>50</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H83" t="s" s="2">
         <v>43</v>
@@ -12426,7 +12420,7 @@
       </c>
       <c r="X83" s="2"/>
       <c r="Y83" t="s" s="2">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="Z83" t="s" s="2">
         <v>43</v>
@@ -12471,7 +12465,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="84" hidden="true">
+    <row r="84">
       <c r="A84" t="s" s="2">
         <v>380</v>
       </c>
@@ -12487,7 +12481,7 @@
         <v>50</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H84" t="s" s="2">
         <v>43</v>
@@ -12580,7 +12574,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="85" hidden="true">
+    <row r="85">
       <c r="A85" t="s" s="2">
         <v>384</v>
       </c>
@@ -12596,7 +12590,7 @@
         <v>50</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>43</v>
@@ -12806,12 +12800,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="87" hidden="true">
+    <row r="87">
       <c r="A87" t="s" s="2">
         <v>354</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C87" t="s" s="2">
         <v>43</v>
@@ -12824,7 +12818,7 @@
         <v>50</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>43</v>
@@ -13409,7 +13403,7 @@
       </c>
       <c r="P92" s="2"/>
       <c r="Q92" t="s" s="2">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="R92" t="s" s="2">
         <v>43</v>
@@ -13427,13 +13421,11 @@
         <v>43</v>
       </c>
       <c r="W92" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="X92" t="s" s="2">
-        <v>400</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="X92" s="2"/>
       <c r="Y92" t="s" s="2">
-        <v>401</v>
+        <v>373</v>
       </c>
       <c r="Z92" t="s" s="2">
         <v>43</v>
@@ -13478,7 +13470,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="93" hidden="true">
+    <row r="93">
       <c r="A93" t="s" s="2">
         <v>374</v>
       </c>
@@ -13494,7 +13486,7 @@
         <v>50</v>
       </c>
       <c r="G93" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H93" t="s" s="2">
         <v>43</v>
@@ -13544,7 +13536,7 @@
       </c>
       <c r="X93" s="2"/>
       <c r="Y93" t="s" s="2">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="Z93" t="s" s="2">
         <v>43</v>
@@ -13589,7 +13581,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="94" hidden="true">
+    <row r="94">
       <c r="A94" t="s" s="2">
         <v>380</v>
       </c>
@@ -13605,7 +13597,7 @@
         <v>50</v>
       </c>
       <c r="G94" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H94" t="s" s="2">
         <v>43</v>
@@ -13698,7 +13690,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="95" hidden="true">
+    <row r="95">
       <c r="A95" t="s" s="2">
         <v>384</v>
       </c>
@@ -13714,7 +13706,7 @@
         <v>50</v>
       </c>
       <c r="G95" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H95" t="s" s="2">
         <v>43</v>
@@ -13924,12 +13916,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="97" hidden="true">
+    <row r="97">
       <c r="A97" t="s" s="2">
         <v>354</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C97" t="s" s="2">
         <v>43</v>
@@ -13942,7 +13934,7 @@
         <v>50</v>
       </c>
       <c r="G97" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H97" t="s" s="2">
         <v>43</v>
@@ -14527,7 +14519,7 @@
       </c>
       <c r="P102" s="2"/>
       <c r="Q102" t="s" s="2">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="R102" t="s" s="2">
         <v>43</v>
@@ -14545,13 +14537,11 @@
         <v>43</v>
       </c>
       <c r="W102" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="X102" t="s" s="2">
-        <v>400</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="X102" s="2"/>
       <c r="Y102" t="s" s="2">
-        <v>401</v>
+        <v>373</v>
       </c>
       <c r="Z102" t="s" s="2">
         <v>43</v>
@@ -14596,7 +14586,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="103" hidden="true">
+    <row r="103">
       <c r="A103" t="s" s="2">
         <v>374</v>
       </c>
@@ -14612,7 +14602,7 @@
         <v>50</v>
       </c>
       <c r="G103" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H103" t="s" s="2">
         <v>43</v>
@@ -14662,7 +14652,7 @@
       </c>
       <c r="X103" s="2"/>
       <c r="Y103" t="s" s="2">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="Z103" t="s" s="2">
         <v>43</v>
@@ -14707,7 +14697,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="104" hidden="true">
+    <row r="104">
       <c r="A104" t="s" s="2">
         <v>380</v>
       </c>
@@ -14723,7 +14713,7 @@
         <v>50</v>
       </c>
       <c r="G104" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H104" t="s" s="2">
         <v>43</v>
@@ -14816,7 +14806,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="105" hidden="true">
+    <row r="105">
       <c r="A105" t="s" s="2">
         <v>384</v>
       </c>
@@ -14832,7 +14822,7 @@
         <v>50</v>
       </c>
       <c r="G105" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H105" t="s" s="2">
         <v>43</v>
@@ -15042,12 +15032,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="107" hidden="true">
+    <row r="107">
       <c r="A107" t="s" s="2">
         <v>354</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C107" t="s" s="2">
         <v>43</v>
@@ -15060,7 +15050,7 @@
         <v>50</v>
       </c>
       <c r="G107" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H107" t="s" s="2">
         <v>43</v>
@@ -15645,7 +15635,7 @@
       </c>
       <c r="P112" s="2"/>
       <c r="Q112" t="s" s="2">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="R112" t="s" s="2">
         <v>43</v>
@@ -15663,13 +15653,11 @@
         <v>43</v>
       </c>
       <c r="W112" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="X112" t="s" s="2">
-        <v>400</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="X112" s="2"/>
       <c r="Y112" t="s" s="2">
-        <v>401</v>
+        <v>373</v>
       </c>
       <c r="Z112" t="s" s="2">
         <v>43</v>
@@ -15714,7 +15702,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="113" hidden="true">
+    <row r="113">
       <c r="A113" t="s" s="2">
         <v>374</v>
       </c>
@@ -15730,7 +15718,7 @@
         <v>50</v>
       </c>
       <c r="G113" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H113" t="s" s="2">
         <v>43</v>
@@ -15827,7 +15815,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="114" hidden="true">
+    <row r="114">
       <c r="A114" t="s" s="2">
         <v>380</v>
       </c>
@@ -15843,7 +15831,7 @@
         <v>50</v>
       </c>
       <c r="G114" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H114" t="s" s="2">
         <v>43</v>
@@ -15852,7 +15840,7 @@
         <v>43</v>
       </c>
       <c r="J114" t="s" s="2">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="K114" t="s" s="2">
         <v>382</v>
@@ -15936,7 +15924,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="115" hidden="true">
+    <row r="115">
       <c r="A115" t="s" s="2">
         <v>384</v>
       </c>
@@ -15952,7 +15940,7 @@
         <v>50</v>
       </c>
       <c r="G115" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H115" t="s" s="2">
         <v>43</v>
@@ -16162,9 +16150,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="117" hidden="true">
+    <row r="117">
       <c r="A117" t="s" s="2">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" t="s" s="2">
@@ -16178,7 +16166,7 @@
         <v>42</v>
       </c>
       <c r="G117" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H117" t="s" s="2">
         <v>43</v>
@@ -16190,14 +16178,14 @@
         <v>211</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="M117" s="2"/>
       <c r="N117" t="s" s="2">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="O117" t="s" s="2">
         <v>43</v>
@@ -16246,7 +16234,7 @@
         <v>43</v>
       </c>
       <c r="AE117" t="s" s="2">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="AF117" t="s" s="2">
         <v>41</v>
@@ -16275,7 +16263,7 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" t="s" s="2">
@@ -16384,7 +16372,7 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" t="s" s="2">
@@ -16495,7 +16483,7 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" t="s" s="2">
@@ -16608,7 +16596,7 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" t="s" s="2">
@@ -16634,16 +16622,16 @@
         <v>326</v>
       </c>
       <c r="K121" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="L121" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="M121" t="s" s="2">
         <v>420</v>
       </c>
-      <c r="L121" t="s" s="2">
+      <c r="N121" t="s" s="2">
         <v>421</v>
-      </c>
-      <c r="M121" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="N121" t="s" s="2">
-        <v>423</v>
       </c>
       <c r="O121" t="s" s="2">
         <v>43</v>
@@ -16692,7 +16680,7 @@
         <v>43</v>
       </c>
       <c r="AE121" t="s" s="2">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="AF121" t="s" s="2">
         <v>50</v>
@@ -16721,7 +16709,7 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" t="s" s="2">
@@ -16747,14 +16735,14 @@
         <v>125</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="M122" s="2"/>
       <c r="N122" t="s" s="2">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="O122" t="s" s="2">
         <v>43</v>
@@ -16782,10 +16770,10 @@
         <v>140</v>
       </c>
       <c r="X122" t="s" s="2">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="Y122" t="s" s="2">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="Z122" t="s" s="2">
         <v>43</v>
@@ -16803,7 +16791,7 @@
         <v>43</v>
       </c>
       <c r="AE122" t="s" s="2">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AF122" t="s" s="2">
         <v>50</v>
@@ -16832,7 +16820,7 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B123" s="2"/>
       <c r="C123" t="s" s="2">
@@ -16858,16 +16846,16 @@
         <v>125</v>
       </c>
       <c r="K123" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="L123" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="M123" t="s" s="2">
         <v>431</v>
       </c>
-      <c r="L123" t="s" s="2">
+      <c r="N123" t="s" s="2">
         <v>432</v>
-      </c>
-      <c r="M123" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="N123" t="s" s="2">
-        <v>434</v>
       </c>
       <c r="O123" t="s" s="2">
         <v>43</v>
@@ -16896,7 +16884,7 @@
       </c>
       <c r="X123" s="2"/>
       <c r="Y123" t="s" s="2">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="Z123" t="s" s="2">
         <v>43</v>
@@ -16914,7 +16902,7 @@
         <v>43</v>
       </c>
       <c r="AE123" t="s" s="2">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="AF123" t="s" s="2">
         <v>41</v>
@@ -16941,9 +16929,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="124" hidden="true">
+    <row r="124">
       <c r="A124" t="s" s="2">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B124" s="2"/>
       <c r="C124" t="s" s="2">
@@ -16957,7 +16945,7 @@
         <v>50</v>
       </c>
       <c r="G124" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H124" t="s" s="2">
         <v>43</v>
@@ -16969,14 +16957,14 @@
         <v>125</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="M124" s="2"/>
       <c r="N124" t="s" s="2">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="O124" t="s" s="2">
         <v>43</v>
@@ -17004,10 +16992,10 @@
         <v>140</v>
       </c>
       <c r="X124" t="s" s="2">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="Y124" t="s" s="2">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="Z124" t="s" s="2">
         <v>43</v>
@@ -17025,7 +17013,7 @@
         <v>43</v>
       </c>
       <c r="AE124" t="s" s="2">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="AF124" t="s" s="2">
         <v>41</v>
@@ -17054,7 +17042,7 @@
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B125" s="2"/>
       <c r="C125" t="s" s="2">
@@ -17080,16 +17068,16 @@
         <v>125</v>
       </c>
       <c r="K125" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="L125" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="M125" t="s" s="2">
         <v>443</v>
       </c>
-      <c r="L125" t="s" s="2">
+      <c r="N125" t="s" s="2">
         <v>444</v>
-      </c>
-      <c r="M125" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="N125" t="s" s="2">
-        <v>446</v>
       </c>
       <c r="O125" t="s" s="2">
         <v>43</v>
@@ -17117,10 +17105,10 @@
         <v>140</v>
       </c>
       <c r="X125" t="s" s="2">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="Y125" t="s" s="2">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="Z125" t="s" s="2">
         <v>43</v>
@@ -17138,7 +17126,7 @@
         <v>43</v>
       </c>
       <c r="AE125" t="s" s="2">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="AF125" t="s" s="2">
         <v>41</v>
@@ -17165,9 +17153,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="126" hidden="true">
+    <row r="126">
       <c r="A126" t="s" s="2">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B126" s="2"/>
       <c r="C126" t="s" s="2">
@@ -17181,7 +17169,7 @@
         <v>42</v>
       </c>
       <c r="G126" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H126" t="s" s="2">
         <v>43</v>
@@ -17193,14 +17181,14 @@
         <v>211</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="M126" s="2"/>
       <c r="N126" t="s" s="2">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="O126" t="s" s="2">
         <v>43</v>
@@ -17249,7 +17237,7 @@
         <v>43</v>
       </c>
       <c r="AE126" t="s" s="2">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="AF126" t="s" s="2">
         <v>41</v>
@@ -17278,7 +17266,7 @@
     </row>
     <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B127" s="2"/>
       <c r="C127" t="s" s="2">
@@ -17387,7 +17375,7 @@
     </row>
     <row r="128" hidden="true">
       <c r="A128" t="s" s="2">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B128" s="2"/>
       <c r="C128" t="s" s="2">
@@ -17498,7 +17486,7 @@
     </row>
     <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B129" s="2"/>
       <c r="C129" t="s" s="2">
@@ -17611,7 +17599,7 @@
     </row>
     <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B130" s="2"/>
       <c r="C130" t="s" s="2">
@@ -17637,14 +17625,14 @@
         <v>326</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="M130" s="2"/>
       <c r="N130" t="s" s="2">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="O130" t="s" s="2">
         <v>43</v>
@@ -17693,7 +17681,7 @@
         <v>43</v>
       </c>
       <c r="AE130" t="s" s="2">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="AF130" t="s" s="2">
         <v>50</v>
@@ -17720,9 +17708,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="131" hidden="true">
+    <row r="131">
       <c r="A131" t="s" s="2">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B131" s="2"/>
       <c r="C131" t="s" s="2">
@@ -17736,7 +17724,7 @@
         <v>42</v>
       </c>
       <c r="G131" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H131" t="s" s="2">
         <v>43</v>
@@ -17748,14 +17736,14 @@
         <v>125</v>
       </c>
       <c r="K131" t="s" s="2">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="M131" s="2"/>
       <c r="N131" t="s" s="2">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="O131" t="s" s="2">
         <v>43</v>
@@ -17783,10 +17771,10 @@
         <v>140</v>
       </c>
       <c r="X131" t="s" s="2">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="Y131" t="s" s="2">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="Z131" t="s" s="2">
         <v>43</v>
@@ -17804,7 +17792,7 @@
         <v>43</v>
       </c>
       <c r="AE131" t="s" s="2">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="AF131" t="s" s="2">
         <v>41</v>
@@ -17831,9 +17819,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="132" hidden="true">
+    <row r="132">
       <c r="A132" t="s" s="2">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B132" s="2"/>
       <c r="C132" t="s" s="2">
@@ -17847,7 +17835,7 @@
         <v>50</v>
       </c>
       <c r="G132" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H132" t="s" s="2">
         <v>43</v>
@@ -17859,14 +17847,14 @@
         <v>165</v>
       </c>
       <c r="K132" t="s" s="2">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="M132" s="2"/>
       <c r="N132" t="s" s="2">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="O132" t="s" s="2">
         <v>43</v>
@@ -17915,7 +17903,7 @@
         <v>43</v>
       </c>
       <c r="AE132" t="s" s="2">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="AF132" t="s" s="2">
         <v>41</v>
@@ -17944,7 +17932,7 @@
     </row>
     <row r="133" hidden="true">
       <c r="A133" t="s" s="2">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B133" s="2"/>
       <c r="C133" t="s" s="2">
@@ -17970,14 +17958,14 @@
         <v>125</v>
       </c>
       <c r="K133" t="s" s="2">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="M133" s="2"/>
       <c r="N133" t="s" s="2">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="O133" t="s" s="2">
         <v>43</v>
@@ -18005,10 +17993,10 @@
         <v>140</v>
       </c>
       <c r="X133" t="s" s="2">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="Y133" t="s" s="2">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="Z133" t="s" s="2">
         <v>43</v>
@@ -18026,7 +18014,7 @@
         <v>43</v>
       </c>
       <c r="AE133" t="s" s="2">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="AF133" t="s" s="2">
         <v>50</v>
@@ -18055,7 +18043,7 @@
     </row>
     <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B134" s="2"/>
       <c r="C134" t="s" s="2">
@@ -18078,17 +18066,17 @@
         <v>43</v>
       </c>
       <c r="J134" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="K134" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="L134" t="s" s="2">
         <v>475</v>
-      </c>
-      <c r="K134" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="L134" t="s" s="2">
-        <v>477</v>
       </c>
       <c r="M134" s="2"/>
       <c r="N134" t="s" s="2">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="O134" t="s" s="2">
         <v>43</v>
@@ -18137,7 +18125,7 @@
         <v>43</v>
       </c>
       <c r="AE134" t="s" s="2">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="AF134" t="s" s="2">
         <v>41</v>
@@ -18166,7 +18154,7 @@
     </row>
     <row r="135" hidden="true">
       <c r="A135" t="s" s="2">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B135" s="2"/>
       <c r="C135" t="s" s="2">
@@ -18192,14 +18180,14 @@
         <v>326</v>
       </c>
       <c r="K135" t="s" s="2">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="M135" s="2"/>
       <c r="N135" t="s" s="2">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="O135" t="s" s="2">
         <v>43</v>
@@ -18248,7 +18236,7 @@
         <v>43</v>
       </c>
       <c r="AE135" t="s" s="2">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="AF135" t="s" s="2">
         <v>41</v>
@@ -18277,7 +18265,7 @@
     </row>
     <row r="136" hidden="true">
       <c r="A136" t="s" s="2">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B136" s="2"/>
       <c r="C136" t="s" s="2">
@@ -18288,7 +18276,7 @@
         <v>50</v>
       </c>
       <c r="F136" t="s" s="2">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="G136" t="s" s="2">
         <v>43</v>
@@ -18303,16 +18291,16 @@
         <v>211</v>
       </c>
       <c r="K136" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="L136" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="M136" t="s" s="2">
         <v>485</v>
       </c>
-      <c r="L136" t="s" s="2">
+      <c r="N136" t="s" s="2">
         <v>486</v>
-      </c>
-      <c r="M136" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="N136" t="s" s="2">
-        <v>488</v>
       </c>
       <c r="O136" t="s" s="2">
         <v>43</v>
@@ -18349,17 +18337,17 @@
         <v>43</v>
       </c>
       <c r="AA136" t="s" s="2">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="AB136" s="2"/>
       <c r="AC136" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD136" t="s" s="2">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="AE136" t="s" s="2">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="AF136" t="s" s="2">
         <v>50</v>
@@ -18380,7 +18368,7 @@
         <v>43</v>
       </c>
       <c r="AL136" t="s" s="2">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="AM136" t="s" s="2">
         <v>43</v>
@@ -18388,7 +18376,7 @@
     </row>
     <row r="137" hidden="true">
       <c r="A137" t="s" s="2">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B137" s="2"/>
       <c r="C137" t="s" s="2">
@@ -18497,7 +18485,7 @@
     </row>
     <row r="138" hidden="true">
       <c r="A138" t="s" s="2">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B138" s="2"/>
       <c r="C138" t="s" s="2">
@@ -18608,7 +18596,7 @@
     </row>
     <row r="139" hidden="true">
       <c r="A139" t="s" s="2">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B139" s="2"/>
       <c r="C139" t="s" s="2">
@@ -18721,7 +18709,7 @@
     </row>
     <row r="140" hidden="true">
       <c r="A140" t="s" s="2">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B140" s="2"/>
       <c r="C140" t="s" s="2">
@@ -18747,23 +18735,23 @@
         <v>337</v>
       </c>
       <c r="K140" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="L140" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="M140" t="s" s="2">
         <v>496</v>
       </c>
-      <c r="L140" t="s" s="2">
+      <c r="N140" t="s" s="2">
         <v>497</v>
-      </c>
-      <c r="M140" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="N140" t="s" s="2">
-        <v>499</v>
       </c>
       <c r="O140" t="s" s="2">
         <v>43</v>
       </c>
       <c r="P140" s="2"/>
       <c r="Q140" t="s" s="2">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="R140" t="s" s="2">
         <v>43</v>
@@ -18805,7 +18793,7 @@
         <v>43</v>
       </c>
       <c r="AE140" t="s" s="2">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="AF140" t="s" s="2">
         <v>50</v>
@@ -18834,7 +18822,7 @@
     </row>
     <row r="141" hidden="true">
       <c r="A141" t="s" s="2">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B141" s="2"/>
       <c r="C141" t="s" s="2">
@@ -18857,17 +18845,17 @@
         <v>51</v>
       </c>
       <c r="J141" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="K141" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="L141" t="s" s="2">
         <v>502</v>
-      </c>
-      <c r="K141" t="s" s="2">
-        <v>503</v>
-      </c>
-      <c r="L141" t="s" s="2">
-        <v>504</v>
       </c>
       <c r="M141" s="2"/>
       <c r="N141" t="s" s="2">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="O141" t="s" s="2">
         <v>43</v>
@@ -18916,7 +18904,7 @@
         <v>43</v>
       </c>
       <c r="AE141" t="s" s="2">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="AF141" t="s" s="2">
         <v>50</v>
@@ -18945,7 +18933,7 @@
     </row>
     <row r="142" hidden="true">
       <c r="A142" t="s" s="2">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B142" s="2"/>
       <c r="C142" t="s" s="2">
@@ -18971,16 +18959,16 @@
         <v>52</v>
       </c>
       <c r="K142" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="L142" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="M142" t="s" s="2">
         <v>507</v>
       </c>
-      <c r="L142" t="s" s="2">
+      <c r="N142" t="s" s="2">
         <v>508</v>
-      </c>
-      <c r="M142" t="s" s="2">
-        <v>509</v>
-      </c>
-      <c r="N142" t="s" s="2">
-        <v>510</v>
       </c>
       <c r="O142" t="s" s="2">
         <v>43</v>
@@ -19029,7 +19017,7 @@
         <v>43</v>
       </c>
       <c r="AE142" t="s" s="2">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="AF142" t="s" s="2">
         <v>41</v>
@@ -19058,10 +19046,10 @@
     </row>
     <row r="143" hidden="true">
       <c r="A143" t="s" s="2">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C143" t="s" s="2">
         <v>43</v>
@@ -19086,16 +19074,16 @@
         <v>211</v>
       </c>
       <c r="K143" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="L143" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="M143" t="s" s="2">
         <v>485</v>
       </c>
-      <c r="L143" t="s" s="2">
+      <c r="N143" t="s" s="2">
         <v>486</v>
-      </c>
-      <c r="M143" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="N143" t="s" s="2">
-        <v>488</v>
       </c>
       <c r="O143" t="s" s="2">
         <v>43</v>
@@ -19144,7 +19132,7 @@
         <v>43</v>
       </c>
       <c r="AE143" t="s" s="2">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="AF143" t="s" s="2">
         <v>50</v>
@@ -19165,7 +19153,7 @@
         <v>43</v>
       </c>
       <c r="AL143" t="s" s="2">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="AM143" t="s" s="2">
         <v>43</v>
@@ -19173,7 +19161,7 @@
     </row>
     <row r="144" hidden="true">
       <c r="A144" t="s" s="2">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B144" s="2"/>
       <c r="C144" t="s" s="2">
@@ -19282,7 +19270,7 @@
     </row>
     <row r="145" hidden="true">
       <c r="A145" t="s" s="2">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B145" s="2"/>
       <c r="C145" t="s" s="2">
@@ -19393,7 +19381,7 @@
     </row>
     <row r="146" hidden="true">
       <c r="A146" t="s" s="2">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B146" s="2"/>
       <c r="C146" t="s" s="2">
@@ -19506,7 +19494,7 @@
     </row>
     <row r="147" hidden="true">
       <c r="A147" t="s" s="2">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B147" s="2"/>
       <c r="C147" t="s" s="2">
@@ -19532,23 +19520,23 @@
         <v>337</v>
       </c>
       <c r="K147" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="L147" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="M147" t="s" s="2">
         <v>496</v>
       </c>
-      <c r="L147" t="s" s="2">
+      <c r="N147" t="s" s="2">
         <v>497</v>
-      </c>
-      <c r="M147" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="N147" t="s" s="2">
-        <v>499</v>
       </c>
       <c r="O147" t="s" s="2">
         <v>43</v>
       </c>
       <c r="P147" s="2"/>
       <c r="Q147" t="s" s="2">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="R147" t="s" s="2">
         <v>43</v>
@@ -19590,7 +19578,7 @@
         <v>43</v>
       </c>
       <c r="AE147" t="s" s="2">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="AF147" t="s" s="2">
         <v>50</v>
@@ -19619,7 +19607,7 @@
     </row>
     <row r="148" hidden="true">
       <c r="A148" t="s" s="2">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B148" s="2"/>
       <c r="C148" t="s" s="2">
@@ -19642,17 +19630,17 @@
         <v>51</v>
       </c>
       <c r="J148" t="s" s="2">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="K148" t="s" s="2">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="L148" t="s" s="2">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="M148" s="2"/>
       <c r="N148" t="s" s="2">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="O148" t="s" s="2">
         <v>43</v>
@@ -19701,7 +19689,7 @@
         <v>43</v>
       </c>
       <c r="AE148" t="s" s="2">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="AF148" t="s" s="2">
         <v>50</v>
@@ -19730,7 +19718,7 @@
     </row>
     <row r="149" hidden="true">
       <c r="A149" t="s" s="2">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B149" s="2"/>
       <c r="C149" t="s" s="2">
@@ -19756,16 +19744,16 @@
         <v>52</v>
       </c>
       <c r="K149" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="L149" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="M149" t="s" s="2">
         <v>507</v>
       </c>
-      <c r="L149" t="s" s="2">
+      <c r="N149" t="s" s="2">
         <v>508</v>
-      </c>
-      <c r="M149" t="s" s="2">
-        <v>509</v>
-      </c>
-      <c r="N149" t="s" s="2">
-        <v>510</v>
       </c>
       <c r="O149" t="s" s="2">
         <v>43</v>
@@ -19814,7 +19802,7 @@
         <v>43</v>
       </c>
       <c r="AE149" t="s" s="2">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="AF149" t="s" s="2">
         <v>41</v>
@@ -19843,7 +19831,7 @@
     </row>
     <row r="150" hidden="true">
       <c r="A150" t="s" s="2">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B150" s="2"/>
       <c r="C150" t="s" s="2">
@@ -19869,14 +19857,14 @@
         <v>211</v>
       </c>
       <c r="K150" t="s" s="2">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="L150" t="s" s="2">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="M150" s="2"/>
       <c r="N150" t="s" s="2">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="O150" t="s" s="2">
         <v>43</v>
@@ -19925,7 +19913,7 @@
         <v>43</v>
       </c>
       <c r="AE150" t="s" s="2">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="AF150" t="s" s="2">
         <v>41</v>
@@ -19954,7 +19942,7 @@
     </row>
     <row r="151" hidden="true">
       <c r="A151" t="s" s="2">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B151" s="2"/>
       <c r="C151" t="s" s="2">
@@ -20063,7 +20051,7 @@
     </row>
     <row r="152" hidden="true">
       <c r="A152" t="s" s="2">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B152" s="2"/>
       <c r="C152" t="s" s="2">
@@ -20174,7 +20162,7 @@
     </row>
     <row r="153" hidden="true">
       <c r="A153" t="s" s="2">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B153" s="2"/>
       <c r="C153" t="s" s="2">
@@ -20287,7 +20275,7 @@
     </row>
     <row r="154" hidden="true">
       <c r="A154" t="s" s="2">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B154" s="2"/>
       <c r="C154" t="s" s="2">
@@ -20310,19 +20298,19 @@
         <v>43</v>
       </c>
       <c r="J154" t="s" s="2">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="K154" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="L154" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="M154" t="s" s="2">
         <v>522</v>
       </c>
-      <c r="L154" t="s" s="2">
+      <c r="N154" t="s" s="2">
         <v>523</v>
-      </c>
-      <c r="M154" t="s" s="2">
-        <v>524</v>
-      </c>
-      <c r="N154" t="s" s="2">
-        <v>525</v>
       </c>
       <c r="O154" t="s" s="2">
         <v>43</v>
@@ -20371,7 +20359,7 @@
         <v>43</v>
       </c>
       <c r="AE154" t="s" s="2">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="AF154" t="s" s="2">
         <v>41</v>
@@ -20400,7 +20388,7 @@
     </row>
     <row r="155" hidden="true">
       <c r="A155" t="s" s="2">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B155" s="2"/>
       <c r="C155" t="s" s="2">
@@ -20426,14 +20414,14 @@
         <v>125</v>
       </c>
       <c r="K155" t="s" s="2">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="L155" t="s" s="2">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="M155" s="2"/>
       <c r="N155" t="s" s="2">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="O155" t="s" s="2">
         <v>43</v>
@@ -20461,10 +20449,10 @@
         <v>131</v>
       </c>
       <c r="X155" t="s" s="2">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="Y155" t="s" s="2">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="Z155" t="s" s="2">
         <v>43</v>
@@ -20482,7 +20470,7 @@
         <v>43</v>
       </c>
       <c r="AE155" t="s" s="2">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="AF155" t="s" s="2">
         <v>41</v>
@@ -20511,7 +20499,7 @@
     </row>
     <row r="156" hidden="true">
       <c r="A156" t="s" s="2">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B156" s="2"/>
       <c r="C156" t="s" s="2">
@@ -20534,17 +20522,17 @@
         <v>43</v>
       </c>
       <c r="J156" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="K156" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="L156" t="s" s="2">
         <v>533</v>
-      </c>
-      <c r="K156" t="s" s="2">
-        <v>534</v>
-      </c>
-      <c r="L156" t="s" s="2">
-        <v>535</v>
       </c>
       <c r="M156" s="2"/>
       <c r="N156" t="s" s="2">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="O156" t="s" s="2">
         <v>43</v>
@@ -20593,7 +20581,7 @@
         <v>43</v>
       </c>
       <c r="AE156" t="s" s="2">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="AF156" t="s" s="2">
         <v>41</v>
@@ -20620,9 +20608,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="157" hidden="true">
+    <row r="157">
       <c r="A157" t="s" s="2">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="B157" s="2"/>
       <c r="C157" t="s" s="2">
@@ -20636,7 +20624,7 @@
         <v>42</v>
       </c>
       <c r="G157" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H157" t="s" s="2">
         <v>43</v>
@@ -20648,14 +20636,14 @@
         <v>211</v>
       </c>
       <c r="K157" t="s" s="2">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="L157" t="s" s="2">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="M157" s="2"/>
       <c r="N157" t="s" s="2">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="O157" t="s" s="2">
         <v>43</v>
@@ -20704,7 +20692,7 @@
         <v>43</v>
       </c>
       <c r="AE157" t="s" s="2">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="AF157" t="s" s="2">
         <v>41</v>
@@ -20733,7 +20721,7 @@
     </row>
     <row r="158" hidden="true">
       <c r="A158" t="s" s="2">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="B158" s="2"/>
       <c r="C158" t="s" s="2">
@@ -20842,7 +20830,7 @@
     </row>
     <row r="159" hidden="true">
       <c r="A159" t="s" s="2">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="B159" s="2"/>
       <c r="C159" t="s" s="2">
@@ -20953,7 +20941,7 @@
     </row>
     <row r="160" hidden="true">
       <c r="A160" t="s" s="2">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="B160" s="2"/>
       <c r="C160" t="s" s="2">
@@ -21066,7 +21054,7 @@
     </row>
     <row r="161" hidden="true">
       <c r="A161" t="s" s="2">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="B161" s="2"/>
       <c r="C161" t="s" s="2">
@@ -21092,14 +21080,14 @@
         <v>326</v>
       </c>
       <c r="K161" t="s" s="2">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="L161" t="s" s="2">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="M161" s="2"/>
       <c r="N161" t="s" s="2">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="O161" t="s" s="2">
         <v>43</v>
@@ -21148,7 +21136,7 @@
         <v>43</v>
       </c>
       <c r="AE161" t="s" s="2">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="AF161" t="s" s="2">
         <v>50</v>
@@ -21175,9 +21163,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="162" hidden="true">
+    <row r="162">
       <c r="A162" t="s" s="2">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B162" s="2"/>
       <c r="C162" t="s" s="2">
@@ -21191,7 +21179,7 @@
         <v>42</v>
       </c>
       <c r="G162" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H162" t="s" s="2">
         <v>43</v>
@@ -21203,14 +21191,14 @@
         <v>326</v>
       </c>
       <c r="K162" t="s" s="2">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="L162" t="s" s="2">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="M162" s="2"/>
       <c r="N162" t="s" s="2">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="O162" t="s" s="2">
         <v>43</v>
@@ -21259,7 +21247,7 @@
         <v>43</v>
       </c>
       <c r="AE162" t="s" s="2">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="AF162" t="s" s="2">
         <v>41</v>
@@ -21286,9 +21274,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="163" hidden="true">
+    <row r="163">
       <c r="A163" t="s" s="2">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B163" s="2"/>
       <c r="C163" t="s" s="2">
@@ -21302,7 +21290,7 @@
         <v>42</v>
       </c>
       <c r="G163" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H163" t="s" s="2">
         <v>43</v>
@@ -21314,14 +21302,14 @@
         <v>326</v>
       </c>
       <c r="K163" t="s" s="2">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="L163" t="s" s="2">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="M163" s="2"/>
       <c r="N163" t="s" s="2">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="O163" t="s" s="2">
         <v>43</v>
@@ -21370,7 +21358,7 @@
         <v>43</v>
       </c>
       <c r="AE163" t="s" s="2">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="AF163" t="s" s="2">
         <v>41</v>
@@ -21397,9 +21385,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="164" hidden="true">
+    <row r="164">
       <c r="A164" t="s" s="2">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B164" s="2"/>
       <c r="C164" t="s" s="2">
@@ -21413,7 +21401,7 @@
         <v>42</v>
       </c>
       <c r="G164" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H164" t="s" s="2">
         <v>43</v>
@@ -21425,14 +21413,14 @@
         <v>326</v>
       </c>
       <c r="K164" t="s" s="2">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="L164" t="s" s="2">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="M164" s="2"/>
       <c r="N164" t="s" s="2">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="O164" t="s" s="2">
         <v>43</v>
@@ -21481,7 +21469,7 @@
         <v>43</v>
       </c>
       <c r="AE164" t="s" s="2">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="AF164" t="s" s="2">
         <v>41</v>
@@ -21508,9 +21496,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="165" hidden="true">
+    <row r="165">
       <c r="A165" t="s" s="2">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B165" s="2"/>
       <c r="C165" t="s" s="2">
@@ -21524,7 +21512,7 @@
         <v>42</v>
       </c>
       <c r="G165" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H165" t="s" s="2">
         <v>43</v>
@@ -21536,14 +21524,14 @@
         <v>326</v>
       </c>
       <c r="K165" t="s" s="2">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="L165" t="s" s="2">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="M165" s="2"/>
       <c r="N165" t="s" s="2">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="O165" t="s" s="2">
         <v>43</v>
@@ -21592,7 +21580,7 @@
         <v>43</v>
       </c>
       <c r="AE165" t="s" s="2">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="AF165" t="s" s="2">
         <v>41</v>
@@ -21621,7 +21609,7 @@
     </row>
     <row r="166" hidden="true">
       <c r="A166" t="s" s="2">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B166" s="2"/>
       <c r="C166" t="s" s="2">
@@ -21647,14 +21635,14 @@
         <v>125</v>
       </c>
       <c r="K166" t="s" s="2">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="L166" t="s" s="2">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="M166" s="2"/>
       <c r="N166" t="s" s="2">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="O166" t="s" s="2">
         <v>43</v>
@@ -21682,10 +21670,10 @@
         <v>140</v>
       </c>
       <c r="X166" t="s" s="2">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="Y166" t="s" s="2">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="Z166" t="s" s="2">
         <v>43</v>
@@ -21703,7 +21691,7 @@
         <v>43</v>
       </c>
       <c r="AE166" t="s" s="2">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="AF166" t="s" s="2">
         <v>41</v>
@@ -21730,9 +21718,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="167" hidden="true">
+    <row r="167">
       <c r="A167" t="s" s="2">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B167" s="2"/>
       <c r="C167" t="s" s="2">
@@ -21746,7 +21734,7 @@
         <v>50</v>
       </c>
       <c r="G167" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H167" t="s" s="2">
         <v>43</v>
@@ -21758,16 +21746,16 @@
         <v>125</v>
       </c>
       <c r="K167" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="L167" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="M167" t="s" s="2">
         <v>571</v>
       </c>
-      <c r="L167" t="s" s="2">
+      <c r="N167" t="s" s="2">
         <v>572</v>
-      </c>
-      <c r="M167" t="s" s="2">
-        <v>573</v>
-      </c>
-      <c r="N167" t="s" s="2">
-        <v>574</v>
       </c>
       <c r="O167" t="s" s="2">
         <v>43</v>
@@ -21796,7 +21784,7 @@
       </c>
       <c r="X167" s="2"/>
       <c r="Y167" t="s" s="2">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="Z167" t="s" s="2">
         <v>43</v>
@@ -21814,7 +21802,7 @@
         <v>43</v>
       </c>
       <c r="AE167" t="s" s="2">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="AF167" t="s" s="2">
         <v>41</v>
@@ -21843,11 +21831,11 @@
     </row>
     <row r="168" hidden="true">
       <c r="A168" t="s" s="2">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B168" s="2"/>
       <c r="C168" t="s" s="2">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="D168" s="2"/>
       <c r="E168" t="s" s="2">
@@ -21869,16 +21857,16 @@
         <v>125</v>
       </c>
       <c r="K168" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="L168" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="M168" t="s" s="2">
         <v>578</v>
       </c>
-      <c r="L168" t="s" s="2">
+      <c r="N168" t="s" s="2">
         <v>579</v>
-      </c>
-      <c r="M168" t="s" s="2">
-        <v>580</v>
-      </c>
-      <c r="N168" t="s" s="2">
-        <v>581</v>
       </c>
       <c r="O168" t="s" s="2">
         <v>43</v>
@@ -21907,7 +21895,7 @@
       </c>
       <c r="X168" s="2"/>
       <c r="Y168" t="s" s="2">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="Z168" t="s" s="2">
         <v>43</v>
@@ -21925,7 +21913,7 @@
         <v>43</v>
       </c>
       <c r="AE168" t="s" s="2">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="AF168" t="s" s="2">
         <v>50</v>
@@ -21952,9 +21940,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="169" hidden="true">
+    <row r="169">
       <c r="A169" t="s" s="2">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B169" s="2"/>
       <c r="C169" t="s" s="2">
@@ -21968,7 +21956,7 @@
         <v>42</v>
       </c>
       <c r="G169" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H169" t="s" s="2">
         <v>43</v>
@@ -21980,16 +21968,16 @@
         <v>125</v>
       </c>
       <c r="K169" t="s" s="2">
+        <v>582</v>
+      </c>
+      <c r="L169" t="s" s="2">
+        <v>583</v>
+      </c>
+      <c r="M169" t="s" s="2">
         <v>584</v>
       </c>
-      <c r="L169" t="s" s="2">
+      <c r="N169" t="s" s="2">
         <v>585</v>
-      </c>
-      <c r="M169" t="s" s="2">
-        <v>586</v>
-      </c>
-      <c r="N169" t="s" s="2">
-        <v>587</v>
       </c>
       <c r="O169" t="s" s="2">
         <v>43</v>
@@ -22018,7 +22006,7 @@
       </c>
       <c r="X169" s="2"/>
       <c r="Y169" t="s" s="2">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="Z169" t="s" s="2">
         <v>43</v>
@@ -22036,7 +22024,7 @@
         <v>43</v>
       </c>
       <c r="AE169" t="s" s="2">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="AF169" t="s" s="2">
         <v>41</v>
@@ -22065,7 +22053,7 @@
     </row>
     <row r="170" hidden="true">
       <c r="A170" t="s" s="2">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="B170" s="2"/>
       <c r="C170" t="s" s="2">
@@ -22091,16 +22079,16 @@
         <v>125</v>
       </c>
       <c r="K170" t="s" s="2">
+        <v>588</v>
+      </c>
+      <c r="L170" t="s" s="2">
+        <v>589</v>
+      </c>
+      <c r="M170" t="s" s="2">
         <v>590</v>
       </c>
-      <c r="L170" t="s" s="2">
+      <c r="N170" t="s" s="2">
         <v>591</v>
-      </c>
-      <c r="M170" t="s" s="2">
-        <v>592</v>
-      </c>
-      <c r="N170" t="s" s="2">
-        <v>593</v>
       </c>
       <c r="O170" t="s" s="2">
         <v>43</v>
@@ -22128,10 +22116,10 @@
         <v>140</v>
       </c>
       <c r="X170" t="s" s="2">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="Y170" t="s" s="2">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="Z170" t="s" s="2">
         <v>43</v>
@@ -22149,7 +22137,7 @@
         <v>43</v>
       </c>
       <c r="AE170" t="s" s="2">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="AF170" t="s" s="2">
         <v>41</v>
@@ -22176,9 +22164,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="171" hidden="true">
+    <row r="171">
       <c r="A171" t="s" s="2">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="B171" s="2"/>
       <c r="C171" t="s" s="2">
@@ -22192,7 +22180,7 @@
         <v>50</v>
       </c>
       <c r="G171" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H171" t="s" s="2">
         <v>43</v>
@@ -22204,14 +22192,14 @@
         <v>381</v>
       </c>
       <c r="K171" t="s" s="2">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="L171" t="s" s="2">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="M171" s="2"/>
       <c r="N171" t="s" s="2">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="O171" t="s" s="2">
         <v>43</v>
@@ -22260,7 +22248,7 @@
         <v>43</v>
       </c>
       <c r="AE171" t="s" s="2">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="AF171" t="s" s="2">
         <v>41</v>
@@ -22287,9 +22275,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="172" hidden="true">
+    <row r="172">
       <c r="A172" t="s" s="2">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="B172" s="2"/>
       <c r="C172" t="s" s="2">
@@ -22303,7 +22291,7 @@
         <v>50</v>
       </c>
       <c r="G172" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H172" t="s" s="2">
         <v>43</v>
@@ -22315,14 +22303,14 @@
         <v>125</v>
       </c>
       <c r="K172" t="s" s="2">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="L172" t="s" s="2">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="M172" s="2"/>
       <c r="N172" t="s" s="2">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="O172" t="s" s="2">
         <v>43</v>
@@ -22351,7 +22339,7 @@
       </c>
       <c r="X172" s="2"/>
       <c r="Y172" t="s" s="2">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="Z172" t="s" s="2">
         <v>43</v>
@@ -22369,7 +22357,7 @@
         <v>43</v>
       </c>
       <c r="AE172" t="s" s="2">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="AF172" t="s" s="2">
         <v>41</v>
@@ -22396,9 +22384,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="173" hidden="true">
+    <row r="173">
       <c r="A173" t="s" s="2">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="B173" s="2"/>
       <c r="C173" t="s" s="2">
@@ -22412,7 +22400,7 @@
         <v>50</v>
       </c>
       <c r="G173" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H173" t="s" s="2">
         <v>43</v>
@@ -22421,17 +22409,17 @@
         <v>43</v>
       </c>
       <c r="J173" t="s" s="2">
+        <v>604</v>
+      </c>
+      <c r="K173" t="s" s="2">
+        <v>605</v>
+      </c>
+      <c r="L173" t="s" s="2">
         <v>606</v>
-      </c>
-      <c r="K173" t="s" s="2">
-        <v>607</v>
-      </c>
-      <c r="L173" t="s" s="2">
-        <v>608</v>
       </c>
       <c r="M173" s="2"/>
       <c r="N173" t="s" s="2">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="O173" t="s" s="2">
         <v>43</v>
@@ -22480,7 +22468,7 @@
         <v>43</v>
       </c>
       <c r="AE173" t="s" s="2">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="AF173" t="s" s="2">
         <v>41</v>
@@ -22509,7 +22497,7 @@
     </row>
     <row r="174" hidden="true">
       <c r="A174" t="s" s="2">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="B174" s="2"/>
       <c r="C174" t="s" s="2">
@@ -22532,17 +22520,17 @@
         <v>43</v>
       </c>
       <c r="J174" t="s" s="2">
+        <v>609</v>
+      </c>
+      <c r="K174" t="s" s="2">
+        <v>610</v>
+      </c>
+      <c r="L174" t="s" s="2">
         <v>611</v>
-      </c>
-      <c r="K174" t="s" s="2">
-        <v>612</v>
-      </c>
-      <c r="L174" t="s" s="2">
-        <v>613</v>
       </c>
       <c r="M174" s="2"/>
       <c r="N174" t="s" s="2">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="O174" t="s" s="2">
         <v>43</v>
@@ -22591,7 +22579,7 @@
         <v>43</v>
       </c>
       <c r="AE174" t="s" s="2">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="AF174" t="s" s="2">
         <v>41</v>
@@ -22620,7 +22608,7 @@
     </row>
     <row r="175" hidden="true">
       <c r="A175" t="s" s="2">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="B175" s="2"/>
       <c r="C175" t="s" s="2">
@@ -22643,19 +22631,19 @@
         <v>43</v>
       </c>
       <c r="J175" t="s" s="2">
+        <v>614</v>
+      </c>
+      <c r="K175" t="s" s="2">
+        <v>615</v>
+      </c>
+      <c r="L175" t="s" s="2">
         <v>616</v>
       </c>
-      <c r="K175" t="s" s="2">
+      <c r="M175" t="s" s="2">
         <v>617</v>
       </c>
-      <c r="L175" t="s" s="2">
+      <c r="N175" t="s" s="2">
         <v>618</v>
-      </c>
-      <c r="M175" t="s" s="2">
-        <v>619</v>
-      </c>
-      <c r="N175" t="s" s="2">
-        <v>620</v>
       </c>
       <c r="O175" t="s" s="2">
         <v>43</v>
@@ -22704,7 +22692,7 @@
         <v>43</v>
       </c>
       <c r="AE175" t="s" s="2">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="AF175" t="s" s="2">
         <v>41</v>
@@ -22731,9 +22719,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="176" hidden="true">
+    <row r="176">
       <c r="A176" t="s" s="2">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="B176" s="2"/>
       <c r="C176" t="s" s="2">
@@ -22747,7 +22735,7 @@
         <v>50</v>
       </c>
       <c r="G176" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H176" t="s" s="2">
         <v>43</v>
@@ -22756,19 +22744,19 @@
         <v>43</v>
       </c>
       <c r="J176" t="s" s="2">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="K176" t="s" s="2">
+        <v>620</v>
+      </c>
+      <c r="L176" t="s" s="2">
+        <v>621</v>
+      </c>
+      <c r="M176" t="s" s="2">
         <v>622</v>
       </c>
-      <c r="L176" t="s" s="2">
+      <c r="N176" t="s" s="2">
         <v>623</v>
-      </c>
-      <c r="M176" t="s" s="2">
-        <v>624</v>
-      </c>
-      <c r="N176" t="s" s="2">
-        <v>625</v>
       </c>
       <c r="O176" t="s" s="2">
         <v>43</v>
@@ -22817,7 +22805,7 @@
         <v>43</v>
       </c>
       <c r="AE176" t="s" s="2">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="AF176" t="s" s="2">
         <v>41</v>
@@ -22846,7 +22834,7 @@
     </row>
     <row r="177" hidden="true">
       <c r="A177" t="s" s="2">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="B177" s="2"/>
       <c r="C177" t="s" s="2">
@@ -22869,17 +22857,17 @@
         <v>43</v>
       </c>
       <c r="J177" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="K177" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="L177" t="s" s="2">
         <v>475</v>
-      </c>
-      <c r="K177" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="L177" t="s" s="2">
-        <v>477</v>
       </c>
       <c r="M177" s="2"/>
       <c r="N177" t="s" s="2">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="O177" t="s" s="2">
         <v>43</v>
@@ -22928,7 +22916,7 @@
         <v>43</v>
       </c>
       <c r="AE177" t="s" s="2">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="AF177" t="s" s="2">
         <v>41</v>
@@ -22957,7 +22945,7 @@
     </row>
     <row r="178" hidden="true">
       <c r="A178" t="s" s="2">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="B178" s="2"/>
       <c r="C178" t="s" s="2">
@@ -22983,16 +22971,16 @@
         <v>125</v>
       </c>
       <c r="K178" t="s" s="2">
+        <v>626</v>
+      </c>
+      <c r="L178" t="s" s="2">
+        <v>627</v>
+      </c>
+      <c r="M178" t="s" s="2">
         <v>628</v>
       </c>
-      <c r="L178" t="s" s="2">
+      <c r="N178" t="s" s="2">
         <v>629</v>
-      </c>
-      <c r="M178" t="s" s="2">
-        <v>630</v>
-      </c>
-      <c r="N178" t="s" s="2">
-        <v>631</v>
       </c>
       <c r="O178" t="s" s="2">
         <v>43</v>
@@ -23020,10 +23008,10 @@
         <v>140</v>
       </c>
       <c r="X178" t="s" s="2">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="Y178" t="s" s="2">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="Z178" t="s" s="2">
         <v>43</v>
@@ -23041,7 +23029,7 @@
         <v>43</v>
       </c>
       <c r="AE178" t="s" s="2">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="AF178" t="s" s="2">
         <v>41</v>
@@ -23070,7 +23058,7 @@
     </row>
     <row r="179" hidden="true">
       <c r="A179" t="s" s="2">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="B179" s="2"/>
       <c r="C179" t="s" s="2">
@@ -23096,14 +23084,14 @@
         <v>125</v>
       </c>
       <c r="K179" t="s" s="2">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="L179" t="s" s="2">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="M179" s="2"/>
       <c r="N179" t="s" s="2">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="O179" t="s" s="2">
         <v>43</v>
@@ -23131,10 +23119,10 @@
         <v>140</v>
       </c>
       <c r="X179" t="s" s="2">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="Y179" t="s" s="2">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="Z179" t="s" s="2">
         <v>43</v>
@@ -23152,7 +23140,7 @@
         <v>43</v>
       </c>
       <c r="AE179" t="s" s="2">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="AF179" t="s" s="2">
         <v>41</v>
@@ -23181,7 +23169,7 @@
     </row>
     <row r="180" hidden="true">
       <c r="A180" t="s" s="2">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="B180" s="2"/>
       <c r="C180" t="s" s="2">
@@ -23204,17 +23192,17 @@
         <v>43</v>
       </c>
       <c r="J180" t="s" s="2">
+        <v>638</v>
+      </c>
+      <c r="K180" t="s" s="2">
+        <v>639</v>
+      </c>
+      <c r="L180" t="s" s="2">
         <v>640</v>
-      </c>
-      <c r="K180" t="s" s="2">
-        <v>641</v>
-      </c>
-      <c r="L180" t="s" s="2">
-        <v>642</v>
       </c>
       <c r="M180" s="2"/>
       <c r="N180" t="s" s="2">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="O180" t="s" s="2">
         <v>43</v>
@@ -23263,7 +23251,7 @@
         <v>43</v>
       </c>
       <c r="AE180" t="s" s="2">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="AF180" t="s" s="2">
         <v>41</v>
@@ -23292,7 +23280,7 @@
     </row>
     <row r="181" hidden="true">
       <c r="A181" t="s" s="2">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="B181" s="2"/>
       <c r="C181" t="s" s="2">
@@ -23318,14 +23306,14 @@
         <v>326</v>
       </c>
       <c r="K181" t="s" s="2">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="L181" t="s" s="2">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="M181" s="2"/>
       <c r="N181" t="s" s="2">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="O181" t="s" s="2">
         <v>43</v>
@@ -23374,7 +23362,7 @@
         <v>43</v>
       </c>
       <c r="AE181" t="s" s="2">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="AF181" t="s" s="2">
         <v>41</v>
@@ -23403,7 +23391,7 @@
     </row>
     <row r="182" hidden="true">
       <c r="A182" t="s" s="2">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="B182" s="2"/>
       <c r="C182" t="s" s="2">
@@ -23429,14 +23417,14 @@
         <v>211</v>
       </c>
       <c r="K182" t="s" s="2">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="L182" t="s" s="2">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="M182" s="2"/>
       <c r="N182" t="s" s="2">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="O182" t="s" s="2">
         <v>43</v>
@@ -23480,10 +23468,10 @@
         <v>43</v>
       </c>
       <c r="AD182" t="s" s="2">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="AE182" t="s" s="2">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="AF182" t="s" s="2">
         <v>41</v>
@@ -23512,7 +23500,7 @@
     </row>
     <row r="183" hidden="true">
       <c r="A183" t="s" s="2">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="B183" s="2"/>
       <c r="C183" t="s" s="2">
@@ -23621,7 +23609,7 @@
     </row>
     <row r="184" hidden="true">
       <c r="A184" t="s" s="2">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="B184" s="2"/>
       <c r="C184" t="s" s="2">
@@ -23732,7 +23720,7 @@
     </row>
     <row r="185" hidden="true">
       <c r="A185" t="s" s="2">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="B185" s="2"/>
       <c r="C185" t="s" s="2">
@@ -23845,7 +23833,7 @@
     </row>
     <row r="186" hidden="true">
       <c r="A186" t="s" s="2">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="B186" s="2"/>
       <c r="C186" t="s" s="2">
@@ -23871,16 +23859,16 @@
         <v>125</v>
       </c>
       <c r="K186" t="s" s="2">
+        <v>654</v>
+      </c>
+      <c r="L186" t="s" s="2">
+        <v>655</v>
+      </c>
+      <c r="M186" t="s" s="2">
         <v>656</v>
       </c>
-      <c r="L186" t="s" s="2">
+      <c r="N186" t="s" s="2">
         <v>657</v>
-      </c>
-      <c r="M186" t="s" s="2">
-        <v>658</v>
-      </c>
-      <c r="N186" t="s" s="2">
-        <v>659</v>
       </c>
       <c r="O186" t="s" s="2">
         <v>43</v>
@@ -23909,7 +23897,7 @@
       </c>
       <c r="X186" s="2"/>
       <c r="Y186" t="s" s="2">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="Z186" t="s" s="2">
         <v>43</v>
@@ -23927,7 +23915,7 @@
         <v>43</v>
       </c>
       <c r="AE186" t="s" s="2">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="AF186" t="s" s="2">
         <v>50</v>
@@ -23956,7 +23944,7 @@
     </row>
     <row r="187" hidden="true">
       <c r="A187" t="s" s="2">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="B187" s="2"/>
       <c r="C187" t="s" s="2">
@@ -23982,16 +23970,16 @@
         <v>125</v>
       </c>
       <c r="K187" t="s" s="2">
+        <v>660</v>
+      </c>
+      <c r="L187" t="s" s="2">
+        <v>661</v>
+      </c>
+      <c r="M187" t="s" s="2">
         <v>662</v>
       </c>
-      <c r="L187" t="s" s="2">
+      <c r="N187" t="s" s="2">
         <v>663</v>
-      </c>
-      <c r="M187" t="s" s="2">
-        <v>664</v>
-      </c>
-      <c r="N187" t="s" s="2">
-        <v>665</v>
       </c>
       <c r="O187" t="s" s="2">
         <v>43</v>
@@ -24019,10 +24007,10 @@
         <v>140</v>
       </c>
       <c r="X187" t="s" s="2">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="Y187" t="s" s="2">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="Z187" t="s" s="2">
         <v>43</v>
@@ -24040,7 +24028,7 @@
         <v>43</v>
       </c>
       <c r="AE187" t="s" s="2">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="AF187" t="s" s="2">
         <v>41</v>
@@ -24069,7 +24057,7 @@
     </row>
     <row r="188" hidden="true">
       <c r="A188" t="s" s="2">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="B188" s="2"/>
       <c r="C188" t="s" s="2">
@@ -24092,19 +24080,19 @@
         <v>43</v>
       </c>
       <c r="J188" t="s" s="2">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="K188" t="s" s="2">
+        <v>667</v>
+      </c>
+      <c r="L188" t="s" s="2">
+        <v>668</v>
+      </c>
+      <c r="M188" t="s" s="2">
         <v>669</v>
       </c>
-      <c r="L188" t="s" s="2">
+      <c r="N188" t="s" s="2">
         <v>670</v>
-      </c>
-      <c r="M188" t="s" s="2">
-        <v>671</v>
-      </c>
-      <c r="N188" t="s" s="2">
-        <v>672</v>
       </c>
       <c r="O188" t="s" s="2">
         <v>43</v>
@@ -24153,7 +24141,7 @@
         <v>43</v>
       </c>
       <c r="AE188" t="s" s="2">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="AF188" t="s" s="2">
         <v>41</v>
@@ -24182,7 +24170,7 @@
     </row>
     <row r="189" hidden="true">
       <c r="A189" t="s" s="2">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="B189" s="2"/>
       <c r="C189" t="s" s="2">
@@ -24205,19 +24193,19 @@
         <v>43</v>
       </c>
       <c r="J189" t="s" s="2">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="K189" t="s" s="2">
+        <v>672</v>
+      </c>
+      <c r="L189" t="s" s="2">
+        <v>673</v>
+      </c>
+      <c r="M189" t="s" s="2">
         <v>674</v>
       </c>
-      <c r="L189" t="s" s="2">
+      <c r="N189" t="s" s="2">
         <v>675</v>
-      </c>
-      <c r="M189" t="s" s="2">
-        <v>676</v>
-      </c>
-      <c r="N189" t="s" s="2">
-        <v>677</v>
       </c>
       <c r="O189" t="s" s="2">
         <v>43</v>
@@ -24266,7 +24254,7 @@
         <v>43</v>
       </c>
       <c r="AE189" t="s" s="2">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="AF189" t="s" s="2">
         <v>41</v>
@@ -24295,10 +24283,10 @@
     </row>
     <row r="190" hidden="true">
       <c r="A190" t="s" s="2">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="B190" t="s" s="2">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="C190" t="s" s="2">
         <v>43</v>
@@ -24323,14 +24311,14 @@
         <v>211</v>
       </c>
       <c r="K190" t="s" s="2">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="L190" t="s" s="2">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="M190" s="2"/>
       <c r="N190" t="s" s="2">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="O190" t="s" s="2">
         <v>43</v>
@@ -24379,7 +24367,7 @@
         <v>43</v>
       </c>
       <c r="AE190" t="s" s="2">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="AF190" t="s" s="2">
         <v>41</v>
@@ -24408,7 +24396,7 @@
     </row>
     <row r="191" hidden="true">
       <c r="A191" t="s" s="2">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="B191" s="2"/>
       <c r="C191" t="s" s="2">
@@ -24517,7 +24505,7 @@
     </row>
     <row r="192" hidden="true">
       <c r="A192" t="s" s="2">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="B192" s="2"/>
       <c r="C192" t="s" s="2">
@@ -24628,7 +24616,7 @@
     </row>
     <row r="193" hidden="true">
       <c r="A193" t="s" s="2">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="B193" s="2"/>
       <c r="C193" t="s" s="2">
@@ -24741,7 +24729,7 @@
     </row>
     <row r="194" hidden="true">
       <c r="A194" t="s" s="2">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="B194" s="2"/>
       <c r="C194" t="s" s="2">
@@ -24767,16 +24755,16 @@
         <v>125</v>
       </c>
       <c r="K194" t="s" s="2">
+        <v>654</v>
+      </c>
+      <c r="L194" t="s" s="2">
+        <v>655</v>
+      </c>
+      <c r="M194" t="s" s="2">
         <v>656</v>
       </c>
-      <c r="L194" t="s" s="2">
+      <c r="N194" t="s" s="2">
         <v>657</v>
-      </c>
-      <c r="M194" t="s" s="2">
-        <v>658</v>
-      </c>
-      <c r="N194" t="s" s="2">
-        <v>659</v>
       </c>
       <c r="O194" t="s" s="2">
         <v>43</v>
@@ -24805,7 +24793,7 @@
       </c>
       <c r="X194" s="2"/>
       <c r="Y194" t="s" s="2">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="Z194" t="s" s="2">
         <v>43</v>
@@ -24823,7 +24811,7 @@
         <v>43</v>
       </c>
       <c r="AE194" t="s" s="2">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="AF194" t="s" s="2">
         <v>50</v>
@@ -24852,7 +24840,7 @@
     </row>
     <row r="195" hidden="true">
       <c r="A195" t="s" s="2">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="B195" s="2"/>
       <c r="C195" t="s" s="2">
@@ -24878,16 +24866,16 @@
         <v>125</v>
       </c>
       <c r="K195" t="s" s="2">
+        <v>660</v>
+      </c>
+      <c r="L195" t="s" s="2">
+        <v>661</v>
+      </c>
+      <c r="M195" t="s" s="2">
         <v>662</v>
       </c>
-      <c r="L195" t="s" s="2">
+      <c r="N195" t="s" s="2">
         <v>663</v>
-      </c>
-      <c r="M195" t="s" s="2">
-        <v>664</v>
-      </c>
-      <c r="N195" t="s" s="2">
-        <v>665</v>
       </c>
       <c r="O195" t="s" s="2">
         <v>43</v>
@@ -24915,10 +24903,10 @@
         <v>140</v>
       </c>
       <c r="X195" t="s" s="2">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="Y195" t="s" s="2">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="Z195" t="s" s="2">
         <v>43</v>
@@ -24936,7 +24924,7 @@
         <v>43</v>
       </c>
       <c r="AE195" t="s" s="2">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="AF195" t="s" s="2">
         <v>41</v>
@@ -24965,7 +24953,7 @@
     </row>
     <row r="196" hidden="true">
       <c r="A196" t="s" s="2">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="B196" s="2"/>
       <c r="C196" t="s" s="2">
@@ -24988,19 +24976,19 @@
         <v>43</v>
       </c>
       <c r="J196" t="s" s="2">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="K196" t="s" s="2">
+        <v>667</v>
+      </c>
+      <c r="L196" t="s" s="2">
+        <v>668</v>
+      </c>
+      <c r="M196" t="s" s="2">
         <v>669</v>
       </c>
-      <c r="L196" t="s" s="2">
+      <c r="N196" t="s" s="2">
         <v>670</v>
-      </c>
-      <c r="M196" t="s" s="2">
-        <v>671</v>
-      </c>
-      <c r="N196" t="s" s="2">
-        <v>672</v>
       </c>
       <c r="O196" t="s" s="2">
         <v>43</v>
@@ -25049,7 +25037,7 @@
         <v>43</v>
       </c>
       <c r="AE196" t="s" s="2">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="AF196" t="s" s="2">
         <v>41</v>
@@ -25078,7 +25066,7 @@
     </row>
     <row r="197" hidden="true">
       <c r="A197" t="s" s="2">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="B197" s="2"/>
       <c r="C197" t="s" s="2">
@@ -25101,19 +25089,19 @@
         <v>43</v>
       </c>
       <c r="J197" t="s" s="2">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="K197" t="s" s="2">
+        <v>672</v>
+      </c>
+      <c r="L197" t="s" s="2">
+        <v>673</v>
+      </c>
+      <c r="M197" t="s" s="2">
         <v>674</v>
       </c>
-      <c r="L197" t="s" s="2">
+      <c r="N197" t="s" s="2">
         <v>675</v>
-      </c>
-      <c r="M197" t="s" s="2">
-        <v>676</v>
-      </c>
-      <c r="N197" t="s" s="2">
-        <v>677</v>
       </c>
       <c r="O197" t="s" s="2">
         <v>43</v>
@@ -25162,7 +25150,7 @@
         <v>43</v>
       </c>
       <c r="AE197" t="s" s="2">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="AF197" t="s" s="2">
         <v>41</v>
@@ -25191,10 +25179,10 @@
     </row>
     <row r="198" hidden="true">
       <c r="A198" t="s" s="2">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="B198" t="s" s="2">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="C198" t="s" s="2">
         <v>43</v>
@@ -25219,14 +25207,14 @@
         <v>211</v>
       </c>
       <c r="K198" t="s" s="2">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="L198" t="s" s="2">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="M198" s="2"/>
       <c r="N198" t="s" s="2">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="O198" t="s" s="2">
         <v>43</v>
@@ -25275,7 +25263,7 @@
         <v>43</v>
       </c>
       <c r="AE198" t="s" s="2">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="AF198" t="s" s="2">
         <v>41</v>
@@ -25304,7 +25292,7 @@
     </row>
     <row r="199" hidden="true">
       <c r="A199" t="s" s="2">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="B199" s="2"/>
       <c r="C199" t="s" s="2">
@@ -25413,7 +25401,7 @@
     </row>
     <row r="200" hidden="true">
       <c r="A200" t="s" s="2">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="B200" s="2"/>
       <c r="C200" t="s" s="2">
@@ -25524,7 +25512,7 @@
     </row>
     <row r="201" hidden="true">
       <c r="A201" t="s" s="2">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="B201" s="2"/>
       <c r="C201" t="s" s="2">
@@ -25637,7 +25625,7 @@
     </row>
     <row r="202" hidden="true">
       <c r="A202" t="s" s="2">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="B202" s="2"/>
       <c r="C202" t="s" s="2">
@@ -25663,23 +25651,23 @@
         <v>125</v>
       </c>
       <c r="K202" t="s" s="2">
+        <v>654</v>
+      </c>
+      <c r="L202" t="s" s="2">
+        <v>655</v>
+      </c>
+      <c r="M202" t="s" s="2">
         <v>656</v>
       </c>
-      <c r="L202" t="s" s="2">
+      <c r="N202" t="s" s="2">
         <v>657</v>
-      </c>
-      <c r="M202" t="s" s="2">
-        <v>658</v>
-      </c>
-      <c r="N202" t="s" s="2">
-        <v>659</v>
       </c>
       <c r="O202" t="s" s="2">
         <v>43</v>
       </c>
       <c r="P202" s="2"/>
       <c r="Q202" t="s" s="2">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="R202" t="s" s="2">
         <v>43</v>
@@ -25700,10 +25688,10 @@
         <v>140</v>
       </c>
       <c r="X202" t="s" s="2">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="Y202" t="s" s="2">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="Z202" t="s" s="2">
         <v>43</v>
@@ -25721,7 +25709,7 @@
         <v>43</v>
       </c>
       <c r="AE202" t="s" s="2">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="AF202" t="s" s="2">
         <v>50</v>
@@ -25750,7 +25738,7 @@
     </row>
     <row r="203" hidden="true">
       <c r="A203" t="s" s="2">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="B203" s="2"/>
       <c r="C203" t="s" s="2">
@@ -25776,16 +25764,16 @@
         <v>125</v>
       </c>
       <c r="K203" t="s" s="2">
+        <v>660</v>
+      </c>
+      <c r="L203" t="s" s="2">
+        <v>661</v>
+      </c>
+      <c r="M203" t="s" s="2">
         <v>662</v>
       </c>
-      <c r="L203" t="s" s="2">
+      <c r="N203" t="s" s="2">
         <v>663</v>
-      </c>
-      <c r="M203" t="s" s="2">
-        <v>664</v>
-      </c>
-      <c r="N203" t="s" s="2">
-        <v>665</v>
       </c>
       <c r="O203" t="s" s="2">
         <v>43</v>
@@ -25814,7 +25802,7 @@
       </c>
       <c r="X203" s="2"/>
       <c r="Y203" t="s" s="2">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="Z203" t="s" s="2">
         <v>43</v>
@@ -25832,7 +25820,7 @@
         <v>43</v>
       </c>
       <c r="AE203" t="s" s="2">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="AF203" t="s" s="2">
         <v>41</v>
@@ -25861,7 +25849,7 @@
     </row>
     <row r="204" hidden="true">
       <c r="A204" t="s" s="2">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="B204" s="2"/>
       <c r="C204" t="s" s="2">
@@ -25884,19 +25872,19 @@
         <v>43</v>
       </c>
       <c r="J204" t="s" s="2">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="K204" t="s" s="2">
+        <v>667</v>
+      </c>
+      <c r="L204" t="s" s="2">
+        <v>668</v>
+      </c>
+      <c r="M204" t="s" s="2">
         <v>669</v>
       </c>
-      <c r="L204" t="s" s="2">
+      <c r="N204" t="s" s="2">
         <v>670</v>
-      </c>
-      <c r="M204" t="s" s="2">
-        <v>671</v>
-      </c>
-      <c r="N204" t="s" s="2">
-        <v>672</v>
       </c>
       <c r="O204" t="s" s="2">
         <v>43</v>
@@ -25945,7 +25933,7 @@
         <v>43</v>
       </c>
       <c r="AE204" t="s" s="2">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="AF204" t="s" s="2">
         <v>41</v>
@@ -25974,7 +25962,7 @@
     </row>
     <row r="205" hidden="true">
       <c r="A205" t="s" s="2">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="B205" s="2"/>
       <c r="C205" t="s" s="2">
@@ -25997,19 +25985,19 @@
         <v>43</v>
       </c>
       <c r="J205" t="s" s="2">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="K205" t="s" s="2">
+        <v>672</v>
+      </c>
+      <c r="L205" t="s" s="2">
+        <v>673</v>
+      </c>
+      <c r="M205" t="s" s="2">
         <v>674</v>
       </c>
-      <c r="L205" t="s" s="2">
+      <c r="N205" t="s" s="2">
         <v>675</v>
-      </c>
-      <c r="M205" t="s" s="2">
-        <v>676</v>
-      </c>
-      <c r="N205" t="s" s="2">
-        <v>677</v>
       </c>
       <c r="O205" t="s" s="2">
         <v>43</v>
@@ -26058,7 +26046,7 @@
         <v>43</v>
       </c>
       <c r="AE205" t="s" s="2">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="AF205" t="s" s="2">
         <v>41</v>
@@ -26087,7 +26075,7 @@
     </row>
     <row r="206" hidden="true">
       <c r="A206" t="s" s="2">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="B206" s="2"/>
       <c r="C206" t="s" s="2">
@@ -26113,10 +26101,10 @@
         <v>211</v>
       </c>
       <c r="K206" t="s" s="2">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="L206" t="s" s="2">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="M206" s="2"/>
       <c r="N206" s="2"/>
@@ -26167,7 +26155,7 @@
         <v>43</v>
       </c>
       <c r="AE206" t="s" s="2">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="AF206" t="s" s="2">
         <v>41</v>
@@ -26196,7 +26184,7 @@
     </row>
     <row r="207" hidden="true">
       <c r="A207" t="s" s="2">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="B207" s="2"/>
       <c r="C207" t="s" s="2">
@@ -26305,7 +26293,7 @@
     </row>
     <row r="208" hidden="true">
       <c r="A208" t="s" s="2">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="B208" s="2"/>
       <c r="C208" t="s" s="2">
@@ -26416,7 +26404,7 @@
     </row>
     <row r="209" hidden="true">
       <c r="A209" t="s" s="2">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="B209" s="2"/>
       <c r="C209" t="s" s="2">
@@ -26529,7 +26517,7 @@
     </row>
     <row r="210" hidden="true">
       <c r="A210" t="s" s="2">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="B210" s="2"/>
       <c r="C210" t="s" s="2">
@@ -26555,14 +26543,14 @@
         <v>326</v>
       </c>
       <c r="K210" t="s" s="2">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="L210" t="s" s="2">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="M210" s="2"/>
       <c r="N210" t="s" s="2">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="O210" t="s" s="2">
         <v>43</v>
@@ -26611,7 +26599,7 @@
         <v>43</v>
       </c>
       <c r="AE210" t="s" s="2">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="AF210" t="s" s="2">
         <v>50</v>
@@ -26640,7 +26628,7 @@
     </row>
     <row r="211" hidden="true">
       <c r="A211" t="s" s="2">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="B211" s="2"/>
       <c r="C211" t="s" s="2">
@@ -26666,14 +26654,14 @@
         <v>125</v>
       </c>
       <c r="K211" t="s" s="2">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="L211" t="s" s="2">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="M211" s="2"/>
       <c r="N211" t="s" s="2">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="O211" t="s" s="2">
         <v>43</v>
@@ -26701,10 +26689,10 @@
         <v>140</v>
       </c>
       <c r="X211" t="s" s="2">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="Y211" t="s" s="2">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="Z211" t="s" s="2">
         <v>43</v>
@@ -26722,7 +26710,7 @@
         <v>43</v>
       </c>
       <c r="AE211" t="s" s="2">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="AF211" t="s" s="2">
         <v>41</v>
@@ -26751,7 +26739,7 @@
     </row>
     <row r="212" hidden="true">
       <c r="A212" t="s" s="2">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="B212" s="2"/>
       <c r="C212" t="s" s="2">
@@ -26777,16 +26765,16 @@
         <v>125</v>
       </c>
       <c r="K212" t="s" s="2">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="L212" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="M212" t="s" s="2">
+        <v>693</v>
+      </c>
+      <c r="N212" t="s" s="2">
         <v>572</v>
-      </c>
-      <c r="M212" t="s" s="2">
-        <v>695</v>
-      </c>
-      <c r="N212" t="s" s="2">
-        <v>574</v>
       </c>
       <c r="O212" t="s" s="2">
         <v>43</v>
@@ -26814,10 +26802,10 @@
         <v>140</v>
       </c>
       <c r="X212" t="s" s="2">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="Y212" t="s" s="2">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="Z212" t="s" s="2">
         <v>43</v>
@@ -26835,7 +26823,7 @@
         <v>43</v>
       </c>
       <c r="AE212" t="s" s="2">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="AF212" t="s" s="2">
         <v>41</v>
@@ -26864,11 +26852,11 @@
     </row>
     <row r="213" hidden="true">
       <c r="A213" t="s" s="2">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="B213" s="2"/>
       <c r="C213" t="s" s="2">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="D213" s="2"/>
       <c r="E213" t="s" s="2">
@@ -26890,16 +26878,16 @@
         <v>125</v>
       </c>
       <c r="K213" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="L213" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="M213" t="s" s="2">
         <v>578</v>
       </c>
-      <c r="L213" t="s" s="2">
+      <c r="N213" t="s" s="2">
         <v>579</v>
-      </c>
-      <c r="M213" t="s" s="2">
-        <v>580</v>
-      </c>
-      <c r="N213" t="s" s="2">
-        <v>581</v>
       </c>
       <c r="O213" t="s" s="2">
         <v>43</v>
@@ -26927,10 +26915,10 @@
         <v>140</v>
       </c>
       <c r="X213" t="s" s="2">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="Y213" t="s" s="2">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="Z213" t="s" s="2">
         <v>43</v>
@@ -26948,7 +26936,7 @@
         <v>43</v>
       </c>
       <c r="AE213" t="s" s="2">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="AF213" t="s" s="2">
         <v>50</v>
@@ -26977,7 +26965,7 @@
     </row>
     <row r="214" hidden="true">
       <c r="A214" t="s" s="2">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="B214" s="2"/>
       <c r="C214" t="s" s="2">
@@ -27003,16 +26991,16 @@
         <v>125</v>
       </c>
       <c r="K214" t="s" s="2">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="L214" t="s" s="2">
+        <v>583</v>
+      </c>
+      <c r="M214" t="s" s="2">
+        <v>584</v>
+      </c>
+      <c r="N214" t="s" s="2">
         <v>585</v>
-      </c>
-      <c r="M214" t="s" s="2">
-        <v>586</v>
-      </c>
-      <c r="N214" t="s" s="2">
-        <v>587</v>
       </c>
       <c r="O214" t="s" s="2">
         <v>43</v>
@@ -27040,10 +27028,10 @@
         <v>140</v>
       </c>
       <c r="X214" t="s" s="2">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="Y214" t="s" s="2">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="Z214" t="s" s="2">
         <v>43</v>
@@ -27061,7 +27049,7 @@
         <v>43</v>
       </c>
       <c r="AE214" t="s" s="2">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="AF214" t="s" s="2">
         <v>41</v>
@@ -27090,7 +27078,7 @@
     </row>
     <row r="215" hidden="true">
       <c r="A215" t="s" s="2">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="B215" s="2"/>
       <c r="C215" t="s" s="2">
@@ -27116,16 +27104,16 @@
         <v>125</v>
       </c>
       <c r="K215" t="s" s="2">
+        <v>588</v>
+      </c>
+      <c r="L215" t="s" s="2">
+        <v>589</v>
+      </c>
+      <c r="M215" t="s" s="2">
         <v>590</v>
       </c>
-      <c r="L215" t="s" s="2">
+      <c r="N215" t="s" s="2">
         <v>591</v>
-      </c>
-      <c r="M215" t="s" s="2">
-        <v>592</v>
-      </c>
-      <c r="N215" t="s" s="2">
-        <v>593</v>
       </c>
       <c r="O215" t="s" s="2">
         <v>43</v>
@@ -27153,10 +27141,10 @@
         <v>140</v>
       </c>
       <c r="X215" t="s" s="2">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="Y215" t="s" s="2">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="Z215" t="s" s="2">
         <v>43</v>
@@ -27174,7 +27162,7 @@
         <v>43</v>
       </c>
       <c r="AE215" t="s" s="2">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="AF215" t="s" s="2">
         <v>41</v>
@@ -27203,7 +27191,7 @@
     </row>
     <row r="216" hidden="true">
       <c r="A216" t="s" s="2">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="B216" s="2"/>
       <c r="C216" t="s" s="2">
@@ -27226,17 +27214,17 @@
         <v>43</v>
       </c>
       <c r="J216" t="s" s="2">
+        <v>604</v>
+      </c>
+      <c r="K216" t="s" s="2">
+        <v>605</v>
+      </c>
+      <c r="L216" t="s" s="2">
         <v>606</v>
-      </c>
-      <c r="K216" t="s" s="2">
-        <v>607</v>
-      </c>
-      <c r="L216" t="s" s="2">
-        <v>608</v>
       </c>
       <c r="M216" s="2"/>
       <c r="N216" t="s" s="2">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="O216" t="s" s="2">
         <v>43</v>
@@ -27285,7 +27273,7 @@
         <v>43</v>
       </c>
       <c r="AE216" t="s" s="2">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="AF216" t="s" s="2">
         <v>41</v>
@@ -27314,7 +27302,7 @@
     </row>
     <row r="217" hidden="true">
       <c r="A217" t="s" s="2">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="B217" s="2"/>
       <c r="C217" t="s" s="2">
@@ -27337,17 +27325,17 @@
         <v>43</v>
       </c>
       <c r="J217" t="s" s="2">
+        <v>609</v>
+      </c>
+      <c r="K217" t="s" s="2">
+        <v>610</v>
+      </c>
+      <c r="L217" t="s" s="2">
         <v>611</v>
-      </c>
-      <c r="K217" t="s" s="2">
-        <v>612</v>
-      </c>
-      <c r="L217" t="s" s="2">
-        <v>613</v>
       </c>
       <c r="M217" s="2"/>
       <c r="N217" t="s" s="2">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="O217" t="s" s="2">
         <v>43</v>
@@ -27396,7 +27384,7 @@
         <v>43</v>
       </c>
       <c r="AE217" t="s" s="2">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="AF217" t="s" s="2">
         <v>41</v>
@@ -27425,7 +27413,7 @@
     </row>
     <row r="218" hidden="true">
       <c r="A218" t="s" s="2">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="B218" s="2"/>
       <c r="C218" t="s" s="2">
@@ -27448,19 +27436,19 @@
         <v>43</v>
       </c>
       <c r="J218" t="s" s="2">
+        <v>614</v>
+      </c>
+      <c r="K218" t="s" s="2">
+        <v>615</v>
+      </c>
+      <c r="L218" t="s" s="2">
         <v>616</v>
       </c>
-      <c r="K218" t="s" s="2">
+      <c r="M218" t="s" s="2">
         <v>617</v>
       </c>
-      <c r="L218" t="s" s="2">
+      <c r="N218" t="s" s="2">
         <v>618</v>
-      </c>
-      <c r="M218" t="s" s="2">
-        <v>619</v>
-      </c>
-      <c r="N218" t="s" s="2">
-        <v>620</v>
       </c>
       <c r="O218" t="s" s="2">
         <v>43</v>
@@ -27509,7 +27497,7 @@
         <v>43</v>
       </c>
       <c r="AE218" t="s" s="2">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="AF218" t="s" s="2">
         <v>41</v>
@@ -27538,7 +27526,7 @@
     </row>
     <row r="219" hidden="true">
       <c r="A219" t="s" s="2">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="B219" s="2"/>
       <c r="C219" t="s" s="2">
@@ -27561,19 +27549,19 @@
         <v>43</v>
       </c>
       <c r="J219" t="s" s="2">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="K219" t="s" s="2">
+        <v>620</v>
+      </c>
+      <c r="L219" t="s" s="2">
+        <v>621</v>
+      </c>
+      <c r="M219" t="s" s="2">
         <v>622</v>
       </c>
-      <c r="L219" t="s" s="2">
+      <c r="N219" t="s" s="2">
         <v>623</v>
-      </c>
-      <c r="M219" t="s" s="2">
-        <v>624</v>
-      </c>
-      <c r="N219" t="s" s="2">
-        <v>625</v>
       </c>
       <c r="O219" t="s" s="2">
         <v>43</v>
@@ -27622,7 +27610,7 @@
         <v>43</v>
       </c>
       <c r="AE219" t="s" s="2">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="AF219" t="s" s="2">
         <v>41</v>
@@ -27651,7 +27639,7 @@
     </row>
     <row r="220" hidden="true">
       <c r="A220" t="s" s="2">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="B220" s="2"/>
       <c r="C220" t="s" s="2">
@@ -27674,17 +27662,17 @@
         <v>43</v>
       </c>
       <c r="J220" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="K220" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="L220" t="s" s="2">
         <v>475</v>
-      </c>
-      <c r="K220" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="L220" t="s" s="2">
-        <v>477</v>
       </c>
       <c r="M220" s="2"/>
       <c r="N220" t="s" s="2">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="O220" t="s" s="2">
         <v>43</v>
@@ -27733,7 +27721,7 @@
         <v>43</v>
       </c>
       <c r="AE220" t="s" s="2">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="AF220" t="s" s="2">
         <v>41</v>
@@ -27762,7 +27750,7 @@
     </row>
     <row r="221" hidden="true">
       <c r="A221" t="s" s="2">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="B221" s="2"/>
       <c r="C221" t="s" s="2">
@@ -27788,14 +27776,14 @@
         <v>326</v>
       </c>
       <c r="K221" t="s" s="2">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="L221" t="s" s="2">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="M221" s="2"/>
       <c r="N221" t="s" s="2">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="O221" t="s" s="2">
         <v>43</v>
@@ -27844,7 +27832,7 @@
         <v>43</v>
       </c>
       <c r="AE221" t="s" s="2">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="AF221" t="s" s="2">
         <v>41</v>
@@ -27873,7 +27861,7 @@
     </row>
     <row r="222" hidden="true">
       <c r="A222" t="s" s="2">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="B222" s="2"/>
       <c r="C222" t="s" s="2">
@@ -27899,10 +27887,10 @@
         <v>43</v>
       </c>
       <c r="K222" t="s" s="2">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="L222" t="s" s="2">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="M222" s="2"/>
       <c r="N222" s="2"/>
@@ -27953,7 +27941,7 @@
         <v>43</v>
       </c>
       <c r="AE222" t="s" s="2">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="AF222" t="s" s="2">
         <v>41</v>
@@ -27982,7 +27970,7 @@
     </row>
     <row r="223" hidden="true">
       <c r="A223" t="s" s="2">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="B223" s="2"/>
       <c r="C223" t="s" s="2">
@@ -28008,10 +27996,10 @@
         <v>211</v>
       </c>
       <c r="K223" t="s" s="2">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="L223" t="s" s="2">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="M223" s="2"/>
       <c r="N223" s="2"/>
@@ -28062,7 +28050,7 @@
         <v>43</v>
       </c>
       <c r="AE223" t="s" s="2">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="AF223" t="s" s="2">
         <v>41</v>
@@ -28091,7 +28079,7 @@
     </row>
     <row r="224" hidden="true">
       <c r="A224" t="s" s="2">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="B224" s="2"/>
       <c r="C224" t="s" s="2">
@@ -28200,7 +28188,7 @@
     </row>
     <row r="225" hidden="true">
       <c r="A225" t="s" s="2">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="B225" s="2"/>
       <c r="C225" t="s" s="2">
@@ -28311,7 +28299,7 @@
     </row>
     <row r="226" hidden="true">
       <c r="A226" t="s" s="2">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="B226" s="2"/>
       <c r="C226" t="s" s="2">
@@ -28424,7 +28412,7 @@
     </row>
     <row r="227" hidden="true">
       <c r="A227" t="s" s="2">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="B227" s="2"/>
       <c r="C227" t="s" s="2">
@@ -28450,14 +28438,14 @@
         <v>326</v>
       </c>
       <c r="K227" t="s" s="2">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="L227" t="s" s="2">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="M227" s="2"/>
       <c r="N227" t="s" s="2">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="O227" t="s" s="2">
         <v>43</v>
@@ -28506,7 +28494,7 @@
         <v>43</v>
       </c>
       <c r="AE227" t="s" s="2">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="AF227" t="s" s="2">
         <v>50</v>
@@ -28535,7 +28523,7 @@
     </row>
     <row r="228" hidden="true">
       <c r="A228" t="s" s="2">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="B228" s="2"/>
       <c r="C228" t="s" s="2">
@@ -28561,14 +28549,14 @@
         <v>125</v>
       </c>
       <c r="K228" t="s" s="2">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="L228" t="s" s="2">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="M228" s="2"/>
       <c r="N228" t="s" s="2">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="O228" t="s" s="2">
         <v>43</v>
@@ -28596,10 +28584,10 @@
         <v>140</v>
       </c>
       <c r="X228" t="s" s="2">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="Y228" t="s" s="2">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="Z228" t="s" s="2">
         <v>43</v>
@@ -28617,7 +28605,7 @@
         <v>43</v>
       </c>
       <c r="AE228" t="s" s="2">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="AF228" t="s" s="2">
         <v>41</v>
@@ -28646,7 +28634,7 @@
     </row>
     <row r="229" hidden="true">
       <c r="A229" t="s" s="2">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="B229" s="2"/>
       <c r="C229" t="s" s="2">
@@ -28672,16 +28660,16 @@
         <v>125</v>
       </c>
       <c r="K229" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="L229" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="M229" t="s" s="2">
         <v>571</v>
       </c>
-      <c r="L229" t="s" s="2">
+      <c r="N229" t="s" s="2">
         <v>572</v>
-      </c>
-      <c r="M229" t="s" s="2">
-        <v>573</v>
-      </c>
-      <c r="N229" t="s" s="2">
-        <v>574</v>
       </c>
       <c r="O229" t="s" s="2">
         <v>43</v>
@@ -28709,10 +28697,10 @@
         <v>140</v>
       </c>
       <c r="X229" t="s" s="2">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="Y229" t="s" s="2">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="Z229" t="s" s="2">
         <v>43</v>
@@ -28730,7 +28718,7 @@
         <v>43</v>
       </c>
       <c r="AE229" t="s" s="2">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="AF229" t="s" s="2">
         <v>41</v>
@@ -28759,11 +28747,11 @@
     </row>
     <row r="230" hidden="true">
       <c r="A230" t="s" s="2">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="B230" s="2"/>
       <c r="C230" t="s" s="2">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="D230" s="2"/>
       <c r="E230" t="s" s="2">
@@ -28785,16 +28773,16 @@
         <v>125</v>
       </c>
       <c r="K230" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="L230" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="M230" t="s" s="2">
         <v>578</v>
       </c>
-      <c r="L230" t="s" s="2">
+      <c r="N230" t="s" s="2">
         <v>579</v>
-      </c>
-      <c r="M230" t="s" s="2">
-        <v>580</v>
-      </c>
-      <c r="N230" t="s" s="2">
-        <v>581</v>
       </c>
       <c r="O230" t="s" s="2">
         <v>43</v>
@@ -28822,10 +28810,10 @@
         <v>140</v>
       </c>
       <c r="X230" t="s" s="2">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="Y230" t="s" s="2">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="Z230" t="s" s="2">
         <v>43</v>
@@ -28843,7 +28831,7 @@
         <v>43</v>
       </c>
       <c r="AE230" t="s" s="2">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="AF230" t="s" s="2">
         <v>50</v>
@@ -28872,7 +28860,7 @@
     </row>
     <row r="231" hidden="true">
       <c r="A231" t="s" s="2">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="B231" s="2"/>
       <c r="C231" t="s" s="2">
@@ -28898,16 +28886,16 @@
         <v>125</v>
       </c>
       <c r="K231" t="s" s="2">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="L231" t="s" s="2">
+        <v>583</v>
+      </c>
+      <c r="M231" t="s" s="2">
+        <v>723</v>
+      </c>
+      <c r="N231" t="s" s="2">
         <v>585</v>
-      </c>
-      <c r="M231" t="s" s="2">
-        <v>725</v>
-      </c>
-      <c r="N231" t="s" s="2">
-        <v>587</v>
       </c>
       <c r="O231" t="s" s="2">
         <v>43</v>
@@ -28935,10 +28923,10 @@
         <v>140</v>
       </c>
       <c r="X231" t="s" s="2">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="Y231" t="s" s="2">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="Z231" t="s" s="2">
         <v>43</v>
@@ -28956,7 +28944,7 @@
         <v>43</v>
       </c>
       <c r="AE231" t="s" s="2">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="AF231" t="s" s="2">
         <v>41</v>
@@ -28985,7 +28973,7 @@
     </row>
     <row r="232" hidden="true">
       <c r="A232" t="s" s="2">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="B232" s="2"/>
       <c r="C232" t="s" s="2">
@@ -29011,16 +28999,16 @@
         <v>125</v>
       </c>
       <c r="K232" t="s" s="2">
+        <v>588</v>
+      </c>
+      <c r="L232" t="s" s="2">
+        <v>589</v>
+      </c>
+      <c r="M232" t="s" s="2">
         <v>590</v>
       </c>
-      <c r="L232" t="s" s="2">
+      <c r="N232" t="s" s="2">
         <v>591</v>
-      </c>
-      <c r="M232" t="s" s="2">
-        <v>592</v>
-      </c>
-      <c r="N232" t="s" s="2">
-        <v>593</v>
       </c>
       <c r="O232" t="s" s="2">
         <v>43</v>
@@ -29048,10 +29036,10 @@
         <v>140</v>
       </c>
       <c r="X232" t="s" s="2">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="Y232" t="s" s="2">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="Z232" t="s" s="2">
         <v>43</v>
@@ -29069,7 +29057,7 @@
         <v>43</v>
       </c>
       <c r="AE232" t="s" s="2">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="AF232" t="s" s="2">
         <v>41</v>
@@ -29098,7 +29086,7 @@
     </row>
     <row r="233" hidden="true">
       <c r="A233" t="s" s="2">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="B233" s="2"/>
       <c r="C233" t="s" s="2">
@@ -29121,17 +29109,17 @@
         <v>43</v>
       </c>
       <c r="J233" t="s" s="2">
+        <v>604</v>
+      </c>
+      <c r="K233" t="s" s="2">
+        <v>605</v>
+      </c>
+      <c r="L233" t="s" s="2">
         <v>606</v>
-      </c>
-      <c r="K233" t="s" s="2">
-        <v>607</v>
-      </c>
-      <c r="L233" t="s" s="2">
-        <v>608</v>
       </c>
       <c r="M233" s="2"/>
       <c r="N233" t="s" s="2">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="O233" t="s" s="2">
         <v>43</v>
@@ -29180,7 +29168,7 @@
         <v>43</v>
       </c>
       <c r="AE233" t="s" s="2">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="AF233" t="s" s="2">
         <v>41</v>
@@ -29209,7 +29197,7 @@
     </row>
     <row r="234" hidden="true">
       <c r="A234" t="s" s="2">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="B234" s="2"/>
       <c r="C234" t="s" s="2">
@@ -29232,17 +29220,17 @@
         <v>43</v>
       </c>
       <c r="J234" t="s" s="2">
+        <v>609</v>
+      </c>
+      <c r="K234" t="s" s="2">
+        <v>610</v>
+      </c>
+      <c r="L234" t="s" s="2">
         <v>611</v>
-      </c>
-      <c r="K234" t="s" s="2">
-        <v>612</v>
-      </c>
-      <c r="L234" t="s" s="2">
-        <v>613</v>
       </c>
       <c r="M234" s="2"/>
       <c r="N234" t="s" s="2">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="O234" t="s" s="2">
         <v>43</v>
@@ -29291,7 +29279,7 @@
         <v>43</v>
       </c>
       <c r="AE234" t="s" s="2">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="AF234" t="s" s="2">
         <v>41</v>
@@ -29320,7 +29308,7 @@
     </row>
     <row r="235" hidden="true">
       <c r="A235" t="s" s="2">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="B235" s="2"/>
       <c r="C235" t="s" s="2">
@@ -29343,19 +29331,19 @@
         <v>43</v>
       </c>
       <c r="J235" t="s" s="2">
+        <v>614</v>
+      </c>
+      <c r="K235" t="s" s="2">
+        <v>615</v>
+      </c>
+      <c r="L235" t="s" s="2">
         <v>616</v>
       </c>
-      <c r="K235" t="s" s="2">
+      <c r="M235" t="s" s="2">
         <v>617</v>
       </c>
-      <c r="L235" t="s" s="2">
+      <c r="N235" t="s" s="2">
         <v>618</v>
-      </c>
-      <c r="M235" t="s" s="2">
-        <v>619</v>
-      </c>
-      <c r="N235" t="s" s="2">
-        <v>620</v>
       </c>
       <c r="O235" t="s" s="2">
         <v>43</v>
@@ -29404,7 +29392,7 @@
         <v>43</v>
       </c>
       <c r="AE235" t="s" s="2">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="AF235" t="s" s="2">
         <v>41</v>
@@ -29433,7 +29421,7 @@
     </row>
     <row r="236" hidden="true">
       <c r="A236" t="s" s="2">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="B236" s="2"/>
       <c r="C236" t="s" s="2">
@@ -29456,19 +29444,19 @@
         <v>43</v>
       </c>
       <c r="J236" t="s" s="2">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="K236" t="s" s="2">
+        <v>620</v>
+      </c>
+      <c r="L236" t="s" s="2">
+        <v>621</v>
+      </c>
+      <c r="M236" t="s" s="2">
         <v>622</v>
       </c>
-      <c r="L236" t="s" s="2">
+      <c r="N236" t="s" s="2">
         <v>623</v>
-      </c>
-      <c r="M236" t="s" s="2">
-        <v>624</v>
-      </c>
-      <c r="N236" t="s" s="2">
-        <v>625</v>
       </c>
       <c r="O236" t="s" s="2">
         <v>43</v>
@@ -29517,7 +29505,7 @@
         <v>43</v>
       </c>
       <c r="AE236" t="s" s="2">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="AF236" t="s" s="2">
         <v>41</v>
@@ -29546,7 +29534,7 @@
     </row>
     <row r="237" hidden="true">
       <c r="A237" t="s" s="2">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="B237" s="2"/>
       <c r="C237" t="s" s="2">
@@ -29569,17 +29557,17 @@
         <v>43</v>
       </c>
       <c r="J237" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="K237" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="L237" t="s" s="2">
         <v>475</v>
-      </c>
-      <c r="K237" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="L237" t="s" s="2">
-        <v>477</v>
       </c>
       <c r="M237" s="2"/>
       <c r="N237" t="s" s="2">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="O237" t="s" s="2">
         <v>43</v>
@@ -29628,7 +29616,7 @@
         <v>43</v>
       </c>
       <c r="AE237" t="s" s="2">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="AF237" t="s" s="2">
         <v>41</v>
@@ -29657,7 +29645,7 @@
     </row>
     <row r="238" hidden="true">
       <c r="A238" t="s" s="2">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="B238" s="2"/>
       <c r="C238" t="s" s="2">
@@ -29683,14 +29671,14 @@
         <v>326</v>
       </c>
       <c r="K238" t="s" s="2">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="L238" t="s" s="2">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="M238" s="2"/>
       <c r="N238" t="s" s="2">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="O238" t="s" s="2">
         <v>43</v>
@@ -29739,7 +29727,7 @@
         <v>43</v>
       </c>
       <c r="AE238" t="s" s="2">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="AF238" t="s" s="2">
         <v>41</v>
@@ -29768,7 +29756,7 @@
     </row>
     <row r="239" hidden="true">
       <c r="A239" t="s" s="2">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B239" s="2"/>
       <c r="C239" t="s" s="2">
@@ -29794,10 +29782,10 @@
         <v>43</v>
       </c>
       <c r="K239" t="s" s="2">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="L239" t="s" s="2">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="M239" s="2"/>
       <c r="N239" s="2"/>
@@ -29848,7 +29836,7 @@
         <v>43</v>
       </c>
       <c r="AE239" t="s" s="2">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="AF239" t="s" s="2">
         <v>41</v>
@@ -29877,7 +29865,7 @@
     </row>
     <row r="240" hidden="true">
       <c r="A240" t="s" s="2">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="B240" s="2"/>
       <c r="C240" t="s" s="2">
@@ -29903,14 +29891,14 @@
         <v>211</v>
       </c>
       <c r="K240" t="s" s="2">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="L240" t="s" s="2">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="M240" s="2"/>
       <c r="N240" t="s" s="2">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="O240" t="s" s="2">
         <v>43</v>
@@ -29959,7 +29947,7 @@
         <v>43</v>
       </c>
       <c r="AE240" t="s" s="2">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="AF240" t="s" s="2">
         <v>41</v>
@@ -29988,7 +29976,7 @@
     </row>
     <row r="241" hidden="true">
       <c r="A241" t="s" s="2">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="B241" s="2"/>
       <c r="C241" t="s" s="2">
@@ -30097,7 +30085,7 @@
     </row>
     <row r="242" hidden="true">
       <c r="A242" t="s" s="2">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B242" s="2"/>
       <c r="C242" t="s" s="2">
@@ -30208,7 +30196,7 @@
     </row>
     <row r="243" hidden="true">
       <c r="A243" t="s" s="2">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="B243" s="2"/>
       <c r="C243" t="s" s="2">
@@ -30321,7 +30309,7 @@
     </row>
     <row r="244" hidden="true">
       <c r="A244" t="s" s="2">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="B244" s="2"/>
       <c r="C244" t="s" s="2">
@@ -30347,14 +30335,14 @@
         <v>326</v>
       </c>
       <c r="K244" t="s" s="2">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="L244" t="s" s="2">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="M244" s="2"/>
       <c r="N244" t="s" s="2">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="O244" t="s" s="2">
         <v>43</v>
@@ -30403,7 +30391,7 @@
         <v>43</v>
       </c>
       <c r="AE244" t="s" s="2">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="AF244" t="s" s="2">
         <v>41</v>
@@ -30432,7 +30420,7 @@
     </row>
     <row r="245" hidden="true">
       <c r="A245" t="s" s="2">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="B245" s="2"/>
       <c r="C245" t="s" s="2">
@@ -30458,14 +30446,14 @@
         <v>326</v>
       </c>
       <c r="K245" t="s" s="2">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="L245" t="s" s="2">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="M245" s="2"/>
       <c r="N245" t="s" s="2">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="O245" t="s" s="2">
         <v>43</v>
@@ -30514,7 +30502,7 @@
         <v>43</v>
       </c>
       <c r="AE245" t="s" s="2">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="AF245" t="s" s="2">
         <v>41</v>
@@ -30543,7 +30531,7 @@
     </row>
     <row r="246" hidden="true">
       <c r="A246" t="s" s="2">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B246" s="2"/>
       <c r="C246" t="s" s="2">
@@ -30569,14 +30557,14 @@
         <v>326</v>
       </c>
       <c r="K246" t="s" s="2">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="L246" t="s" s="2">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="M246" s="2"/>
       <c r="N246" t="s" s="2">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="O246" t="s" s="2">
         <v>43</v>
@@ -30625,7 +30613,7 @@
         <v>43</v>
       </c>
       <c r="AE246" t="s" s="2">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="AF246" t="s" s="2">
         <v>41</v>
@@ -30654,7 +30642,7 @@
     </row>
     <row r="247" hidden="true">
       <c r="A247" t="s" s="2">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="B247" s="2"/>
       <c r="C247" t="s" s="2">
@@ -30677,17 +30665,17 @@
         <v>43</v>
       </c>
       <c r="J247" t="s" s="2">
-        <v>331</v>
+        <v>753</v>
       </c>
       <c r="K247" t="s" s="2">
+        <v>754</v>
+      </c>
+      <c r="L247" t="s" s="2">
         <v>755</v>
-      </c>
-      <c r="L247" t="s" s="2">
-        <v>756</v>
       </c>
       <c r="M247" s="2"/>
       <c r="N247" t="s" s="2">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="O247" t="s" s="2">
         <v>43</v>
@@ -30736,7 +30724,7 @@
         <v>43</v>
       </c>
       <c r="AE247" t="s" s="2">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="AF247" t="s" s="2">
         <v>41</v>
@@ -30765,11 +30753,11 @@
     </row>
     <row r="248" hidden="true">
       <c r="A248" t="s" s="2">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="B248" s="2"/>
       <c r="C248" t="s" s="2">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="D248" s="2"/>
       <c r="E248" t="s" s="2">
@@ -30791,16 +30779,16 @@
         <v>125</v>
       </c>
       <c r="K248" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="L248" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="M248" t="s" s="2">
         <v>578</v>
       </c>
-      <c r="L248" t="s" s="2">
+      <c r="N248" t="s" s="2">
         <v>579</v>
-      </c>
-      <c r="M248" t="s" s="2">
-        <v>580</v>
-      </c>
-      <c r="N248" t="s" s="2">
-        <v>581</v>
       </c>
       <c r="O248" t="s" s="2">
         <v>43</v>
@@ -30828,10 +30816,10 @@
         <v>140</v>
       </c>
       <c r="X248" t="s" s="2">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="Y248" t="s" s="2">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="Z248" t="s" s="2">
         <v>43</v>
@@ -30849,7 +30837,7 @@
         <v>43</v>
       </c>
       <c r="AE248" t="s" s="2">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="AF248" t="s" s="2">
         <v>50</v>
@@ -30878,7 +30866,7 @@
     </row>
     <row r="249" hidden="true">
       <c r="A249" t="s" s="2">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="B249" s="2"/>
       <c r="C249" t="s" s="2">
@@ -30904,16 +30892,16 @@
         <v>125</v>
       </c>
       <c r="K249" t="s" s="2">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="L249" t="s" s="2">
+        <v>583</v>
+      </c>
+      <c r="M249" t="s" s="2">
+        <v>584</v>
+      </c>
+      <c r="N249" t="s" s="2">
         <v>585</v>
-      </c>
-      <c r="M249" t="s" s="2">
-        <v>586</v>
-      </c>
-      <c r="N249" t="s" s="2">
-        <v>587</v>
       </c>
       <c r="O249" t="s" s="2">
         <v>43</v>
@@ -30941,10 +30929,10 @@
         <v>140</v>
       </c>
       <c r="X249" t="s" s="2">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="Y249" t="s" s="2">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="Z249" t="s" s="2">
         <v>43</v>
@@ -30962,7 +30950,7 @@
         <v>43</v>
       </c>
       <c r="AE249" t="s" s="2">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="AF249" t="s" s="2">
         <v>41</v>
@@ -30991,7 +30979,7 @@
     </row>
     <row r="250" hidden="true">
       <c r="A250" t="s" s="2">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="B250" s="2"/>
       <c r="C250" t="s" s="2">
@@ -31017,16 +31005,16 @@
         <v>125</v>
       </c>
       <c r="K250" t="s" s="2">
+        <v>588</v>
+      </c>
+      <c r="L250" t="s" s="2">
+        <v>589</v>
+      </c>
+      <c r="M250" t="s" s="2">
         <v>590</v>
       </c>
-      <c r="L250" t="s" s="2">
+      <c r="N250" t="s" s="2">
         <v>591</v>
-      </c>
-      <c r="M250" t="s" s="2">
-        <v>592</v>
-      </c>
-      <c r="N250" t="s" s="2">
-        <v>593</v>
       </c>
       <c r="O250" t="s" s="2">
         <v>43</v>
@@ -31054,10 +31042,10 @@
         <v>140</v>
       </c>
       <c r="X250" t="s" s="2">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="Y250" t="s" s="2">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="Z250" t="s" s="2">
         <v>43</v>
@@ -31075,7 +31063,7 @@
         <v>43</v>
       </c>
       <c r="AE250" t="s" s="2">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="AF250" t="s" s="2">
         <v>41</v>
@@ -31104,7 +31092,7 @@
     </row>
     <row r="251" hidden="true">
       <c r="A251" t="s" s="2">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B251" s="2"/>
       <c r="C251" t="s" s="2">
@@ -31130,14 +31118,14 @@
         <v>381</v>
       </c>
       <c r="K251" t="s" s="2">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="L251" t="s" s="2">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="M251" s="2"/>
       <c r="N251" t="s" s="2">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="O251" t="s" s="2">
         <v>43</v>
@@ -31186,7 +31174,7 @@
         <v>43</v>
       </c>
       <c r="AE251" t="s" s="2">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="AF251" t="s" s="2">
         <v>41</v>
@@ -31215,7 +31203,7 @@
     </row>
     <row r="252" hidden="true">
       <c r="A252" t="s" s="2">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B252" s="2"/>
       <c r="C252" t="s" s="2">
@@ -31238,17 +31226,17 @@
         <v>43</v>
       </c>
       <c r="J252" t="s" s="2">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="K252" t="s" s="2">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="L252" t="s" s="2">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="M252" s="2"/>
       <c r="N252" t="s" s="2">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="O252" t="s" s="2">
         <v>43</v>
@@ -31276,11 +31264,11 @@
         <v>140</v>
       </c>
       <c r="X252" t="s" s="2">
+        <v>763</v>
+      </c>
+      <c r="Y252" t="s" s="2">
         <v>764</v>
       </c>
-      <c r="Y252" t="s" s="2">
-        <v>765</v>
-      </c>
       <c r="Z252" t="s" s="2">
         <v>43</v>
       </c>
@@ -31297,7 +31285,7 @@
         <v>43</v>
       </c>
       <c r="AE252" t="s" s="2">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="AF252" t="s" s="2">
         <v>41</v>
@@ -31326,7 +31314,7 @@
     </row>
     <row r="253" hidden="true">
       <c r="A253" t="s" s="2">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B253" s="2"/>
       <c r="C253" t="s" s="2">
@@ -31349,17 +31337,17 @@
         <v>43</v>
       </c>
       <c r="J253" t="s" s="2">
+        <v>604</v>
+      </c>
+      <c r="K253" t="s" s="2">
+        <v>605</v>
+      </c>
+      <c r="L253" t="s" s="2">
         <v>606</v>
-      </c>
-      <c r="K253" t="s" s="2">
-        <v>607</v>
-      </c>
-      <c r="L253" t="s" s="2">
-        <v>608</v>
       </c>
       <c r="M253" s="2"/>
       <c r="N253" t="s" s="2">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="O253" t="s" s="2">
         <v>43</v>
@@ -31408,7 +31396,7 @@
         <v>43</v>
       </c>
       <c r="AE253" t="s" s="2">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="AF253" t="s" s="2">
         <v>41</v>
@@ -31437,7 +31425,7 @@
     </row>
     <row r="254" hidden="true">
       <c r="A254" t="s" s="2">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B254" s="2"/>
       <c r="C254" t="s" s="2">
@@ -31460,17 +31448,17 @@
         <v>43</v>
       </c>
       <c r="J254" t="s" s="2">
+        <v>609</v>
+      </c>
+      <c r="K254" t="s" s="2">
+        <v>610</v>
+      </c>
+      <c r="L254" t="s" s="2">
         <v>611</v>
-      </c>
-      <c r="K254" t="s" s="2">
-        <v>612</v>
-      </c>
-      <c r="L254" t="s" s="2">
-        <v>613</v>
       </c>
       <c r="M254" s="2"/>
       <c r="N254" t="s" s="2">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="O254" t="s" s="2">
         <v>43</v>
@@ -31519,7 +31507,7 @@
         <v>43</v>
       </c>
       <c r="AE254" t="s" s="2">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="AF254" t="s" s="2">
         <v>41</v>
@@ -31548,7 +31536,7 @@
     </row>
     <row r="255" hidden="true">
       <c r="A255" t="s" s="2">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B255" s="2"/>
       <c r="C255" t="s" s="2">
@@ -31571,19 +31559,19 @@
         <v>43</v>
       </c>
       <c r="J255" t="s" s="2">
+        <v>614</v>
+      </c>
+      <c r="K255" t="s" s="2">
+        <v>615</v>
+      </c>
+      <c r="L255" t="s" s="2">
         <v>616</v>
       </c>
-      <c r="K255" t="s" s="2">
+      <c r="M255" t="s" s="2">
         <v>617</v>
       </c>
-      <c r="L255" t="s" s="2">
+      <c r="N255" t="s" s="2">
         <v>618</v>
-      </c>
-      <c r="M255" t="s" s="2">
-        <v>619</v>
-      </c>
-      <c r="N255" t="s" s="2">
-        <v>620</v>
       </c>
       <c r="O255" t="s" s="2">
         <v>43</v>
@@ -31632,7 +31620,7 @@
         <v>43</v>
       </c>
       <c r="AE255" t="s" s="2">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="AF255" t="s" s="2">
         <v>41</v>
@@ -31661,7 +31649,7 @@
     </row>
     <row r="256" hidden="true">
       <c r="A256" t="s" s="2">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="B256" s="2"/>
       <c r="C256" t="s" s="2">
@@ -31684,19 +31672,19 @@
         <v>43</v>
       </c>
       <c r="J256" t="s" s="2">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="K256" t="s" s="2">
+        <v>620</v>
+      </c>
+      <c r="L256" t="s" s="2">
+        <v>621</v>
+      </c>
+      <c r="M256" t="s" s="2">
         <v>622</v>
       </c>
-      <c r="L256" t="s" s="2">
+      <c r="N256" t="s" s="2">
         <v>623</v>
-      </c>
-      <c r="M256" t="s" s="2">
-        <v>624</v>
-      </c>
-      <c r="N256" t="s" s="2">
-        <v>625</v>
       </c>
       <c r="O256" t="s" s="2">
         <v>43</v>
@@ -31745,7 +31733,7 @@
         <v>43</v>
       </c>
       <c r="AE256" t="s" s="2">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="AF256" t="s" s="2">
         <v>41</v>
@@ -31774,7 +31762,7 @@
     </row>
     <row r="257" hidden="true">
       <c r="A257" t="s" s="2">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B257" s="2"/>
       <c r="C257" t="s" s="2">
@@ -31800,16 +31788,16 @@
         <v>125</v>
       </c>
       <c r="K257" t="s" s="2">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="L257" t="s" s="2">
+        <v>627</v>
+      </c>
+      <c r="M257" t="s" s="2">
+        <v>770</v>
+      </c>
+      <c r="N257" t="s" s="2">
         <v>629</v>
-      </c>
-      <c r="M257" t="s" s="2">
-        <v>771</v>
-      </c>
-      <c r="N257" t="s" s="2">
-        <v>631</v>
       </c>
       <c r="O257" t="s" s="2">
         <v>43</v>
@@ -31837,10 +31825,10 @@
         <v>140</v>
       </c>
       <c r="X257" t="s" s="2">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="Y257" t="s" s="2">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="Z257" t="s" s="2">
         <v>43</v>
@@ -31858,7 +31846,7 @@
         <v>43</v>
       </c>
       <c r="AE257" t="s" s="2">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="AF257" t="s" s="2">
         <v>41</v>
@@ -31887,7 +31875,7 @@
     </row>
     <row r="258" hidden="true">
       <c r="A258" t="s" s="2">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="B258" s="2"/>
       <c r="C258" t="s" s="2">
@@ -31913,14 +31901,14 @@
         <v>125</v>
       </c>
       <c r="K258" t="s" s="2">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="L258" t="s" s="2">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="M258" s="2"/>
       <c r="N258" t="s" s="2">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="O258" t="s" s="2">
         <v>43</v>
@@ -31948,10 +31936,10 @@
         <v>140</v>
       </c>
       <c r="X258" t="s" s="2">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="Y258" t="s" s="2">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="Z258" t="s" s="2">
         <v>43</v>
@@ -31969,7 +31957,7 @@
         <v>43</v>
       </c>
       <c r="AE258" t="s" s="2">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="AF258" t="s" s="2">
         <v>41</v>
@@ -31998,7 +31986,7 @@
     </row>
     <row r="259" hidden="true">
       <c r="A259" t="s" s="2">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="B259" s="2"/>
       <c r="C259" t="s" s="2">
@@ -32024,14 +32012,14 @@
         <v>326</v>
       </c>
       <c r="K259" t="s" s="2">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="L259" t="s" s="2">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="M259" s="2"/>
       <c r="N259" t="s" s="2">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="O259" t="s" s="2">
         <v>43</v>
@@ -32080,7 +32068,7 @@
         <v>43</v>
       </c>
       <c r="AE259" t="s" s="2">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="AF259" t="s" s="2">
         <v>41</v>
@@ -32109,7 +32097,7 @@
     </row>
     <row r="260" hidden="true">
       <c r="A260" t="s" s="2">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="B260" s="2"/>
       <c r="C260" t="s" s="2">
@@ -32135,10 +32123,10 @@
         <v>43</v>
       </c>
       <c r="K260" t="s" s="2">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="L260" t="s" s="2">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="M260" s="2"/>
       <c r="N260" s="2"/>
@@ -32189,7 +32177,7 @@
         <v>43</v>
       </c>
       <c r="AE260" t="s" s="2">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="AF260" t="s" s="2">
         <v>41</v>
@@ -32218,7 +32206,7 @@
     </row>
     <row r="261" hidden="true">
       <c r="A261" t="s" s="2">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="B261" s="2"/>
       <c r="C261" t="s" s="2">
@@ -32244,10 +32232,10 @@
         <v>211</v>
       </c>
       <c r="K261" t="s" s="2">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="L261" t="s" s="2">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="M261" s="2"/>
       <c r="N261" s="2"/>
@@ -32298,7 +32286,7 @@
         <v>43</v>
       </c>
       <c r="AE261" t="s" s="2">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="AF261" t="s" s="2">
         <v>41</v>
@@ -32327,7 +32315,7 @@
     </row>
     <row r="262" hidden="true">
       <c r="A262" t="s" s="2">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="B262" s="2"/>
       <c r="C262" t="s" s="2">
@@ -32436,7 +32424,7 @@
     </row>
     <row r="263" hidden="true">
       <c r="A263" t="s" s="2">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="B263" s="2"/>
       <c r="C263" t="s" s="2">
@@ -32547,7 +32535,7 @@
     </row>
     <row r="264" hidden="true">
       <c r="A264" t="s" s="2">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="B264" s="2"/>
       <c r="C264" t="s" s="2">
@@ -32660,11 +32648,11 @@
     </row>
     <row r="265" hidden="true">
       <c r="A265" t="s" s="2">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="B265" s="2"/>
       <c r="C265" t="s" s="2">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="D265" s="2"/>
       <c r="E265" t="s" s="2">
@@ -32686,16 +32674,16 @@
         <v>125</v>
       </c>
       <c r="K265" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="L265" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="M265" t="s" s="2">
         <v>578</v>
       </c>
-      <c r="L265" t="s" s="2">
+      <c r="N265" t="s" s="2">
         <v>579</v>
-      </c>
-      <c r="M265" t="s" s="2">
-        <v>580</v>
-      </c>
-      <c r="N265" t="s" s="2">
-        <v>581</v>
       </c>
       <c r="O265" t="s" s="2">
         <v>43</v>
@@ -32723,10 +32711,10 @@
         <v>140</v>
       </c>
       <c r="X265" t="s" s="2">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="Y265" t="s" s="2">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="Z265" t="s" s="2">
         <v>43</v>
@@ -32744,7 +32732,7 @@
         <v>43</v>
       </c>
       <c r="AE265" t="s" s="2">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="AF265" t="s" s="2">
         <v>50</v>
@@ -32773,7 +32761,7 @@
     </row>
     <row r="266" hidden="true">
       <c r="A266" t="s" s="2">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="B266" s="2"/>
       <c r="C266" t="s" s="2">
@@ -32799,16 +32787,16 @@
         <v>125</v>
       </c>
       <c r="K266" t="s" s="2">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="L266" t="s" s="2">
+        <v>583</v>
+      </c>
+      <c r="M266" t="s" s="2">
+        <v>584</v>
+      </c>
+      <c r="N266" t="s" s="2">
         <v>585</v>
-      </c>
-      <c r="M266" t="s" s="2">
-        <v>586</v>
-      </c>
-      <c r="N266" t="s" s="2">
-        <v>587</v>
       </c>
       <c r="O266" t="s" s="2">
         <v>43</v>
@@ -32836,10 +32824,10 @@
         <v>140</v>
       </c>
       <c r="X266" t="s" s="2">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="Y266" t="s" s="2">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="Z266" t="s" s="2">
         <v>43</v>
@@ -32857,7 +32845,7 @@
         <v>43</v>
       </c>
       <c r="AE266" t="s" s="2">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="AF266" t="s" s="2">
         <v>41</v>
@@ -32886,7 +32874,7 @@
     </row>
     <row r="267" hidden="true">
       <c r="A267" t="s" s="2">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B267" s="2"/>
       <c r="C267" t="s" s="2">
@@ -32909,17 +32897,17 @@
         <v>43</v>
       </c>
       <c r="J267" t="s" s="2">
+        <v>604</v>
+      </c>
+      <c r="K267" t="s" s="2">
+        <v>605</v>
+      </c>
+      <c r="L267" t="s" s="2">
         <v>606</v>
-      </c>
-      <c r="K267" t="s" s="2">
-        <v>607</v>
-      </c>
-      <c r="L267" t="s" s="2">
-        <v>608</v>
       </c>
       <c r="M267" s="2"/>
       <c r="N267" t="s" s="2">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="O267" t="s" s="2">
         <v>43</v>
@@ -32968,7 +32956,7 @@
         <v>43</v>
       </c>
       <c r="AE267" t="s" s="2">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="AF267" t="s" s="2">
         <v>41</v>
@@ -32997,7 +32985,7 @@
     </row>
     <row r="268" hidden="true">
       <c r="A268" t="s" s="2">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="B268" s="2"/>
       <c r="C268" t="s" s="2">
@@ -33020,17 +33008,17 @@
         <v>43</v>
       </c>
       <c r="J268" t="s" s="2">
+        <v>609</v>
+      </c>
+      <c r="K268" t="s" s="2">
+        <v>610</v>
+      </c>
+      <c r="L268" t="s" s="2">
         <v>611</v>
-      </c>
-      <c r="K268" t="s" s="2">
-        <v>612</v>
-      </c>
-      <c r="L268" t="s" s="2">
-        <v>613</v>
       </c>
       <c r="M268" s="2"/>
       <c r="N268" t="s" s="2">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="O268" t="s" s="2">
         <v>43</v>
@@ -33079,7 +33067,7 @@
         <v>43</v>
       </c>
       <c r="AE268" t="s" s="2">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="AF268" t="s" s="2">
         <v>41</v>
@@ -33108,7 +33096,7 @@
     </row>
     <row r="269" hidden="true">
       <c r="A269" t="s" s="2">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="B269" s="2"/>
       <c r="C269" t="s" s="2">
@@ -33131,19 +33119,19 @@
         <v>43</v>
       </c>
       <c r="J269" t="s" s="2">
+        <v>614</v>
+      </c>
+      <c r="K269" t="s" s="2">
+        <v>615</v>
+      </c>
+      <c r="L269" t="s" s="2">
         <v>616</v>
       </c>
-      <c r="K269" t="s" s="2">
+      <c r="M269" t="s" s="2">
         <v>617</v>
       </c>
-      <c r="L269" t="s" s="2">
+      <c r="N269" t="s" s="2">
         <v>618</v>
-      </c>
-      <c r="M269" t="s" s="2">
-        <v>619</v>
-      </c>
-      <c r="N269" t="s" s="2">
-        <v>620</v>
       </c>
       <c r="O269" t="s" s="2">
         <v>43</v>
@@ -33192,7 +33180,7 @@
         <v>43</v>
       </c>
       <c r="AE269" t="s" s="2">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="AF269" t="s" s="2">
         <v>41</v>
@@ -33221,7 +33209,7 @@
     </row>
     <row r="270" hidden="true">
       <c r="A270" t="s" s="2">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="B270" s="2"/>
       <c r="C270" t="s" s="2">
@@ -33244,19 +33232,19 @@
         <v>43</v>
       </c>
       <c r="J270" t="s" s="2">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="K270" t="s" s="2">
+        <v>620</v>
+      </c>
+      <c r="L270" t="s" s="2">
+        <v>621</v>
+      </c>
+      <c r="M270" t="s" s="2">
         <v>622</v>
       </c>
-      <c r="L270" t="s" s="2">
+      <c r="N270" t="s" s="2">
         <v>623</v>
-      </c>
-      <c r="M270" t="s" s="2">
-        <v>624</v>
-      </c>
-      <c r="N270" t="s" s="2">
-        <v>625</v>
       </c>
       <c r="O270" t="s" s="2">
         <v>43</v>
@@ -33305,7 +33293,7 @@
         <v>43</v>
       </c>
       <c r="AE270" t="s" s="2">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="AF270" t="s" s="2">
         <v>41</v>
@@ -33334,7 +33322,7 @@
     </row>
     <row r="271" hidden="true">
       <c r="A271" t="s" s="2">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="B271" s="2"/>
       <c r="C271" t="s" s="2">
@@ -33360,14 +33348,14 @@
         <v>326</v>
       </c>
       <c r="K271" t="s" s="2">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="L271" t="s" s="2">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="M271" s="2"/>
       <c r="N271" t="s" s="2">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="O271" t="s" s="2">
         <v>43</v>
@@ -33416,7 +33404,7 @@
         <v>43</v>
       </c>
       <c r="AE271" t="s" s="2">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="AF271" t="s" s="2">
         <v>41</v>
@@ -33445,7 +33433,7 @@
     </row>
     <row r="272" hidden="true">
       <c r="A272" t="s" s="2">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="B272" s="2"/>
       <c r="C272" t="s" s="2">
@@ -33471,10 +33459,10 @@
         <v>43</v>
       </c>
       <c r="K272" t="s" s="2">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="L272" t="s" s="2">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="M272" s="2"/>
       <c r="N272" s="2"/>
@@ -33525,7 +33513,7 @@
         <v>43</v>
       </c>
       <c r="AE272" t="s" s="2">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="AF272" t="s" s="2">
         <v>41</v>
@@ -33554,7 +33542,7 @@
     </row>
     <row r="273" hidden="true">
       <c r="A273" t="s" s="2">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B273" s="2"/>
       <c r="C273" t="s" s="2">
@@ -33580,10 +33568,10 @@
         <v>211</v>
       </c>
       <c r="K273" t="s" s="2">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="L273" t="s" s="2">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="M273" s="2"/>
       <c r="N273" s="2"/>
@@ -33634,7 +33622,7 @@
         <v>43</v>
       </c>
       <c r="AE273" t="s" s="2">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="AF273" t="s" s="2">
         <v>41</v>
@@ -33663,7 +33651,7 @@
     </row>
     <row r="274" hidden="true">
       <c r="A274" t="s" s="2">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="B274" s="2"/>
       <c r="C274" t="s" s="2">
@@ -33772,7 +33760,7 @@
     </row>
     <row r="275" hidden="true">
       <c r="A275" t="s" s="2">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="B275" s="2"/>
       <c r="C275" t="s" s="2">
@@ -33883,7 +33871,7 @@
     </row>
     <row r="276" hidden="true">
       <c r="A276" t="s" s="2">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B276" s="2"/>
       <c r="C276" t="s" s="2">
@@ -33996,11 +33984,11 @@
     </row>
     <row r="277" hidden="true">
       <c r="A277" t="s" s="2">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="B277" s="2"/>
       <c r="C277" t="s" s="2">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="D277" s="2"/>
       <c r="E277" t="s" s="2">
@@ -34022,16 +34010,16 @@
         <v>125</v>
       </c>
       <c r="K277" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="L277" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="M277" t="s" s="2">
         <v>578</v>
       </c>
-      <c r="L277" t="s" s="2">
+      <c r="N277" t="s" s="2">
         <v>579</v>
-      </c>
-      <c r="M277" t="s" s="2">
-        <v>580</v>
-      </c>
-      <c r="N277" t="s" s="2">
-        <v>581</v>
       </c>
       <c r="O277" t="s" s="2">
         <v>43</v>
@@ -34059,10 +34047,10 @@
         <v>140</v>
       </c>
       <c r="X277" t="s" s="2">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="Y277" t="s" s="2">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="Z277" t="s" s="2">
         <v>43</v>
@@ -34080,7 +34068,7 @@
         <v>43</v>
       </c>
       <c r="AE277" t="s" s="2">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="AF277" t="s" s="2">
         <v>50</v>
@@ -34109,7 +34097,7 @@
     </row>
     <row r="278" hidden="true">
       <c r="A278" t="s" s="2">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="B278" s="2"/>
       <c r="C278" t="s" s="2">
@@ -34135,16 +34123,16 @@
         <v>125</v>
       </c>
       <c r="K278" t="s" s="2">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="L278" t="s" s="2">
+        <v>583</v>
+      </c>
+      <c r="M278" t="s" s="2">
+        <v>584</v>
+      </c>
+      <c r="N278" t="s" s="2">
         <v>585</v>
-      </c>
-      <c r="M278" t="s" s="2">
-        <v>586</v>
-      </c>
-      <c r="N278" t="s" s="2">
-        <v>587</v>
       </c>
       <c r="O278" t="s" s="2">
         <v>43</v>
@@ -34172,10 +34160,10 @@
         <v>140</v>
       </c>
       <c r="X278" t="s" s="2">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="Y278" t="s" s="2">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="Z278" t="s" s="2">
         <v>43</v>
@@ -34193,7 +34181,7 @@
         <v>43</v>
       </c>
       <c r="AE278" t="s" s="2">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="AF278" t="s" s="2">
         <v>41</v>
@@ -34222,7 +34210,7 @@
     </row>
     <row r="279" hidden="true">
       <c r="A279" t="s" s="2">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="B279" s="2"/>
       <c r="C279" t="s" s="2">
@@ -34245,17 +34233,17 @@
         <v>43</v>
       </c>
       <c r="J279" t="s" s="2">
+        <v>604</v>
+      </c>
+      <c r="K279" t="s" s="2">
+        <v>605</v>
+      </c>
+      <c r="L279" t="s" s="2">
         <v>606</v>
-      </c>
-      <c r="K279" t="s" s="2">
-        <v>607</v>
-      </c>
-      <c r="L279" t="s" s="2">
-        <v>608</v>
       </c>
       <c r="M279" s="2"/>
       <c r="N279" t="s" s="2">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="O279" t="s" s="2">
         <v>43</v>
@@ -34304,7 +34292,7 @@
         <v>43</v>
       </c>
       <c r="AE279" t="s" s="2">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="AF279" t="s" s="2">
         <v>41</v>
@@ -34333,7 +34321,7 @@
     </row>
     <row r="280" hidden="true">
       <c r="A280" t="s" s="2">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="B280" s="2"/>
       <c r="C280" t="s" s="2">
@@ -34356,17 +34344,17 @@
         <v>43</v>
       </c>
       <c r="J280" t="s" s="2">
+        <v>609</v>
+      </c>
+      <c r="K280" t="s" s="2">
+        <v>610</v>
+      </c>
+      <c r="L280" t="s" s="2">
         <v>611</v>
-      </c>
-      <c r="K280" t="s" s="2">
-        <v>612</v>
-      </c>
-      <c r="L280" t="s" s="2">
-        <v>613</v>
       </c>
       <c r="M280" s="2"/>
       <c r="N280" t="s" s="2">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="O280" t="s" s="2">
         <v>43</v>
@@ -34415,7 +34403,7 @@
         <v>43</v>
       </c>
       <c r="AE280" t="s" s="2">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="AF280" t="s" s="2">
         <v>41</v>
@@ -34444,7 +34432,7 @@
     </row>
     <row r="281" hidden="true">
       <c r="A281" t="s" s="2">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="B281" s="2"/>
       <c r="C281" t="s" s="2">
@@ -34467,19 +34455,19 @@
         <v>43</v>
       </c>
       <c r="J281" t="s" s="2">
+        <v>614</v>
+      </c>
+      <c r="K281" t="s" s="2">
+        <v>615</v>
+      </c>
+      <c r="L281" t="s" s="2">
         <v>616</v>
       </c>
-      <c r="K281" t="s" s="2">
+      <c r="M281" t="s" s="2">
         <v>617</v>
       </c>
-      <c r="L281" t="s" s="2">
+      <c r="N281" t="s" s="2">
         <v>618</v>
-      </c>
-      <c r="M281" t="s" s="2">
-        <v>619</v>
-      </c>
-      <c r="N281" t="s" s="2">
-        <v>620</v>
       </c>
       <c r="O281" t="s" s="2">
         <v>43</v>
@@ -34528,7 +34516,7 @@
         <v>43</v>
       </c>
       <c r="AE281" t="s" s="2">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="AF281" t="s" s="2">
         <v>41</v>
@@ -34557,7 +34545,7 @@
     </row>
     <row r="282" hidden="true">
       <c r="A282" t="s" s="2">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="B282" s="2"/>
       <c r="C282" t="s" s="2">
@@ -34580,19 +34568,19 @@
         <v>43</v>
       </c>
       <c r="J282" t="s" s="2">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="K282" t="s" s="2">
+        <v>620</v>
+      </c>
+      <c r="L282" t="s" s="2">
+        <v>621</v>
+      </c>
+      <c r="M282" t="s" s="2">
         <v>622</v>
       </c>
-      <c r="L282" t="s" s="2">
+      <c r="N282" t="s" s="2">
         <v>623</v>
-      </c>
-      <c r="M282" t="s" s="2">
-        <v>624</v>
-      </c>
-      <c r="N282" t="s" s="2">
-        <v>625</v>
       </c>
       <c r="O282" t="s" s="2">
         <v>43</v>
@@ -34641,7 +34629,7 @@
         <v>43</v>
       </c>
       <c r="AE282" t="s" s="2">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="AF282" t="s" s="2">
         <v>41</v>
@@ -34670,7 +34658,7 @@
     </row>
     <row r="283" hidden="true">
       <c r="A283" t="s" s="2">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B283" s="2"/>
       <c r="C283" t="s" s="2">
@@ -34696,14 +34684,14 @@
         <v>326</v>
       </c>
       <c r="K283" t="s" s="2">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="L283" t="s" s="2">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="M283" s="2"/>
       <c r="N283" t="s" s="2">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="O283" t="s" s="2">
         <v>43</v>
@@ -34752,7 +34740,7 @@
         <v>43</v>
       </c>
       <c r="AE283" t="s" s="2">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="AF283" t="s" s="2">
         <v>41</v>
@@ -34781,7 +34769,7 @@
     </row>
     <row r="284" hidden="true">
       <c r="A284" t="s" s="2">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B284" s="2"/>
       <c r="C284" t="s" s="2">
@@ -34807,10 +34795,10 @@
         <v>43</v>
       </c>
       <c r="K284" t="s" s="2">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="L284" t="s" s="2">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="M284" s="2"/>
       <c r="N284" s="2"/>
@@ -34861,7 +34849,7 @@
         <v>43</v>
       </c>
       <c r="AE284" t="s" s="2">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="AF284" t="s" s="2">
         <v>41</v>
@@ -34890,10 +34878,10 @@
     </row>
     <row r="285" hidden="true">
       <c r="A285" t="s" s="2">
+        <v>801</v>
+      </c>
+      <c r="B285" t="s" s="2">
         <v>802</v>
-      </c>
-      <c r="B285" t="s" s="2">
-        <v>803</v>
       </c>
       <c r="C285" t="s" s="2">
         <v>43</v>
@@ -34918,14 +34906,14 @@
         <v>211</v>
       </c>
       <c r="K285" t="s" s="2">
+        <v>803</v>
+      </c>
+      <c r="L285" t="s" s="2">
         <v>804</v>
-      </c>
-      <c r="L285" t="s" s="2">
-        <v>805</v>
       </c>
       <c r="M285" s="2"/>
       <c r="N285" t="s" s="2">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="O285" t="s" s="2">
         <v>43</v>
@@ -34974,7 +34962,7 @@
         <v>43</v>
       </c>
       <c r="AE285" t="s" s="2">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="AF285" t="s" s="2">
         <v>41</v>
@@ -35003,7 +34991,7 @@
     </row>
     <row r="286" hidden="true">
       <c r="A286" t="s" s="2">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="B286" s="2"/>
       <c r="C286" t="s" s="2">
@@ -35112,7 +35100,7 @@
     </row>
     <row r="287" hidden="true">
       <c r="A287" t="s" s="2">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="B287" s="2"/>
       <c r="C287" t="s" s="2">
@@ -35223,7 +35211,7 @@
     </row>
     <row r="288" hidden="true">
       <c r="A288" t="s" s="2">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="B288" s="2"/>
       <c r="C288" t="s" s="2">
@@ -35336,7 +35324,7 @@
     </row>
     <row r="289" hidden="true">
       <c r="A289" t="s" s="2">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="B289" s="2"/>
       <c r="C289" t="s" s="2">
@@ -35362,16 +35350,16 @@
         <v>125</v>
       </c>
       <c r="K289" t="s" s="2">
+        <v>654</v>
+      </c>
+      <c r="L289" t="s" s="2">
+        <v>655</v>
+      </c>
+      <c r="M289" t="s" s="2">
         <v>656</v>
       </c>
-      <c r="L289" t="s" s="2">
+      <c r="N289" t="s" s="2">
         <v>657</v>
-      </c>
-      <c r="M289" t="s" s="2">
-        <v>658</v>
-      </c>
-      <c r="N289" t="s" s="2">
-        <v>659</v>
       </c>
       <c r="O289" t="s" s="2">
         <v>43</v>
@@ -35400,7 +35388,7 @@
       </c>
       <c r="X289" s="2"/>
       <c r="Y289" t="s" s="2">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="Z289" t="s" s="2">
         <v>43</v>
@@ -35418,7 +35406,7 @@
         <v>43</v>
       </c>
       <c r="AE289" t="s" s="2">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="AF289" t="s" s="2">
         <v>50</v>
@@ -35447,7 +35435,7 @@
     </row>
     <row r="290" hidden="true">
       <c r="A290" t="s" s="2">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B290" s="2"/>
       <c r="C290" t="s" s="2">
@@ -35473,16 +35461,16 @@
         <v>125</v>
       </c>
       <c r="K290" t="s" s="2">
+        <v>660</v>
+      </c>
+      <c r="L290" t="s" s="2">
+        <v>661</v>
+      </c>
+      <c r="M290" t="s" s="2">
         <v>662</v>
       </c>
-      <c r="L290" t="s" s="2">
+      <c r="N290" t="s" s="2">
         <v>663</v>
-      </c>
-      <c r="M290" t="s" s="2">
-        <v>664</v>
-      </c>
-      <c r="N290" t="s" s="2">
-        <v>665</v>
       </c>
       <c r="O290" t="s" s="2">
         <v>43</v>
@@ -35510,10 +35498,10 @@
         <v>140</v>
       </c>
       <c r="X290" t="s" s="2">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="Y290" t="s" s="2">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="Z290" t="s" s="2">
         <v>43</v>
@@ -35531,7 +35519,7 @@
         <v>43</v>
       </c>
       <c r="AE290" t="s" s="2">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="AF290" t="s" s="2">
         <v>41</v>
@@ -35560,7 +35548,7 @@
     </row>
     <row r="291" hidden="true">
       <c r="A291" t="s" s="2">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="B291" s="2"/>
       <c r="C291" t="s" s="2">
@@ -35583,19 +35571,19 @@
         <v>43</v>
       </c>
       <c r="J291" t="s" s="2">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="K291" t="s" s="2">
+        <v>667</v>
+      </c>
+      <c r="L291" t="s" s="2">
+        <v>668</v>
+      </c>
+      <c r="M291" t="s" s="2">
         <v>669</v>
       </c>
-      <c r="L291" t="s" s="2">
+      <c r="N291" t="s" s="2">
         <v>670</v>
-      </c>
-      <c r="M291" t="s" s="2">
-        <v>671</v>
-      </c>
-      <c r="N291" t="s" s="2">
-        <v>672</v>
       </c>
       <c r="O291" t="s" s="2">
         <v>43</v>
@@ -35644,7 +35632,7 @@
         <v>43</v>
       </c>
       <c r="AE291" t="s" s="2">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="AF291" t="s" s="2">
         <v>41</v>
@@ -35673,7 +35661,7 @@
     </row>
     <row r="292" hidden="true">
       <c r="A292" t="s" s="2">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="B292" s="2"/>
       <c r="C292" t="s" s="2">
@@ -35696,19 +35684,19 @@
         <v>43</v>
       </c>
       <c r="J292" t="s" s="2">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="K292" t="s" s="2">
+        <v>672</v>
+      </c>
+      <c r="L292" t="s" s="2">
+        <v>673</v>
+      </c>
+      <c r="M292" t="s" s="2">
         <v>674</v>
       </c>
-      <c r="L292" t="s" s="2">
+      <c r="N292" t="s" s="2">
         <v>675</v>
-      </c>
-      <c r="M292" t="s" s="2">
-        <v>676</v>
-      </c>
-      <c r="N292" t="s" s="2">
-        <v>677</v>
       </c>
       <c r="O292" t="s" s="2">
         <v>43</v>
@@ -35757,7 +35745,7 @@
         <v>43</v>
       </c>
       <c r="AE292" t="s" s="2">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="AF292" t="s" s="2">
         <v>41</v>
@@ -35786,7 +35774,7 @@
     </row>
     <row r="293" hidden="true">
       <c r="A293" t="s" s="2">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B293" s="2"/>
       <c r="C293" t="s" s="2">
@@ -35812,16 +35800,16 @@
         <v>211</v>
       </c>
       <c r="K293" t="s" s="2">
+        <v>815</v>
+      </c>
+      <c r="L293" t="s" s="2">
         <v>816</v>
       </c>
-      <c r="L293" t="s" s="2">
+      <c r="M293" t="s" s="2">
         <v>817</v>
       </c>
-      <c r="M293" t="s" s="2">
+      <c r="N293" t="s" s="2">
         <v>818</v>
-      </c>
-      <c r="N293" t="s" s="2">
-        <v>819</v>
       </c>
       <c r="O293" t="s" s="2">
         <v>43</v>
@@ -35870,7 +35858,7 @@
         <v>43</v>
       </c>
       <c r="AE293" t="s" s="2">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="AF293" t="s" s="2">
         <v>41</v>
@@ -35899,7 +35887,7 @@
     </row>
     <row r="294" hidden="true">
       <c r="A294" t="s" s="2">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B294" s="2"/>
       <c r="C294" t="s" s="2">
@@ -36008,7 +35996,7 @@
     </row>
     <row r="295" hidden="true">
       <c r="A295" t="s" s="2">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="B295" s="2"/>
       <c r="C295" t="s" s="2">
@@ -36119,7 +36107,7 @@
     </row>
     <row r="296" hidden="true">
       <c r="A296" t="s" s="2">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="B296" s="2"/>
       <c r="C296" t="s" s="2">
@@ -36232,7 +36220,7 @@
     </row>
     <row r="297" hidden="true">
       <c r="A297" t="s" s="2">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B297" s="2"/>
       <c r="C297" t="s" s="2">
@@ -36258,16 +36246,16 @@
         <v>125</v>
       </c>
       <c r="K297" t="s" s="2">
+        <v>654</v>
+      </c>
+      <c r="L297" t="s" s="2">
+        <v>823</v>
+      </c>
+      <c r="M297" t="s" s="2">
         <v>656</v>
       </c>
-      <c r="L297" t="s" s="2">
+      <c r="N297" t="s" s="2">
         <v>824</v>
-      </c>
-      <c r="M297" t="s" s="2">
-        <v>658</v>
-      </c>
-      <c r="N297" t="s" s="2">
-        <v>825</v>
       </c>
       <c r="O297" t="s" s="2">
         <v>43</v>
@@ -36296,7 +36284,7 @@
       </c>
       <c r="X297" s="2"/>
       <c r="Y297" t="s" s="2">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="Z297" t="s" s="2">
         <v>43</v>
@@ -36314,7 +36302,7 @@
         <v>43</v>
       </c>
       <c r="AE297" t="s" s="2">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="AF297" t="s" s="2">
         <v>50</v>
@@ -36343,7 +36331,7 @@
     </row>
     <row r="298" hidden="true">
       <c r="A298" t="s" s="2">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="B298" s="2"/>
       <c r="C298" t="s" s="2">
@@ -36366,17 +36354,17 @@
         <v>51</v>
       </c>
       <c r="J298" t="s" s="2">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="K298" t="s" s="2">
+        <v>826</v>
+      </c>
+      <c r="L298" t="s" s="2">
         <v>827</v>
-      </c>
-      <c r="L298" t="s" s="2">
-        <v>828</v>
       </c>
       <c r="M298" s="2"/>
       <c r="N298" t="s" s="2">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="O298" t="s" s="2">
         <v>43</v>
@@ -36425,7 +36413,7 @@
         <v>43</v>
       </c>
       <c r="AE298" t="s" s="2">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="AF298" t="s" s="2">
         <v>50</v>
@@ -36454,7 +36442,7 @@
     </row>
     <row r="299" hidden="true">
       <c r="A299" t="s" s="2">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="B299" s="2"/>
       <c r="C299" t="s" s="2">
@@ -36480,14 +36468,14 @@
         <v>211</v>
       </c>
       <c r="K299" t="s" s="2">
+        <v>830</v>
+      </c>
+      <c r="L299" t="s" s="2">
         <v>831</v>
-      </c>
-      <c r="L299" t="s" s="2">
-        <v>832</v>
       </c>
       <c r="M299" s="2"/>
       <c r="N299" t="s" s="2">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="O299" t="s" s="2">
         <v>43</v>
@@ -36536,7 +36524,7 @@
         <v>43</v>
       </c>
       <c r="AE299" t="s" s="2">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="AF299" t="s" s="2">
         <v>41</v>
@@ -36565,7 +36553,7 @@
     </row>
     <row r="300" hidden="true">
       <c r="A300" t="s" s="2">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="B300" s="2"/>
       <c r="C300" t="s" s="2">
@@ -36674,7 +36662,7 @@
     </row>
     <row r="301" hidden="true">
       <c r="A301" t="s" s="2">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="B301" s="2"/>
       <c r="C301" t="s" s="2">
@@ -36785,7 +36773,7 @@
     </row>
     <row r="302" hidden="true">
       <c r="A302" t="s" s="2">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="B302" s="2"/>
       <c r="C302" t="s" s="2">
@@ -36898,7 +36886,7 @@
     </row>
     <row r="303" hidden="true">
       <c r="A303" t="s" s="2">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="B303" s="2"/>
       <c r="C303" t="s" s="2">
@@ -36924,14 +36912,14 @@
         <v>125</v>
       </c>
       <c r="K303" t="s" s="2">
+        <v>837</v>
+      </c>
+      <c r="L303" t="s" s="2">
         <v>838</v>
-      </c>
-      <c r="L303" t="s" s="2">
-        <v>839</v>
       </c>
       <c r="M303" s="2"/>
       <c r="N303" t="s" s="2">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="O303" t="s" s="2">
         <v>43</v>
@@ -36959,11 +36947,11 @@
         <v>140</v>
       </c>
       <c r="X303" t="s" s="2">
+        <v>840</v>
+      </c>
+      <c r="Y303" t="s" s="2">
         <v>841</v>
       </c>
-      <c r="Y303" t="s" s="2">
-        <v>842</v>
-      </c>
       <c r="Z303" t="s" s="2">
         <v>43</v>
       </c>
@@ -36980,7 +36968,7 @@
         <v>43</v>
       </c>
       <c r="AE303" t="s" s="2">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AF303" t="s" s="2">
         <v>41</v>
@@ -37009,7 +36997,7 @@
     </row>
     <row r="304" hidden="true">
       <c r="A304" t="s" s="2">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="B304" s="2"/>
       <c r="C304" t="s" s="2">
@@ -37032,19 +37020,19 @@
         <v>43</v>
       </c>
       <c r="J304" t="s" s="2">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="K304" t="s" s="2">
+        <v>843</v>
+      </c>
+      <c r="L304" t="s" s="2">
         <v>844</v>
       </c>
-      <c r="L304" t="s" s="2">
+      <c r="M304" t="s" s="2">
         <v>845</v>
       </c>
-      <c r="M304" t="s" s="2">
+      <c r="N304" t="s" s="2">
         <v>846</v>
-      </c>
-      <c r="N304" t="s" s="2">
-        <v>847</v>
       </c>
       <c r="O304" t="s" s="2">
         <v>43</v>
@@ -37093,7 +37081,7 @@
         <v>43</v>
       </c>
       <c r="AE304" t="s" s="2">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="AF304" t="s" s="2">
         <v>41</v>
@@ -37122,7 +37110,7 @@
     </row>
     <row r="305" hidden="true">
       <c r="A305" t="s" s="2">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="B305" s="2"/>
       <c r="C305" t="s" s="2">
@@ -37148,14 +37136,14 @@
         <v>125</v>
       </c>
       <c r="K305" t="s" s="2">
+        <v>848</v>
+      </c>
+      <c r="L305" t="s" s="2">
         <v>849</v>
-      </c>
-      <c r="L305" t="s" s="2">
-        <v>850</v>
       </c>
       <c r="M305" s="2"/>
       <c r="N305" t="s" s="2">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="O305" t="s" s="2">
         <v>43</v>
@@ -37184,7 +37172,7 @@
       </c>
       <c r="X305" s="2"/>
       <c r="Y305" t="s" s="2">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="Z305" t="s" s="2">
         <v>43</v>
@@ -37202,7 +37190,7 @@
         <v>43</v>
       </c>
       <c r="AE305" t="s" s="2">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="AF305" t="s" s="2">
         <v>41</v>
@@ -37231,7 +37219,7 @@
     </row>
     <row r="306" hidden="true">
       <c r="A306" t="s" s="2">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="B306" s="2"/>
       <c r="C306" t="s" s="2">
@@ -37254,17 +37242,17 @@
         <v>43</v>
       </c>
       <c r="J306" t="s" s="2">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="K306" t="s" s="2">
+        <v>852</v>
+      </c>
+      <c r="L306" t="s" s="2">
         <v>853</v>
-      </c>
-      <c r="L306" t="s" s="2">
-        <v>854</v>
       </c>
       <c r="M306" s="2"/>
       <c r="N306" t="s" s="2">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="O306" t="s" s="2">
         <v>43</v>
@@ -37313,7 +37301,7 @@
         <v>43</v>
       </c>
       <c r="AE306" t="s" s="2">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="AF306" t="s" s="2">
         <v>41</v>
@@ -37342,7 +37330,7 @@
     </row>
     <row r="307" hidden="true">
       <c r="A307" t="s" s="2">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="B307" s="2"/>
       <c r="C307" t="s" s="2">
@@ -37365,17 +37353,17 @@
         <v>43</v>
       </c>
       <c r="J307" t="s" s="2">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="K307" t="s" s="2">
+        <v>856</v>
+      </c>
+      <c r="L307" t="s" s="2">
         <v>857</v>
-      </c>
-      <c r="L307" t="s" s="2">
-        <v>858</v>
       </c>
       <c r="M307" s="2"/>
       <c r="N307" t="s" s="2">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="O307" t="s" s="2">
         <v>43</v>
@@ -37424,7 +37412,7 @@
         <v>43</v>
       </c>
       <c r="AE307" t="s" s="2">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="AF307" t="s" s="2">
         <v>41</v>
@@ -37453,7 +37441,7 @@
     </row>
     <row r="308" hidden="true">
       <c r="A308" t="s" s="2">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="B308" s="2"/>
       <c r="C308" t="s" s="2">
@@ -37479,16 +37467,16 @@
         <v>108</v>
       </c>
       <c r="K308" t="s" s="2">
+        <v>860</v>
+      </c>
+      <c r="L308" t="s" s="2">
         <v>861</v>
       </c>
-      <c r="L308" t="s" s="2">
+      <c r="M308" t="s" s="2">
         <v>862</v>
       </c>
-      <c r="M308" t="s" s="2">
+      <c r="N308" t="s" s="2">
         <v>863</v>
-      </c>
-      <c r="N308" t="s" s="2">
-        <v>864</v>
       </c>
       <c r="O308" t="s" s="2">
         <v>43</v>
@@ -37537,7 +37525,7 @@
         <v>43</v>
       </c>
       <c r="AE308" t="s" s="2">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="AF308" t="s" s="2">
         <v>41</v>
@@ -37566,7 +37554,7 @@
     </row>
     <row r="309" hidden="true">
       <c r="A309" t="s" s="2">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="B309" s="2"/>
       <c r="C309" t="s" s="2">
@@ -37592,16 +37580,16 @@
         <v>125</v>
       </c>
       <c r="K309" t="s" s="2">
+        <v>865</v>
+      </c>
+      <c r="L309" t="s" s="2">
         <v>866</v>
       </c>
-      <c r="L309" t="s" s="2">
+      <c r="M309" t="s" s="2">
         <v>867</v>
       </c>
-      <c r="M309" t="s" s="2">
+      <c r="N309" t="s" s="2">
         <v>868</v>
-      </c>
-      <c r="N309" t="s" s="2">
-        <v>869</v>
       </c>
       <c r="O309" t="s" s="2">
         <v>43</v>
@@ -37629,11 +37617,11 @@
         <v>140</v>
       </c>
       <c r="X309" t="s" s="2">
+        <v>869</v>
+      </c>
+      <c r="Y309" t="s" s="2">
         <v>870</v>
       </c>
-      <c r="Y309" t="s" s="2">
-        <v>871</v>
-      </c>
       <c r="Z309" t="s" s="2">
         <v>43</v>
       </c>
@@ -37650,7 +37638,7 @@
         <v>43</v>
       </c>
       <c r="AE309" t="s" s="2">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="AF309" t="s" s="2">
         <v>41</v>
@@ -37679,7 +37667,7 @@
     </row>
     <row r="310" hidden="true">
       <c r="A310" t="s" s="2">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="B310" s="2"/>
       <c r="C310" t="s" s="2">
@@ -37702,19 +37690,19 @@
         <v>43</v>
       </c>
       <c r="J310" t="s" s="2">
+        <v>872</v>
+      </c>
+      <c r="K310" t="s" s="2">
         <v>873</v>
       </c>
-      <c r="K310" t="s" s="2">
+      <c r="L310" t="s" s="2">
         <v>874</v>
       </c>
-      <c r="L310" t="s" s="2">
+      <c r="M310" t="s" s="2">
         <v>875</v>
       </c>
-      <c r="M310" t="s" s="2">
+      <c r="N310" t="s" s="2">
         <v>876</v>
-      </c>
-      <c r="N310" t="s" s="2">
-        <v>877</v>
       </c>
       <c r="O310" t="s" s="2">
         <v>43</v>
@@ -37763,7 +37751,7 @@
         <v>43</v>
       </c>
       <c r="AE310" t="s" s="2">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="AF310" t="s" s="2">
         <v>41</v>
@@ -37792,7 +37780,7 @@
     </row>
     <row r="311" hidden="true">
       <c r="A311" t="s" s="2">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="B311" s="2"/>
       <c r="C311" t="s" s="2">
@@ -37818,14 +37806,14 @@
         <v>211</v>
       </c>
       <c r="K311" t="s" s="2">
+        <v>878</v>
+      </c>
+      <c r="L311" t="s" s="2">
         <v>879</v>
-      </c>
-      <c r="L311" t="s" s="2">
-        <v>880</v>
       </c>
       <c r="M311" s="2"/>
       <c r="N311" t="s" s="2">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="O311" t="s" s="2">
         <v>43</v>
@@ -37874,7 +37862,7 @@
         <v>43</v>
       </c>
       <c r="AE311" t="s" s="2">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="AF311" t="s" s="2">
         <v>41</v>
@@ -37903,7 +37891,7 @@
     </row>
     <row r="312" hidden="true">
       <c r="A312" t="s" s="2">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="B312" s="2"/>
       <c r="C312" t="s" s="2">
@@ -38012,7 +38000,7 @@
     </row>
     <row r="313" hidden="true">
       <c r="A313" t="s" s="2">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="B313" s="2"/>
       <c r="C313" t="s" s="2">
@@ -38123,7 +38111,7 @@
     </row>
     <row r="314" hidden="true">
       <c r="A314" t="s" s="2">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="B314" s="2"/>
       <c r="C314" t="s" s="2">
@@ -38236,7 +38224,7 @@
     </row>
     <row r="315" hidden="true">
       <c r="A315" t="s" s="2">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="B315" s="2"/>
       <c r="C315" t="s" s="2">
@@ -38262,14 +38250,14 @@
         <v>326</v>
       </c>
       <c r="K315" t="s" s="2">
+        <v>885</v>
+      </c>
+      <c r="L315" t="s" s="2">
         <v>886</v>
-      </c>
-      <c r="L315" t="s" s="2">
-        <v>887</v>
       </c>
       <c r="M315" s="2"/>
       <c r="N315" t="s" s="2">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="O315" t="s" s="2">
         <v>43</v>
@@ -38318,7 +38306,7 @@
         <v>43</v>
       </c>
       <c r="AE315" t="s" s="2">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="AF315" t="s" s="2">
         <v>41</v>
@@ -38347,7 +38335,7 @@
     </row>
     <row r="316" hidden="true">
       <c r="A316" t="s" s="2">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="B316" s="2"/>
       <c r="C316" t="s" s="2">
@@ -38373,14 +38361,14 @@
         <v>70</v>
       </c>
       <c r="K316" t="s" s="2">
+        <v>889</v>
+      </c>
+      <c r="L316" t="s" s="2">
         <v>890</v>
-      </c>
-      <c r="L316" t="s" s="2">
-        <v>891</v>
       </c>
       <c r="M316" s="2"/>
       <c r="N316" t="s" s="2">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="O316" t="s" s="2">
         <v>43</v>
@@ -38408,11 +38396,11 @@
         <v>119</v>
       </c>
       <c r="X316" t="s" s="2">
+        <v>892</v>
+      </c>
+      <c r="Y316" t="s" s="2">
         <v>893</v>
       </c>
-      <c r="Y316" t="s" s="2">
-        <v>894</v>
-      </c>
       <c r="Z316" t="s" s="2">
         <v>43</v>
       </c>
@@ -38429,7 +38417,7 @@
         <v>43</v>
       </c>
       <c r="AE316" t="s" s="2">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="AF316" t="s" s="2">
         <v>41</v>
@@ -38458,7 +38446,7 @@
     </row>
     <row r="317" hidden="true">
       <c r="A317" t="s" s="2">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="B317" s="2"/>
       <c r="C317" t="s" s="2">
@@ -38484,14 +38472,14 @@
         <v>52</v>
       </c>
       <c r="K317" t="s" s="2">
+        <v>895</v>
+      </c>
+      <c r="L317" t="s" s="2">
         <v>896</v>
-      </c>
-      <c r="L317" t="s" s="2">
-        <v>897</v>
       </c>
       <c r="M317" s="2"/>
       <c r="N317" t="s" s="2">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="O317" t="s" s="2">
         <v>43</v>
@@ -38540,7 +38528,7 @@
         <v>43</v>
       </c>
       <c r="AE317" t="s" s="2">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="AF317" t="s" s="2">
         <v>41</v>
@@ -38569,7 +38557,7 @@
     </row>
     <row r="318" hidden="true">
       <c r="A318" t="s" s="2">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="B318" s="2"/>
       <c r="C318" t="s" s="2">
@@ -38595,16 +38583,16 @@
         <v>125</v>
       </c>
       <c r="K318" t="s" s="2">
+        <v>899</v>
+      </c>
+      <c r="L318" t="s" s="2">
         <v>900</v>
       </c>
-      <c r="L318" t="s" s="2">
+      <c r="M318" t="s" s="2">
         <v>901</v>
       </c>
-      <c r="M318" t="s" s="2">
+      <c r="N318" t="s" s="2">
         <v>902</v>
-      </c>
-      <c r="N318" t="s" s="2">
-        <v>903</v>
       </c>
       <c r="O318" t="s" s="2">
         <v>43</v>
@@ -38653,7 +38641,7 @@
         <v>43</v>
       </c>
       <c r="AE318" t="s" s="2">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="AF318" t="s" s="2">
         <v>41</v>
@@ -38682,7 +38670,7 @@
     </row>
     <row r="319" hidden="true">
       <c r="A319" t="s" s="2">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="B319" s="2"/>
       <c r="C319" t="s" s="2">
@@ -38708,16 +38696,16 @@
         <v>158</v>
       </c>
       <c r="K319" t="s" s="2">
+        <v>904</v>
+      </c>
+      <c r="L319" t="s" s="2">
         <v>905</v>
       </c>
-      <c r="L319" t="s" s="2">
+      <c r="M319" t="s" s="2">
         <v>906</v>
       </c>
-      <c r="M319" t="s" s="2">
+      <c r="N319" t="s" s="2">
         <v>907</v>
-      </c>
-      <c r="N319" t="s" s="2">
-        <v>908</v>
       </c>
       <c r="O319" t="s" s="2">
         <v>43</v>
@@ -38766,7 +38754,7 @@
         <v>43</v>
       </c>
       <c r="AE319" t="s" s="2">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="AF319" t="s" s="2">
         <v>41</v>
@@ -38795,7 +38783,7 @@
     </row>
     <row r="320" hidden="true">
       <c r="A320" t="s" s="2">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="B320" s="2"/>
       <c r="C320" t="s" s="2">
@@ -38821,10 +38809,10 @@
         <v>211</v>
       </c>
       <c r="K320" t="s" s="2">
+        <v>909</v>
+      </c>
+      <c r="L320" t="s" s="2">
         <v>910</v>
-      </c>
-      <c r="L320" t="s" s="2">
-        <v>911</v>
       </c>
       <c r="M320" s="2"/>
       <c r="N320" s="2"/>
@@ -38875,7 +38863,7 @@
         <v>43</v>
       </c>
       <c r="AE320" t="s" s="2">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="AF320" t="s" s="2">
         <v>41</v>
@@ -38904,7 +38892,7 @@
     </row>
     <row r="321" hidden="true">
       <c r="A321" t="s" s="2">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="B321" s="2"/>
       <c r="C321" t="s" s="2">
@@ -39013,7 +39001,7 @@
     </row>
     <row r="322" hidden="true">
       <c r="A322" t="s" s="2">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="B322" s="2"/>
       <c r="C322" t="s" s="2">
@@ -39124,7 +39112,7 @@
     </row>
     <row r="323" hidden="true">
       <c r="A323" t="s" s="2">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="B323" s="2"/>
       <c r="C323" t="s" s="2">
@@ -39237,7 +39225,7 @@
     </row>
     <row r="324" hidden="true">
       <c r="A324" t="s" s="2">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="B324" s="2"/>
       <c r="C324" t="s" s="2">
@@ -39263,16 +39251,16 @@
         <v>125</v>
       </c>
       <c r="K324" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="L324" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="M324" t="s" s="2">
         <v>571</v>
       </c>
-      <c r="L324" t="s" s="2">
-        <v>572</v>
-      </c>
-      <c r="M324" t="s" s="2">
-        <v>573</v>
-      </c>
       <c r="N324" t="s" s="2">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="O324" t="s" s="2">
         <v>43</v>
@@ -39300,10 +39288,10 @@
         <v>140</v>
       </c>
       <c r="X324" t="s" s="2">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="Y324" t="s" s="2">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="Z324" t="s" s="2">
         <v>43</v>
@@ -39321,7 +39309,7 @@
         <v>43</v>
       </c>
       <c r="AE324" t="s" s="2">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="AF324" t="s" s="2">
         <v>50</v>
@@ -39350,7 +39338,7 @@
     </row>
     <row r="325" hidden="true">
       <c r="A325" t="s" s="2">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="B325" s="2"/>
       <c r="C325" t="s" s="2">
@@ -39376,14 +39364,14 @@
         <v>337</v>
       </c>
       <c r="K325" t="s" s="2">
+        <v>917</v>
+      </c>
+      <c r="L325" t="s" s="2">
         <v>918</v>
-      </c>
-      <c r="L325" t="s" s="2">
-        <v>919</v>
       </c>
       <c r="M325" s="2"/>
       <c r="N325" t="s" s="2">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="O325" t="s" s="2">
         <v>43</v>
@@ -39432,7 +39420,7 @@
         <v>43</v>
       </c>
       <c r="AE325" t="s" s="2">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="AF325" t="s" s="2">
         <v>41</v>
@@ -39461,7 +39449,7 @@
     </row>
     <row r="326" hidden="true">
       <c r="A326" t="s" s="2">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="B326" s="2"/>
       <c r="C326" t="s" s="2">
@@ -39487,16 +39475,16 @@
         <v>52</v>
       </c>
       <c r="K326" t="s" s="2">
+        <v>921</v>
+      </c>
+      <c r="L326" t="s" s="2">
         <v>922</v>
       </c>
-      <c r="L326" t="s" s="2">
+      <c r="M326" t="s" s="2">
         <v>923</v>
       </c>
-      <c r="M326" t="s" s="2">
+      <c r="N326" t="s" s="2">
         <v>924</v>
-      </c>
-      <c r="N326" t="s" s="2">
-        <v>925</v>
       </c>
       <c r="O326" t="s" s="2">
         <v>43</v>
@@ -39545,7 +39533,7 @@
         <v>43</v>
       </c>
       <c r="AE326" t="s" s="2">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="AF326" t="s" s="2">
         <v>41</v>
@@ -39574,7 +39562,7 @@
     </row>
     <row r="327" hidden="true">
       <c r="A327" t="s" s="2">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="B327" s="2"/>
       <c r="C327" t="s" s="2">
@@ -39600,16 +39588,16 @@
         <v>52</v>
       </c>
       <c r="K327" t="s" s="2">
+        <v>926</v>
+      </c>
+      <c r="L327" t="s" s="2">
         <v>927</v>
       </c>
-      <c r="L327" t="s" s="2">
+      <c r="M327" t="s" s="2">
         <v>928</v>
       </c>
-      <c r="M327" t="s" s="2">
+      <c r="N327" t="s" s="2">
         <v>929</v>
-      </c>
-      <c r="N327" t="s" s="2">
-        <v>930</v>
       </c>
       <c r="O327" t="s" s="2">
         <v>43</v>
@@ -39658,7 +39646,7 @@
         <v>43</v>
       </c>
       <c r="AE327" t="s" s="2">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="AF327" t="s" s="2">
         <v>41</v>
@@ -39687,7 +39675,7 @@
     </row>
     <row r="328" hidden="true">
       <c r="A328" t="s" s="2">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="B328" s="2"/>
       <c r="C328" t="s" s="2">
@@ -39713,14 +39701,14 @@
         <v>125</v>
       </c>
       <c r="K328" t="s" s="2">
+        <v>931</v>
+      </c>
+      <c r="L328" t="s" s="2">
         <v>932</v>
-      </c>
-      <c r="L328" t="s" s="2">
-        <v>933</v>
       </c>
       <c r="M328" s="2"/>
       <c r="N328" t="s" s="2">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="O328" t="s" s="2">
         <v>43</v>
@@ -39748,11 +39736,11 @@
         <v>140</v>
       </c>
       <c r="X328" t="s" s="2">
+        <v>934</v>
+      </c>
+      <c r="Y328" t="s" s="2">
         <v>935</v>
       </c>
-      <c r="Y328" t="s" s="2">
-        <v>936</v>
-      </c>
       <c r="Z328" t="s" s="2">
         <v>43</v>
       </c>
@@ -39769,7 +39757,7 @@
         <v>43</v>
       </c>
       <c r="AE328" t="s" s="2">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="AF328" t="s" s="2">
         <v>41</v>
@@ -39798,7 +39786,7 @@
     </row>
     <row r="329" hidden="true">
       <c r="A329" t="s" s="2">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="B329" s="2"/>
       <c r="C329" t="s" s="2">
@@ -39824,14 +39812,14 @@
         <v>125</v>
       </c>
       <c r="K329" t="s" s="2">
+        <v>937</v>
+      </c>
+      <c r="L329" t="s" s="2">
         <v>938</v>
-      </c>
-      <c r="L329" t="s" s="2">
-        <v>939</v>
       </c>
       <c r="M329" s="2"/>
       <c r="N329" t="s" s="2">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="O329" t="s" s="2">
         <v>43</v>
@@ -39859,11 +39847,11 @@
         <v>140</v>
       </c>
       <c r="X329" t="s" s="2">
+        <v>940</v>
+      </c>
+      <c r="Y329" t="s" s="2">
         <v>941</v>
       </c>
-      <c r="Y329" t="s" s="2">
-        <v>942</v>
-      </c>
       <c r="Z329" t="s" s="2">
         <v>43</v>
       </c>
@@ -39880,7 +39868,7 @@
         <v>43</v>
       </c>
       <c r="AE329" t="s" s="2">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="AF329" t="s" s="2">
         <v>41</v>
@@ -39909,7 +39897,7 @@
     </row>
     <row r="330" hidden="true">
       <c r="A330" t="s" s="2">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="B330" s="2"/>
       <c r="C330" t="s" s="2">
@@ -39935,14 +39923,14 @@
         <v>125</v>
       </c>
       <c r="K330" t="s" s="2">
+        <v>943</v>
+      </c>
+      <c r="L330" t="s" s="2">
         <v>944</v>
-      </c>
-      <c r="L330" t="s" s="2">
-        <v>945</v>
       </c>
       <c r="M330" s="2"/>
       <c r="N330" t="s" s="2">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="O330" t="s" s="2">
         <v>43</v>
@@ -39970,11 +39958,11 @@
         <v>140</v>
       </c>
       <c r="X330" t="s" s="2">
+        <v>945</v>
+      </c>
+      <c r="Y330" t="s" s="2">
         <v>946</v>
       </c>
-      <c r="Y330" t="s" s="2">
-        <v>947</v>
-      </c>
       <c r="Z330" t="s" s="2">
         <v>43</v>
       </c>
@@ -39991,7 +39979,7 @@
         <v>43</v>
       </c>
       <c r="AE330" t="s" s="2">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="AF330" t="s" s="2">
         <v>41</v>
@@ -40020,7 +40008,7 @@
     </row>
     <row r="331" hidden="true">
       <c r="A331" t="s" s="2">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="B331" s="2"/>
       <c r="C331" t="s" s="2">
@@ -40046,10 +40034,10 @@
         <v>211</v>
       </c>
       <c r="K331" t="s" s="2">
+        <v>948</v>
+      </c>
+      <c r="L331" t="s" s="2">
         <v>949</v>
-      </c>
-      <c r="L331" t="s" s="2">
-        <v>950</v>
       </c>
       <c r="M331" s="2"/>
       <c r="N331" s="2"/>
@@ -40100,7 +40088,7 @@
         <v>43</v>
       </c>
       <c r="AE331" t="s" s="2">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="AF331" t="s" s="2">
         <v>41</v>
@@ -40129,7 +40117,7 @@
     </row>
     <row r="332" hidden="true">
       <c r="A332" t="s" s="2">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="B332" s="2"/>
       <c r="C332" t="s" s="2">
@@ -40238,7 +40226,7 @@
     </row>
     <row r="333" hidden="true">
       <c r="A333" t="s" s="2">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="B333" s="2"/>
       <c r="C333" t="s" s="2">
@@ -40349,7 +40337,7 @@
     </row>
     <row r="334" hidden="true">
       <c r="A334" t="s" s="2">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="B334" s="2"/>
       <c r="C334" t="s" s="2">
@@ -40462,7 +40450,7 @@
     </row>
     <row r="335" hidden="true">
       <c r="A335" t="s" s="2">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="B335" s="2"/>
       <c r="C335" t="s" s="2">
@@ -40488,16 +40476,16 @@
         <v>125</v>
       </c>
       <c r="K335" t="s" s="2">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="L335" t="s" s="2">
+        <v>954</v>
+      </c>
+      <c r="M335" t="s" s="2">
         <v>955</v>
       </c>
-      <c r="M335" t="s" s="2">
+      <c r="N335" t="s" s="2">
         <v>956</v>
-      </c>
-      <c r="N335" t="s" s="2">
-        <v>957</v>
       </c>
       <c r="O335" t="s" s="2">
         <v>43</v>
@@ -40525,11 +40513,11 @@
         <v>140</v>
       </c>
       <c r="X335" t="s" s="2">
+        <v>957</v>
+      </c>
+      <c r="Y335" t="s" s="2">
         <v>958</v>
       </c>
-      <c r="Y335" t="s" s="2">
-        <v>959</v>
-      </c>
       <c r="Z335" t="s" s="2">
         <v>43</v>
       </c>
@@ -40546,7 +40534,7 @@
         <v>43</v>
       </c>
       <c r="AE335" t="s" s="2">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="AF335" t="s" s="2">
         <v>50</v>
@@ -40575,7 +40563,7 @@
     </row>
     <row r="336" hidden="true">
       <c r="A336" t="s" s="2">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="B336" s="2"/>
       <c r="C336" t="s" s="2">
@@ -40598,17 +40586,17 @@
         <v>43</v>
       </c>
       <c r="J336" t="s" s="2">
+        <v>960</v>
+      </c>
+      <c r="K336" t="s" s="2">
         <v>961</v>
       </c>
-      <c r="K336" t="s" s="2">
+      <c r="L336" t="s" s="2">
         <v>962</v>
-      </c>
-      <c r="L336" t="s" s="2">
-        <v>963</v>
       </c>
       <c r="M336" s="2"/>
       <c r="N336" t="s" s="2">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="O336" t="s" s="2">
         <v>43</v>
@@ -40657,7 +40645,7 @@
         <v>43</v>
       </c>
       <c r="AE336" t="s" s="2">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="AF336" t="s" s="2">
         <v>41</v>
@@ -40686,7 +40674,7 @@
     </row>
     <row r="337" hidden="true">
       <c r="A337" t="s" s="2">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="B337" s="2"/>
       <c r="C337" t="s" s="2">
@@ -40709,17 +40697,17 @@
         <v>43</v>
       </c>
       <c r="J337" t="s" s="2">
+        <v>965</v>
+      </c>
+      <c r="K337" t="s" s="2">
         <v>966</v>
       </c>
-      <c r="K337" t="s" s="2">
+      <c r="L337" t="s" s="2">
         <v>967</v>
-      </c>
-      <c r="L337" t="s" s="2">
-        <v>968</v>
       </c>
       <c r="M337" s="2"/>
       <c r="N337" t="s" s="2">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="O337" t="s" s="2">
         <v>43</v>
@@ -40768,7 +40756,7 @@
         <v>43</v>
       </c>
       <c r="AE337" t="s" s="2">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="AF337" t="s" s="2">
         <v>41</v>
